--- a/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>ROSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5056600</v>
+        <v>4791400</v>
       </c>
       <c r="E8" s="3">
-        <v>4821100</v>
+        <v>4547400</v>
       </c>
       <c r="F8" s="3">
-        <v>4696700</v>
+        <v>4335700</v>
       </c>
       <c r="G8" s="3">
-        <v>4695200</v>
+        <v>4223700</v>
       </c>
       <c r="H8" s="3">
-        <v>4720200</v>
+        <v>4222400</v>
       </c>
       <c r="I8" s="3">
-        <v>4590700</v>
+        <v>4244900</v>
       </c>
       <c r="J8" s="3">
+        <v>4128500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4663400</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1364400</v>
+        <v>1210000</v>
       </c>
       <c r="E9" s="3">
-        <v>1267200</v>
+        <v>1227000</v>
       </c>
       <c r="F9" s="3">
-        <v>1239000</v>
+        <v>1139600</v>
       </c>
       <c r="G9" s="3">
-        <v>1204200</v>
+        <v>1114200</v>
       </c>
       <c r="H9" s="3">
-        <v>1183600</v>
+        <v>1082900</v>
       </c>
       <c r="I9" s="3">
-        <v>1084500</v>
+        <v>1064400</v>
       </c>
       <c r="J9" s="3">
+        <v>975300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2232500</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3692200</v>
+        <v>3581400</v>
       </c>
       <c r="E10" s="3">
-        <v>3553900</v>
+        <v>3320400</v>
       </c>
       <c r="F10" s="3">
-        <v>3457700</v>
+        <v>3196100</v>
       </c>
       <c r="G10" s="3">
-        <v>3491000</v>
+        <v>3109500</v>
       </c>
       <c r="H10" s="3">
-        <v>3536600</v>
+        <v>3139500</v>
       </c>
       <c r="I10" s="3">
-        <v>3506300</v>
+        <v>3180500</v>
       </c>
       <c r="J10" s="3">
+        <v>3153200</v>
+      </c>
+      <c r="K10" s="3">
         <v>2430900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>50000</v>
+        <v>71900</v>
       </c>
       <c r="E14" s="3">
-        <v>-16800</v>
+        <v>45000</v>
       </c>
       <c r="F14" s="3">
-        <v>-1100</v>
+        <v>-15100</v>
       </c>
       <c r="G14" s="3">
-        <v>1800</v>
+        <v>-1000</v>
       </c>
       <c r="H14" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-190200</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>952600</v>
+        <v>955800</v>
       </c>
       <c r="E15" s="3">
-        <v>894200</v>
+        <v>856700</v>
       </c>
       <c r="F15" s="3">
-        <v>877800</v>
+        <v>804100</v>
       </c>
       <c r="G15" s="3">
-        <v>956900</v>
+        <v>789400</v>
       </c>
       <c r="H15" s="3">
-        <v>957200</v>
+        <v>860500</v>
       </c>
       <c r="I15" s="3">
-        <v>930300</v>
+        <v>860800</v>
       </c>
       <c r="J15" s="3">
+        <v>836600</v>
+      </c>
+      <c r="K15" s="3">
         <v>902100</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4493100</v>
+        <v>4316900</v>
       </c>
       <c r="E17" s="3">
-        <v>4218000</v>
+        <v>4040600</v>
       </c>
       <c r="F17" s="3">
-        <v>4070600</v>
+        <v>3793200</v>
       </c>
       <c r="G17" s="3">
-        <v>4090500</v>
+        <v>3660700</v>
       </c>
       <c r="H17" s="3">
-        <v>4086100</v>
+        <v>3678600</v>
       </c>
       <c r="I17" s="3">
-        <v>3876500</v>
+        <v>3674600</v>
       </c>
       <c r="J17" s="3">
+        <v>3486100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3834800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>563500</v>
+        <v>474400</v>
       </c>
       <c r="E18" s="3">
-        <v>603200</v>
+        <v>506800</v>
       </c>
       <c r="F18" s="3">
-        <v>626000</v>
+        <v>542400</v>
       </c>
       <c r="G18" s="3">
-        <v>604700</v>
+        <v>563000</v>
       </c>
       <c r="H18" s="3">
-        <v>634100</v>
+        <v>543800</v>
       </c>
       <c r="I18" s="3">
-        <v>714200</v>
+        <v>570300</v>
       </c>
       <c r="J18" s="3">
+        <v>642300</v>
+      </c>
+      <c r="K18" s="3">
         <v>828700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8800</v>
+        <v>47300</v>
       </c>
       <c r="E20" s="3">
-        <v>-32500</v>
+        <v>7900</v>
       </c>
       <c r="F20" s="3">
-        <v>-89300</v>
+        <v>-29200</v>
       </c>
       <c r="G20" s="3">
-        <v>-82700</v>
+        <v>-80300</v>
       </c>
       <c r="H20" s="3">
-        <v>-67700</v>
+        <v>-74400</v>
       </c>
       <c r="I20" s="3">
-        <v>-160700</v>
+        <v>-60900</v>
       </c>
       <c r="J20" s="3">
+        <v>-144500</v>
+      </c>
+      <c r="K20" s="3">
         <v>124900</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1532100</v>
+        <v>1470200</v>
       </c>
       <c r="E21" s="3">
-        <v>1471600</v>
+        <v>1364700</v>
       </c>
       <c r="F21" s="3">
-        <v>1421100</v>
+        <v>1311100</v>
       </c>
       <c r="G21" s="3">
-        <v>1486200</v>
+        <v>1265900</v>
       </c>
       <c r="H21" s="3">
-        <v>1531100</v>
+        <v>1323300</v>
       </c>
       <c r="I21" s="3">
-        <v>1642000</v>
+        <v>1363700</v>
       </c>
       <c r="J21" s="3">
+        <v>1461700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2011800</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>265400</v>
+        <v>258800</v>
       </c>
       <c r="E22" s="3">
-        <v>272100</v>
+        <v>238600</v>
       </c>
       <c r="F22" s="3">
-        <v>269200</v>
+        <v>244700</v>
       </c>
       <c r="G22" s="3">
-        <v>256300</v>
+        <v>242100</v>
       </c>
       <c r="H22" s="3">
-        <v>244400</v>
-      </c>
-      <c r="I22" s="3" t="s">
+        <v>230500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>219800</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>249700</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>306900</v>
+        <v>263000</v>
       </c>
       <c r="E23" s="3">
-        <v>298500</v>
+        <v>276000</v>
       </c>
       <c r="F23" s="3">
-        <v>267500</v>
+        <v>268500</v>
       </c>
       <c r="G23" s="3">
-        <v>265700</v>
+        <v>240600</v>
       </c>
       <c r="H23" s="3">
-        <v>322000</v>
+        <v>238900</v>
       </c>
       <c r="I23" s="3">
-        <v>553500</v>
+        <v>289600</v>
       </c>
       <c r="J23" s="3">
+        <v>497800</v>
+      </c>
+      <c r="K23" s="3">
         <v>703900</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>69900</v>
+        <v>29100</v>
       </c>
       <c r="E24" s="3">
-        <v>76700</v>
+        <v>62900</v>
       </c>
       <c r="F24" s="3">
-        <v>74100</v>
+        <v>69000</v>
       </c>
       <c r="G24" s="3">
-        <v>38500</v>
+        <v>66600</v>
       </c>
       <c r="H24" s="3">
-        <v>113900</v>
+        <v>34600</v>
       </c>
       <c r="I24" s="3">
-        <v>132200</v>
+        <v>102400</v>
       </c>
       <c r="J24" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K24" s="3">
         <v>173700</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>237000</v>
+        <v>233900</v>
       </c>
       <c r="E26" s="3">
-        <v>221800</v>
+        <v>213200</v>
       </c>
       <c r="F26" s="3">
-        <v>193400</v>
+        <v>199500</v>
       </c>
       <c r="G26" s="3">
-        <v>227200</v>
+        <v>173900</v>
       </c>
       <c r="H26" s="3">
-        <v>208100</v>
+        <v>204400</v>
       </c>
       <c r="I26" s="3">
-        <v>421400</v>
+        <v>187200</v>
       </c>
       <c r="J26" s="3">
+        <v>378900</v>
+      </c>
+      <c r="K26" s="3">
         <v>530200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>223500</v>
+        <v>209800</v>
       </c>
       <c r="E27" s="3">
-        <v>216300</v>
+        <v>201000</v>
       </c>
       <c r="F27" s="3">
-        <v>185500</v>
+        <v>194500</v>
       </c>
       <c r="G27" s="3">
-        <v>220200</v>
+        <v>166900</v>
       </c>
       <c r="H27" s="3">
-        <v>203600</v>
+        <v>198000</v>
       </c>
       <c r="I27" s="3">
-        <v>417300</v>
+        <v>183100</v>
       </c>
       <c r="J27" s="3">
+        <v>375300</v>
+      </c>
+      <c r="K27" s="3">
         <v>522000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1241,21 +1301,24 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>388800</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-40400</v>
+        <v>349700</v>
       </c>
       <c r="J29" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="K29" s="3">
         <v>-6000</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8800</v>
+        <v>-47300</v>
       </c>
       <c r="E32" s="3">
-        <v>32500</v>
+        <v>-7900</v>
       </c>
       <c r="F32" s="3">
-        <v>89300</v>
+        <v>29200</v>
       </c>
       <c r="G32" s="3">
-        <v>82700</v>
+        <v>80300</v>
       </c>
       <c r="H32" s="3">
-        <v>67700</v>
+        <v>74400</v>
       </c>
       <c r="I32" s="3">
-        <v>160700</v>
+        <v>60900</v>
       </c>
       <c r="J32" s="3">
+        <v>144500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-124900</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>223500</v>
+        <v>209800</v>
       </c>
       <c r="E33" s="3">
-        <v>216300</v>
+        <v>201000</v>
       </c>
       <c r="F33" s="3">
-        <v>185500</v>
+        <v>194500</v>
       </c>
       <c r="G33" s="3">
-        <v>220200</v>
+        <v>166900</v>
       </c>
       <c r="H33" s="3">
-        <v>592400</v>
+        <v>198000</v>
       </c>
       <c r="I33" s="3">
-        <v>376900</v>
+        <v>532800</v>
       </c>
       <c r="J33" s="3">
+        <v>339000</v>
+      </c>
+      <c r="K33" s="3">
         <v>516000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>223500</v>
+        <v>209800</v>
       </c>
       <c r="E35" s="3">
-        <v>216300</v>
+        <v>201000</v>
       </c>
       <c r="F35" s="3">
-        <v>185500</v>
+        <v>194500</v>
       </c>
       <c r="G35" s="3">
-        <v>220200</v>
+        <v>166900</v>
       </c>
       <c r="H35" s="3">
-        <v>592400</v>
+        <v>198000</v>
       </c>
       <c r="I35" s="3">
-        <v>376900</v>
+        <v>532800</v>
       </c>
       <c r="J35" s="3">
+        <v>339000</v>
+      </c>
+      <c r="K35" s="3">
         <v>516000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>159200</v>
+        <v>563400</v>
       </c>
       <c r="E41" s="3">
-        <v>60200</v>
+        <v>143700</v>
       </c>
       <c r="F41" s="3">
-        <v>67200</v>
+        <v>54400</v>
       </c>
       <c r="G41" s="3">
-        <v>113100</v>
+        <v>60700</v>
       </c>
       <c r="H41" s="3">
-        <v>267600</v>
+        <v>102200</v>
       </c>
       <c r="I41" s="3">
-        <v>125700</v>
+        <v>241600</v>
       </c>
       <c r="J41" s="3">
+        <v>113500</v>
+      </c>
+      <c r="K41" s="3">
         <v>367800</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>118200</v>
+        <v>126700</v>
       </c>
       <c r="E42" s="3">
-        <v>94200</v>
+        <v>106800</v>
       </c>
       <c r="F42" s="3">
-        <v>84700</v>
+        <v>85000</v>
       </c>
       <c r="G42" s="3">
-        <v>90300</v>
+        <v>76500</v>
       </c>
       <c r="H42" s="3">
-        <v>30500</v>
+        <v>81600</v>
       </c>
       <c r="I42" s="3">
-        <v>31000</v>
+        <v>27600</v>
       </c>
       <c r="J42" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K42" s="3">
         <v>81300</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>847900</v>
+        <v>732800</v>
       </c>
       <c r="E43" s="3">
-        <v>755000</v>
+        <v>765800</v>
       </c>
       <c r="F43" s="3">
-        <v>724500</v>
+        <v>681800</v>
       </c>
       <c r="G43" s="3">
-        <v>681400</v>
+        <v>654300</v>
       </c>
       <c r="H43" s="3">
-        <v>711400</v>
+        <v>615300</v>
       </c>
       <c r="I43" s="3">
-        <v>628800</v>
+        <v>642500</v>
       </c>
       <c r="J43" s="3">
+        <v>567900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1103300</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>120500</v>
+        <v>273900</v>
       </c>
       <c r="E44" s="3">
-        <v>97400</v>
+        <v>108800</v>
       </c>
       <c r="F44" s="3">
-        <v>101800</v>
+        <v>88000</v>
       </c>
       <c r="G44" s="3">
-        <v>64100</v>
+        <v>91900</v>
       </c>
       <c r="H44" s="3">
-        <v>76200</v>
+        <v>57900</v>
       </c>
       <c r="I44" s="3">
-        <v>62200</v>
+        <v>68800</v>
       </c>
       <c r="J44" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K44" s="3">
         <v>150400</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>138500</v>
+        <v>224300</v>
       </c>
       <c r="E45" s="3">
-        <v>114200</v>
+        <v>125100</v>
       </c>
       <c r="F45" s="3">
-        <v>99100</v>
+        <v>103100</v>
       </c>
       <c r="G45" s="3">
-        <v>100300</v>
+        <v>89500</v>
       </c>
       <c r="H45" s="3">
-        <v>119900</v>
+        <v>90500</v>
       </c>
       <c r="I45" s="3">
-        <v>142300</v>
+        <v>108300</v>
       </c>
       <c r="J45" s="3">
+        <v>128500</v>
+      </c>
+      <c r="K45" s="3">
         <v>258400</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1384300</v>
+        <v>1553500</v>
       </c>
       <c r="E46" s="3">
-        <v>1120900</v>
+        <v>1250200</v>
       </c>
       <c r="F46" s="3">
-        <v>1077300</v>
+        <v>1012300</v>
       </c>
       <c r="G46" s="3">
-        <v>1049200</v>
+        <v>972900</v>
       </c>
       <c r="H46" s="3">
-        <v>1205600</v>
+        <v>947500</v>
       </c>
       <c r="I46" s="3">
-        <v>990100</v>
+        <v>1088800</v>
       </c>
       <c r="J46" s="3">
+        <v>894100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1046400</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1454300</v>
+        <v>466500</v>
       </c>
       <c r="E47" s="3">
-        <v>1197400</v>
+        <v>1313400</v>
       </c>
       <c r="F47" s="3">
-        <v>1091900</v>
+        <v>1081400</v>
       </c>
       <c r="G47" s="3">
-        <v>1185800</v>
+        <v>986100</v>
       </c>
       <c r="H47" s="3">
-        <v>1186700</v>
+        <v>1070900</v>
       </c>
       <c r="I47" s="3">
-        <v>22700</v>
+        <v>1071800</v>
       </c>
       <c r="J47" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K47" s="3">
         <v>690000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6240500</v>
+        <v>14292300</v>
       </c>
       <c r="E48" s="3">
-        <v>5504200</v>
+        <v>5938200</v>
       </c>
       <c r="F48" s="3">
-        <v>5429400</v>
+        <v>4970900</v>
       </c>
       <c r="G48" s="3">
-        <v>5349700</v>
+        <v>4903300</v>
       </c>
       <c r="H48" s="3">
-        <v>5186900</v>
+        <v>4831400</v>
       </c>
       <c r="I48" s="3">
-        <v>5292400</v>
+        <v>4684300</v>
       </c>
       <c r="J48" s="3">
+        <v>4779600</v>
+      </c>
+      <c r="K48" s="3">
         <v>12418200</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1046000</v>
+        <v>3115000</v>
       </c>
       <c r="E49" s="3">
-        <v>944600</v>
+        <v>942300</v>
       </c>
       <c r="F49" s="3">
-        <v>966500</v>
+        <v>853000</v>
       </c>
       <c r="G49" s="3">
-        <v>959300</v>
+        <v>872800</v>
       </c>
       <c r="H49" s="3">
-        <v>922500</v>
+        <v>866400</v>
       </c>
       <c r="I49" s="3">
-        <v>1016000</v>
+        <v>833100</v>
       </c>
       <c r="J49" s="3">
+        <v>917600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2781600</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>87300</v>
+        <v>290500</v>
       </c>
       <c r="E52" s="3">
-        <v>94700</v>
+        <v>78900</v>
       </c>
       <c r="F52" s="3">
-        <v>209200</v>
+        <v>85500</v>
       </c>
       <c r="G52" s="3">
-        <v>161400</v>
+        <v>188900</v>
       </c>
       <c r="H52" s="3">
-        <v>161200</v>
+        <v>145700</v>
       </c>
       <c r="I52" s="3">
-        <v>1536600</v>
+        <v>145600</v>
       </c>
       <c r="J52" s="3">
+        <v>1387700</v>
+      </c>
+      <c r="K52" s="3">
         <v>263700</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10212400</v>
+        <v>12275500</v>
       </c>
       <c r="E54" s="3">
-        <v>8846000</v>
+        <v>9220600</v>
       </c>
       <c r="F54" s="3">
-        <v>8774200</v>
+        <v>7988900</v>
       </c>
       <c r="G54" s="3">
-        <v>8705300</v>
+        <v>7924000</v>
       </c>
       <c r="H54" s="3">
-        <v>8662900</v>
+        <v>7861800</v>
       </c>
       <c r="I54" s="3">
-        <v>8857700</v>
+        <v>7823500</v>
       </c>
       <c r="J54" s="3">
+        <v>7999500</v>
+      </c>
+      <c r="K54" s="3">
         <v>8955900</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>948300</v>
+        <v>2034700</v>
       </c>
       <c r="E57" s="3">
-        <v>615700</v>
+        <v>860900</v>
       </c>
       <c r="F57" s="3">
-        <v>705100</v>
+        <v>556100</v>
       </c>
       <c r="G57" s="3">
-        <v>677800</v>
+        <v>636800</v>
       </c>
       <c r="H57" s="3">
-        <v>687600</v>
+        <v>612100</v>
       </c>
       <c r="I57" s="3">
-        <v>1162700</v>
+        <v>620900</v>
       </c>
       <c r="J57" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1750100</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>547900</v>
+        <v>1613100</v>
       </c>
       <c r="E58" s="3">
-        <v>390200</v>
+        <v>494800</v>
       </c>
       <c r="F58" s="3">
-        <v>964500</v>
+        <v>352400</v>
       </c>
       <c r="G58" s="3">
-        <v>920600</v>
+        <v>871000</v>
       </c>
       <c r="H58" s="3">
-        <v>823300</v>
+        <v>831400</v>
       </c>
       <c r="I58" s="3">
-        <v>524400</v>
+        <v>743500</v>
       </c>
       <c r="J58" s="3">
+        <v>473600</v>
+      </c>
+      <c r="K58" s="3">
         <v>2029300</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>671200</v>
+        <v>1641400</v>
       </c>
       <c r="E59" s="3">
-        <v>496900</v>
+        <v>601700</v>
       </c>
       <c r="F59" s="3">
-        <v>447300</v>
+        <v>448700</v>
       </c>
       <c r="G59" s="3">
-        <v>465100</v>
+        <v>403900</v>
       </c>
       <c r="H59" s="3">
-        <v>435100</v>
+        <v>420100</v>
       </c>
       <c r="I59" s="3">
-        <v>148700</v>
+        <v>393000</v>
       </c>
       <c r="J59" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K59" s="3">
         <v>492900</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2167500</v>
+        <v>3363300</v>
       </c>
       <c r="E60" s="3">
-        <v>1502800</v>
+        <v>1957500</v>
       </c>
       <c r="F60" s="3">
-        <v>2116800</v>
+        <v>1357200</v>
       </c>
       <c r="G60" s="3">
-        <v>2063600</v>
+        <v>1911700</v>
       </c>
       <c r="H60" s="3">
-        <v>1946000</v>
+        <v>1863600</v>
       </c>
       <c r="I60" s="3">
-        <v>1835800</v>
+        <v>1757500</v>
       </c>
       <c r="J60" s="3">
+        <v>1657900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2165500</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3019500</v>
+        <v>4604900</v>
       </c>
       <c r="E61" s="3">
-        <v>2631600</v>
+        <v>2726900</v>
       </c>
       <c r="F61" s="3">
-        <v>1966000</v>
+        <v>2376600</v>
       </c>
       <c r="G61" s="3">
-        <v>1999300</v>
+        <v>1775500</v>
       </c>
       <c r="H61" s="3">
-        <v>2177000</v>
+        <v>1805600</v>
       </c>
       <c r="I61" s="3">
-        <v>2914800</v>
+        <v>1966100</v>
       </c>
       <c r="J61" s="3">
+        <v>2632400</v>
+      </c>
+      <c r="K61" s="3">
         <v>2413900</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1063000</v>
+        <v>1704700</v>
       </c>
       <c r="E62" s="3">
-        <v>774200</v>
+        <v>957900</v>
       </c>
       <c r="F62" s="3">
-        <v>765500</v>
+        <v>699200</v>
       </c>
       <c r="G62" s="3">
-        <v>700200</v>
+        <v>691300</v>
       </c>
       <c r="H62" s="3">
-        <v>667800</v>
+        <v>632400</v>
       </c>
       <c r="I62" s="3">
-        <v>674300</v>
+        <v>603100</v>
       </c>
       <c r="J62" s="3">
+        <v>609000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1232800</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6311900</v>
+        <v>9267600</v>
       </c>
       <c r="E66" s="3">
-        <v>4959700</v>
+        <v>5698000</v>
       </c>
       <c r="F66" s="3">
-        <v>4916500</v>
+        <v>4479200</v>
       </c>
       <c r="G66" s="3">
-        <v>4825000</v>
+        <v>4440100</v>
       </c>
       <c r="H66" s="3">
-        <v>4855200</v>
+        <v>4357500</v>
       </c>
       <c r="I66" s="3">
-        <v>5756600</v>
+        <v>4384700</v>
       </c>
       <c r="J66" s="3">
+        <v>5198800</v>
+      </c>
+      <c r="K66" s="3">
         <v>5225900</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4851200</v>
+        <v>3767900</v>
       </c>
       <c r="E72" s="3">
-        <v>4918500</v>
+        <v>4381200</v>
       </c>
       <c r="F72" s="3">
-        <v>4913300</v>
+        <v>4441900</v>
       </c>
       <c r="G72" s="3">
-        <v>4961800</v>
+        <v>4437200</v>
       </c>
       <c r="H72" s="3">
-        <v>5088500</v>
+        <v>4481000</v>
       </c>
       <c r="I72" s="3">
-        <v>4152200</v>
+        <v>4595400</v>
       </c>
       <c r="J72" s="3">
+        <v>3749900</v>
+      </c>
+      <c r="K72" s="3">
         <v>8270000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3900500</v>
+        <v>3007900</v>
       </c>
       <c r="E76" s="3">
-        <v>3886300</v>
+        <v>3522500</v>
       </c>
       <c r="F76" s="3">
-        <v>3857700</v>
+        <v>3509700</v>
       </c>
       <c r="G76" s="3">
-        <v>3880400</v>
+        <v>3483900</v>
       </c>
       <c r="H76" s="3">
-        <v>3807800</v>
+        <v>3504400</v>
       </c>
       <c r="I76" s="3">
-        <v>3101100</v>
+        <v>3438800</v>
       </c>
       <c r="J76" s="3">
+        <v>2800600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3730000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>223500</v>
+        <v>209800</v>
       </c>
       <c r="E81" s="3">
-        <v>216300</v>
+        <v>201000</v>
       </c>
       <c r="F81" s="3">
-        <v>185500</v>
+        <v>194500</v>
       </c>
       <c r="G81" s="3">
-        <v>220200</v>
+        <v>166900</v>
       </c>
       <c r="H81" s="3">
-        <v>592400</v>
+        <v>198000</v>
       </c>
       <c r="I81" s="3">
-        <v>376900</v>
+        <v>532800</v>
       </c>
       <c r="J81" s="3">
+        <v>339000</v>
+      </c>
+      <c r="K81" s="3">
         <v>516000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>952600</v>
+        <v>955800</v>
       </c>
       <c r="E83" s="3">
-        <v>894200</v>
+        <v>856700</v>
       </c>
       <c r="F83" s="3">
-        <v>877800</v>
+        <v>804100</v>
       </c>
       <c r="G83" s="3">
-        <v>956900</v>
+        <v>789400</v>
       </c>
       <c r="H83" s="3">
-        <v>957400</v>
+        <v>860500</v>
       </c>
       <c r="I83" s="3">
-        <v>1080300</v>
+        <v>861000</v>
       </c>
       <c r="J83" s="3">
+        <v>971500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1050200</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1219700</v>
+        <v>1411800</v>
       </c>
       <c r="E89" s="3">
-        <v>1133200</v>
+        <v>1096900</v>
       </c>
       <c r="F89" s="3">
-        <v>1060700</v>
+        <v>1019100</v>
       </c>
       <c r="G89" s="3">
-        <v>1276600</v>
+        <v>953900</v>
       </c>
       <c r="H89" s="3">
-        <v>1256000</v>
+        <v>1148100</v>
       </c>
       <c r="I89" s="3">
-        <v>1353100</v>
+        <v>1129600</v>
       </c>
       <c r="J89" s="3">
+        <v>1216800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1525900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1155500</v>
+        <v>-1427300</v>
       </c>
       <c r="E91" s="3">
-        <v>-959300</v>
+        <v>-1039100</v>
       </c>
       <c r="F91" s="3">
-        <v>-976700</v>
+        <v>-862700</v>
       </c>
       <c r="G91" s="3">
-        <v>-990400</v>
+        <v>-878400</v>
       </c>
       <c r="H91" s="3">
-        <v>-910500</v>
+        <v>-890700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1081400</v>
+        <v>-818900</v>
       </c>
       <c r="J91" s="3">
+        <v>-972500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1479000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1092400</v>
+        <v>-1466500</v>
       </c>
       <c r="E94" s="3">
-        <v>-844100</v>
+        <v>-982400</v>
       </c>
       <c r="F94" s="3">
-        <v>-899200</v>
+        <v>-759100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1035300</v>
+        <v>-808700</v>
       </c>
       <c r="H94" s="3">
-        <v>-333300</v>
+        <v>-931100</v>
       </c>
       <c r="I94" s="3">
-        <v>-977800</v>
+        <v>-299700</v>
       </c>
       <c r="J94" s="3">
+        <v>-879400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1450500</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-182300</v>
+        <v>-166600</v>
       </c>
       <c r="E96" s="3">
-        <v>-192600</v>
+        <v>-164000</v>
       </c>
       <c r="F96" s="3">
-        <v>-209900</v>
+        <v>-173200</v>
       </c>
       <c r="G96" s="3">
-        <v>-121200</v>
+        <v>-188800</v>
       </c>
       <c r="H96" s="3">
-        <v>-115200</v>
+        <v>-109000</v>
       </c>
       <c r="I96" s="3">
-        <v>-92000</v>
+        <v>-103600</v>
       </c>
       <c r="J96" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-144800</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-29100</v>
+        <v>190500</v>
       </c>
       <c r="E100" s="3">
-        <v>-293700</v>
+        <v>-26200</v>
       </c>
       <c r="F100" s="3">
-        <v>-200200</v>
+        <v>-264100</v>
       </c>
       <c r="G100" s="3">
-        <v>-396500</v>
+        <v>-180000</v>
       </c>
       <c r="H100" s="3">
-        <v>-784200</v>
+        <v>-356600</v>
       </c>
       <c r="I100" s="3">
-        <v>-464800</v>
+        <v>-705200</v>
       </c>
       <c r="J100" s="3">
+        <v>-418000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-12000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
-        <v>-2400</v>
-      </c>
       <c r="F101" s="3">
-        <v>-7200</v>
+        <v>-2200</v>
       </c>
       <c r="G101" s="3">
-        <v>800</v>
+        <v>-6500</v>
       </c>
       <c r="H101" s="3">
-        <v>3300</v>
+        <v>700</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>98900</v>
+        <v>134600</v>
       </c>
       <c r="E102" s="3">
-        <v>-7000</v>
+        <v>89000</v>
       </c>
       <c r="F102" s="3">
-        <v>-45900</v>
+        <v>-6300</v>
       </c>
       <c r="G102" s="3">
-        <v>-154400</v>
+        <v>-41300</v>
       </c>
       <c r="H102" s="3">
-        <v>141900</v>
+        <v>-138900</v>
       </c>
       <c r="I102" s="3">
-        <v>-89500</v>
+        <v>127600</v>
       </c>
       <c r="J102" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="K102" s="3">
         <v>63100</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4791400</v>
+        <v>4470800</v>
       </c>
       <c r="E8" s="3">
-        <v>4547400</v>
+        <v>4243200</v>
       </c>
       <c r="F8" s="3">
-        <v>4335700</v>
+        <v>4045600</v>
       </c>
       <c r="G8" s="3">
-        <v>4223700</v>
+        <v>3941200</v>
       </c>
       <c r="H8" s="3">
-        <v>4222400</v>
+        <v>3940000</v>
       </c>
       <c r="I8" s="3">
-        <v>4244900</v>
+        <v>3960900</v>
       </c>
       <c r="J8" s="3">
-        <v>4128500</v>
+        <v>3852300</v>
       </c>
       <c r="K8" s="3">
         <v>4663400</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1210000</v>
+        <v>1129100</v>
       </c>
       <c r="E9" s="3">
-        <v>1227000</v>
+        <v>1144900</v>
       </c>
       <c r="F9" s="3">
-        <v>1139600</v>
+        <v>1063400</v>
       </c>
       <c r="G9" s="3">
-        <v>1114200</v>
+        <v>1039700</v>
       </c>
       <c r="H9" s="3">
-        <v>1082900</v>
+        <v>1010500</v>
       </c>
       <c r="I9" s="3">
-        <v>1064400</v>
+        <v>993200</v>
       </c>
       <c r="J9" s="3">
-        <v>975300</v>
+        <v>910000</v>
       </c>
       <c r="K9" s="3">
         <v>2232500</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3581400</v>
+        <v>3341800</v>
       </c>
       <c r="E10" s="3">
-        <v>3320400</v>
+        <v>3098200</v>
       </c>
       <c r="F10" s="3">
-        <v>3196100</v>
+        <v>2982200</v>
       </c>
       <c r="G10" s="3">
-        <v>3109500</v>
+        <v>2901500</v>
       </c>
       <c r="H10" s="3">
-        <v>3139500</v>
+        <v>2929500</v>
       </c>
       <c r="I10" s="3">
-        <v>3180500</v>
+        <v>2967700</v>
       </c>
       <c r="J10" s="3">
-        <v>3153200</v>
+        <v>2942200</v>
       </c>
       <c r="K10" s="3">
         <v>2430900</v>
@@ -878,22 +878,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>71900</v>
+        <v>67100</v>
       </c>
       <c r="E14" s="3">
-        <v>45000</v>
+        <v>42000</v>
       </c>
       <c r="F14" s="3">
-        <v>-15100</v>
+        <v>-14100</v>
       </c>
       <c r="G14" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="H14" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I14" s="3">
-        <v>-5600</v>
+        <v>-5200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>955800</v>
+        <v>891900</v>
       </c>
       <c r="E15" s="3">
-        <v>856700</v>
+        <v>799400</v>
       </c>
       <c r="F15" s="3">
-        <v>804100</v>
+        <v>750300</v>
       </c>
       <c r="G15" s="3">
-        <v>789400</v>
+        <v>736600</v>
       </c>
       <c r="H15" s="3">
-        <v>860500</v>
+        <v>802900</v>
       </c>
       <c r="I15" s="3">
-        <v>860800</v>
+        <v>803300</v>
       </c>
       <c r="J15" s="3">
-        <v>836600</v>
+        <v>780600</v>
       </c>
       <c r="K15" s="3">
         <v>902100</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4316900</v>
+        <v>4028100</v>
       </c>
       <c r="E17" s="3">
-        <v>4040600</v>
+        <v>3770300</v>
       </c>
       <c r="F17" s="3">
-        <v>3793200</v>
+        <v>3539500</v>
       </c>
       <c r="G17" s="3">
-        <v>3660700</v>
+        <v>3415800</v>
       </c>
       <c r="H17" s="3">
-        <v>3678600</v>
+        <v>3432500</v>
       </c>
       <c r="I17" s="3">
-        <v>3674600</v>
+        <v>3428800</v>
       </c>
       <c r="J17" s="3">
-        <v>3486100</v>
+        <v>3252900</v>
       </c>
       <c r="K17" s="3">
         <v>3834800</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>474400</v>
+        <v>442700</v>
       </c>
       <c r="E18" s="3">
-        <v>506800</v>
+        <v>472900</v>
       </c>
       <c r="F18" s="3">
-        <v>542400</v>
+        <v>506100</v>
       </c>
       <c r="G18" s="3">
-        <v>563000</v>
+        <v>525300</v>
       </c>
       <c r="H18" s="3">
-        <v>543800</v>
+        <v>507400</v>
       </c>
       <c r="I18" s="3">
-        <v>570300</v>
+        <v>532100</v>
       </c>
       <c r="J18" s="3">
-        <v>642300</v>
+        <v>599400</v>
       </c>
       <c r="K18" s="3">
         <v>828700</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>47300</v>
+        <v>44200</v>
       </c>
       <c r="E20" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="F20" s="3">
-        <v>-29200</v>
+        <v>-27300</v>
       </c>
       <c r="G20" s="3">
-        <v>-80300</v>
+        <v>-74900</v>
       </c>
       <c r="H20" s="3">
-        <v>-74400</v>
+        <v>-69400</v>
       </c>
       <c r="I20" s="3">
-        <v>-60900</v>
+        <v>-56800</v>
       </c>
       <c r="J20" s="3">
-        <v>-144500</v>
+        <v>-134900</v>
       </c>
       <c r="K20" s="3">
         <v>124900</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1470200</v>
+        <v>1382800</v>
       </c>
       <c r="E21" s="3">
-        <v>1364700</v>
+        <v>1283200</v>
       </c>
       <c r="F21" s="3">
-        <v>1311100</v>
+        <v>1232600</v>
       </c>
       <c r="G21" s="3">
-        <v>1265900</v>
+        <v>1190300</v>
       </c>
       <c r="H21" s="3">
-        <v>1323300</v>
+        <v>1244600</v>
       </c>
       <c r="I21" s="3">
-        <v>1363700</v>
+        <v>1282400</v>
       </c>
       <c r="J21" s="3">
-        <v>1461700</v>
+        <v>1375100</v>
       </c>
       <c r="K21" s="3">
         <v>2011800</v>
@@ -1083,22 +1083,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>258800</v>
+        <v>241500</v>
       </c>
       <c r="E22" s="3">
-        <v>238600</v>
+        <v>222700</v>
       </c>
       <c r="F22" s="3">
-        <v>244700</v>
+        <v>228400</v>
       </c>
       <c r="G22" s="3">
-        <v>242100</v>
+        <v>225900</v>
       </c>
       <c r="H22" s="3">
-        <v>230500</v>
+        <v>215100</v>
       </c>
       <c r="I22" s="3">
-        <v>219800</v>
+        <v>205100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>263000</v>
+        <v>245400</v>
       </c>
       <c r="E23" s="3">
-        <v>276000</v>
+        <v>257600</v>
       </c>
       <c r="F23" s="3">
-        <v>268500</v>
+        <v>250500</v>
       </c>
       <c r="G23" s="3">
-        <v>240600</v>
+        <v>224500</v>
       </c>
       <c r="H23" s="3">
-        <v>238900</v>
+        <v>223000</v>
       </c>
       <c r="I23" s="3">
-        <v>289600</v>
+        <v>270200</v>
       </c>
       <c r="J23" s="3">
-        <v>497800</v>
+        <v>464500</v>
       </c>
       <c r="K23" s="3">
         <v>703900</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>29100</v>
+        <v>27100</v>
       </c>
       <c r="E24" s="3">
-        <v>62900</v>
+        <v>58700</v>
       </c>
       <c r="F24" s="3">
-        <v>69000</v>
+        <v>64300</v>
       </c>
       <c r="G24" s="3">
-        <v>66600</v>
+        <v>62200</v>
       </c>
       <c r="H24" s="3">
-        <v>34600</v>
+        <v>32300</v>
       </c>
       <c r="I24" s="3">
-        <v>102400</v>
+        <v>95500</v>
       </c>
       <c r="J24" s="3">
-        <v>118900</v>
+        <v>110900</v>
       </c>
       <c r="K24" s="3">
         <v>173700</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>233900</v>
+        <v>218300</v>
       </c>
       <c r="E26" s="3">
-        <v>213200</v>
+        <v>198900</v>
       </c>
       <c r="F26" s="3">
-        <v>199500</v>
+        <v>186200</v>
       </c>
       <c r="G26" s="3">
-        <v>173900</v>
+        <v>162300</v>
       </c>
       <c r="H26" s="3">
-        <v>204400</v>
+        <v>190700</v>
       </c>
       <c r="I26" s="3">
-        <v>187200</v>
+        <v>174700</v>
       </c>
       <c r="J26" s="3">
-        <v>378900</v>
+        <v>353600</v>
       </c>
       <c r="K26" s="3">
         <v>530200</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>209800</v>
+        <v>195800</v>
       </c>
       <c r="E27" s="3">
-        <v>201000</v>
+        <v>187500</v>
       </c>
       <c r="F27" s="3">
-        <v>194500</v>
+        <v>181500</v>
       </c>
       <c r="G27" s="3">
-        <v>166900</v>
+        <v>155700</v>
       </c>
       <c r="H27" s="3">
-        <v>198000</v>
+        <v>184800</v>
       </c>
       <c r="I27" s="3">
-        <v>183100</v>
+        <v>170900</v>
       </c>
       <c r="J27" s="3">
-        <v>375300</v>
+        <v>350200</v>
       </c>
       <c r="K27" s="3">
         <v>522000</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>349700</v>
+        <v>326300</v>
       </c>
       <c r="J29" s="3">
-        <v>-36300</v>
+        <v>-33900</v>
       </c>
       <c r="K29" s="3">
         <v>-6000</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-47300</v>
+        <v>-44200</v>
       </c>
       <c r="E32" s="3">
-        <v>-7900</v>
+        <v>-7400</v>
       </c>
       <c r="F32" s="3">
-        <v>29200</v>
+        <v>27300</v>
       </c>
       <c r="G32" s="3">
-        <v>80300</v>
+        <v>74900</v>
       </c>
       <c r="H32" s="3">
-        <v>74400</v>
+        <v>69400</v>
       </c>
       <c r="I32" s="3">
-        <v>60900</v>
+        <v>56800</v>
       </c>
       <c r="J32" s="3">
-        <v>144500</v>
+        <v>134900</v>
       </c>
       <c r="K32" s="3">
         <v>-124900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>209800</v>
+        <v>195800</v>
       </c>
       <c r="E33" s="3">
-        <v>201000</v>
+        <v>187500</v>
       </c>
       <c r="F33" s="3">
-        <v>194500</v>
+        <v>181500</v>
       </c>
       <c r="G33" s="3">
-        <v>166900</v>
+        <v>155700</v>
       </c>
       <c r="H33" s="3">
-        <v>198000</v>
+        <v>184800</v>
       </c>
       <c r="I33" s="3">
-        <v>532800</v>
+        <v>497100</v>
       </c>
       <c r="J33" s="3">
-        <v>339000</v>
+        <v>316300</v>
       </c>
       <c r="K33" s="3">
         <v>516000</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>209800</v>
+        <v>195800</v>
       </c>
       <c r="E35" s="3">
-        <v>201000</v>
+        <v>187500</v>
       </c>
       <c r="F35" s="3">
-        <v>194500</v>
+        <v>181500</v>
       </c>
       <c r="G35" s="3">
-        <v>166900</v>
+        <v>155700</v>
       </c>
       <c r="H35" s="3">
-        <v>198000</v>
+        <v>184800</v>
       </c>
       <c r="I35" s="3">
-        <v>532800</v>
+        <v>497100</v>
       </c>
       <c r="J35" s="3">
-        <v>339000</v>
+        <v>316300</v>
       </c>
       <c r="K35" s="3">
         <v>516000</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>563400</v>
+        <v>523500</v>
       </c>
       <c r="E41" s="3">
-        <v>143700</v>
+        <v>133600</v>
       </c>
       <c r="F41" s="3">
-        <v>54400</v>
+        <v>50500</v>
       </c>
       <c r="G41" s="3">
-        <v>60700</v>
+        <v>56400</v>
       </c>
       <c r="H41" s="3">
-        <v>102200</v>
+        <v>94900</v>
       </c>
       <c r="I41" s="3">
-        <v>241600</v>
+        <v>224500</v>
       </c>
       <c r="J41" s="3">
-        <v>113500</v>
+        <v>105500</v>
       </c>
       <c r="K41" s="3">
         <v>367800</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>126700</v>
+        <v>117700</v>
       </c>
       <c r="E42" s="3">
-        <v>106800</v>
+        <v>99200</v>
       </c>
       <c r="F42" s="3">
-        <v>85000</v>
+        <v>79000</v>
       </c>
       <c r="G42" s="3">
-        <v>76500</v>
+        <v>71100</v>
       </c>
       <c r="H42" s="3">
-        <v>81600</v>
+        <v>75800</v>
       </c>
       <c r="I42" s="3">
-        <v>27600</v>
+        <v>25600</v>
       </c>
       <c r="J42" s="3">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="K42" s="3">
         <v>81300</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>732800</v>
+        <v>680900</v>
       </c>
       <c r="E43" s="3">
-        <v>765800</v>
+        <v>711500</v>
       </c>
       <c r="F43" s="3">
-        <v>681800</v>
+        <v>633500</v>
       </c>
       <c r="G43" s="3">
-        <v>654300</v>
+        <v>608000</v>
       </c>
       <c r="H43" s="3">
-        <v>615300</v>
+        <v>571800</v>
       </c>
       <c r="I43" s="3">
-        <v>642500</v>
+        <v>597000</v>
       </c>
       <c r="J43" s="3">
-        <v>567900</v>
+        <v>527700</v>
       </c>
       <c r="K43" s="3">
         <v>1103300</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>273900</v>
+        <v>254500</v>
       </c>
       <c r="E44" s="3">
-        <v>108800</v>
+        <v>101100</v>
       </c>
       <c r="F44" s="3">
-        <v>88000</v>
+        <v>81700</v>
       </c>
       <c r="G44" s="3">
-        <v>91900</v>
+        <v>85400</v>
       </c>
       <c r="H44" s="3">
-        <v>57900</v>
+        <v>53800</v>
       </c>
       <c r="I44" s="3">
-        <v>68800</v>
+        <v>64000</v>
       </c>
       <c r="J44" s="3">
-        <v>56200</v>
+        <v>52200</v>
       </c>
       <c r="K44" s="3">
         <v>150400</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>224300</v>
+        <v>208400</v>
       </c>
       <c r="E45" s="3">
-        <v>125100</v>
+        <v>116300</v>
       </c>
       <c r="F45" s="3">
-        <v>103100</v>
+        <v>95800</v>
       </c>
       <c r="G45" s="3">
-        <v>89500</v>
+        <v>83100</v>
       </c>
       <c r="H45" s="3">
-        <v>90500</v>
+        <v>84100</v>
       </c>
       <c r="I45" s="3">
-        <v>108300</v>
+        <v>100600</v>
       </c>
       <c r="J45" s="3">
-        <v>128500</v>
+        <v>119400</v>
       </c>
       <c r="K45" s="3">
         <v>258400</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1553500</v>
+        <v>1443500</v>
       </c>
       <c r="E46" s="3">
-        <v>1250200</v>
+        <v>1161700</v>
       </c>
       <c r="F46" s="3">
-        <v>1012300</v>
+        <v>940600</v>
       </c>
       <c r="G46" s="3">
-        <v>972900</v>
+        <v>904000</v>
       </c>
       <c r="H46" s="3">
-        <v>947500</v>
+        <v>880400</v>
       </c>
       <c r="I46" s="3">
-        <v>1088800</v>
+        <v>1011700</v>
       </c>
       <c r="J46" s="3">
-        <v>894100</v>
+        <v>830800</v>
       </c>
       <c r="K46" s="3">
         <v>1046400</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>466500</v>
+        <v>433500</v>
       </c>
       <c r="E47" s="3">
-        <v>1313400</v>
+        <v>1220400</v>
       </c>
       <c r="F47" s="3">
-        <v>1081400</v>
+        <v>1004800</v>
       </c>
       <c r="G47" s="3">
-        <v>986100</v>
+        <v>916200</v>
       </c>
       <c r="H47" s="3">
-        <v>1070900</v>
+        <v>995000</v>
       </c>
       <c r="I47" s="3">
-        <v>1071800</v>
+        <v>995800</v>
       </c>
       <c r="J47" s="3">
-        <v>20500</v>
+        <v>19100</v>
       </c>
       <c r="K47" s="3">
         <v>690000</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14292300</v>
+        <v>13283100</v>
       </c>
       <c r="E48" s="3">
-        <v>5938200</v>
+        <v>5517600</v>
       </c>
       <c r="F48" s="3">
-        <v>4970900</v>
+        <v>4618800</v>
       </c>
       <c r="G48" s="3">
-        <v>4903300</v>
+        <v>4556000</v>
       </c>
       <c r="H48" s="3">
-        <v>4831400</v>
+        <v>4489200</v>
       </c>
       <c r="I48" s="3">
-        <v>4684300</v>
+        <v>4352500</v>
       </c>
       <c r="J48" s="3">
-        <v>4779600</v>
+        <v>4441000</v>
       </c>
       <c r="K48" s="3">
         <v>12418200</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3115000</v>
+        <v>2894200</v>
       </c>
       <c r="E49" s="3">
-        <v>942300</v>
+        <v>875600</v>
       </c>
       <c r="F49" s="3">
-        <v>853000</v>
+        <v>792600</v>
       </c>
       <c r="G49" s="3">
-        <v>872800</v>
+        <v>811000</v>
       </c>
       <c r="H49" s="3">
-        <v>866400</v>
+        <v>805000</v>
       </c>
       <c r="I49" s="3">
-        <v>833100</v>
+        <v>774100</v>
       </c>
       <c r="J49" s="3">
-        <v>917600</v>
+        <v>852600</v>
       </c>
       <c r="K49" s="3">
         <v>2781600</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>290500</v>
+        <v>269800</v>
       </c>
       <c r="E52" s="3">
-        <v>78900</v>
+        <v>73300</v>
       </c>
       <c r="F52" s="3">
-        <v>85500</v>
+        <v>79400</v>
       </c>
       <c r="G52" s="3">
-        <v>188900</v>
+        <v>175600</v>
       </c>
       <c r="H52" s="3">
-        <v>145700</v>
+        <v>135400</v>
       </c>
       <c r="I52" s="3">
-        <v>145600</v>
+        <v>135300</v>
       </c>
       <c r="J52" s="3">
-        <v>1387700</v>
+        <v>1289400</v>
       </c>
       <c r="K52" s="3">
         <v>263700</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12275500</v>
+        <v>11408800</v>
       </c>
       <c r="E54" s="3">
-        <v>9220600</v>
+        <v>8567500</v>
       </c>
       <c r="F54" s="3">
-        <v>7988900</v>
+        <v>7423000</v>
       </c>
       <c r="G54" s="3">
-        <v>7924000</v>
+        <v>7362800</v>
       </c>
       <c r="H54" s="3">
-        <v>7861800</v>
+        <v>7305000</v>
       </c>
       <c r="I54" s="3">
-        <v>7823500</v>
+        <v>7269400</v>
       </c>
       <c r="J54" s="3">
-        <v>7999500</v>
+        <v>7432900</v>
       </c>
       <c r="K54" s="3">
         <v>8955900</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2034700</v>
+        <v>1890700</v>
       </c>
       <c r="E57" s="3">
-        <v>860900</v>
+        <v>799900</v>
       </c>
       <c r="F57" s="3">
-        <v>556100</v>
+        <v>516700</v>
       </c>
       <c r="G57" s="3">
-        <v>636800</v>
+        <v>591700</v>
       </c>
       <c r="H57" s="3">
-        <v>612100</v>
+        <v>568800</v>
       </c>
       <c r="I57" s="3">
-        <v>620900</v>
+        <v>577000</v>
       </c>
       <c r="J57" s="3">
-        <v>1050000</v>
+        <v>975700</v>
       </c>
       <c r="K57" s="3">
         <v>1750100</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1613100</v>
+        <v>1498900</v>
       </c>
       <c r="E58" s="3">
-        <v>494800</v>
+        <v>459800</v>
       </c>
       <c r="F58" s="3">
-        <v>352400</v>
+        <v>327400</v>
       </c>
       <c r="G58" s="3">
-        <v>871000</v>
+        <v>809300</v>
       </c>
       <c r="H58" s="3">
-        <v>831400</v>
+        <v>772500</v>
       </c>
       <c r="I58" s="3">
-        <v>743500</v>
+        <v>690900</v>
       </c>
       <c r="J58" s="3">
-        <v>473600</v>
+        <v>440000</v>
       </c>
       <c r="K58" s="3">
         <v>2029300</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1641400</v>
+        <v>1525100</v>
       </c>
       <c r="E59" s="3">
-        <v>601700</v>
+        <v>559100</v>
       </c>
       <c r="F59" s="3">
-        <v>448700</v>
+        <v>417000</v>
       </c>
       <c r="G59" s="3">
-        <v>403900</v>
+        <v>375300</v>
       </c>
       <c r="H59" s="3">
-        <v>420100</v>
+        <v>390300</v>
       </c>
       <c r="I59" s="3">
-        <v>393000</v>
+        <v>365100</v>
       </c>
       <c r="J59" s="3">
-        <v>134300</v>
+        <v>124800</v>
       </c>
       <c r="K59" s="3">
         <v>492900</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3363300</v>
+        <v>3125300</v>
       </c>
       <c r="E60" s="3">
-        <v>1957500</v>
+        <v>1818800</v>
       </c>
       <c r="F60" s="3">
-        <v>1357200</v>
+        <v>1261100</v>
       </c>
       <c r="G60" s="3">
-        <v>1911700</v>
+        <v>1776300</v>
       </c>
       <c r="H60" s="3">
-        <v>1863600</v>
+        <v>1731600</v>
       </c>
       <c r="I60" s="3">
-        <v>1757500</v>
+        <v>1633000</v>
       </c>
       <c r="J60" s="3">
-        <v>1657900</v>
+        <v>1540500</v>
       </c>
       <c r="K60" s="3">
         <v>2165500</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4604900</v>
+        <v>4279300</v>
       </c>
       <c r="E61" s="3">
-        <v>2726900</v>
+        <v>2533700</v>
       </c>
       <c r="F61" s="3">
-        <v>2376600</v>
+        <v>2208200</v>
       </c>
       <c r="G61" s="3">
-        <v>1775500</v>
+        <v>1649800</v>
       </c>
       <c r="H61" s="3">
-        <v>1805600</v>
+        <v>1677700</v>
       </c>
       <c r="I61" s="3">
-        <v>1966100</v>
+        <v>1826800</v>
       </c>
       <c r="J61" s="3">
-        <v>2632400</v>
+        <v>2445900</v>
       </c>
       <c r="K61" s="3">
         <v>2413900</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1704700</v>
+        <v>1585800</v>
       </c>
       <c r="E62" s="3">
-        <v>957900</v>
+        <v>890100</v>
       </c>
       <c r="F62" s="3">
-        <v>699200</v>
+        <v>649600</v>
       </c>
       <c r="G62" s="3">
-        <v>691300</v>
+        <v>642300</v>
       </c>
       <c r="H62" s="3">
-        <v>632400</v>
+        <v>587600</v>
       </c>
       <c r="I62" s="3">
-        <v>603100</v>
+        <v>560400</v>
       </c>
       <c r="J62" s="3">
-        <v>609000</v>
+        <v>565900</v>
       </c>
       <c r="K62" s="3">
         <v>1232800</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9267600</v>
+        <v>8614000</v>
       </c>
       <c r="E66" s="3">
-        <v>5698000</v>
+        <v>5294400</v>
       </c>
       <c r="F66" s="3">
-        <v>4479200</v>
+        <v>4161900</v>
       </c>
       <c r="G66" s="3">
-        <v>4440100</v>
+        <v>4125600</v>
       </c>
       <c r="H66" s="3">
-        <v>4357500</v>
+        <v>4048800</v>
       </c>
       <c r="I66" s="3">
-        <v>4384700</v>
+        <v>4074100</v>
       </c>
       <c r="J66" s="3">
-        <v>5198800</v>
+        <v>4830600</v>
       </c>
       <c r="K66" s="3">
         <v>5225900</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3767900</v>
+        <v>3501100</v>
       </c>
       <c r="E72" s="3">
-        <v>4381200</v>
+        <v>4070900</v>
       </c>
       <c r="F72" s="3">
-        <v>4441900</v>
+        <v>4127300</v>
       </c>
       <c r="G72" s="3">
-        <v>4437200</v>
+        <v>4123000</v>
       </c>
       <c r="H72" s="3">
-        <v>4481000</v>
+        <v>4163600</v>
       </c>
       <c r="I72" s="3">
-        <v>4595400</v>
+        <v>4269900</v>
       </c>
       <c r="J72" s="3">
-        <v>3749900</v>
+        <v>3484300</v>
       </c>
       <c r="K72" s="3">
         <v>8270000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3007900</v>
+        <v>2794900</v>
       </c>
       <c r="E76" s="3">
-        <v>3522500</v>
+        <v>3273100</v>
       </c>
       <c r="F76" s="3">
-        <v>3509700</v>
+        <v>3261100</v>
       </c>
       <c r="G76" s="3">
-        <v>3483900</v>
+        <v>3237200</v>
       </c>
       <c r="H76" s="3">
-        <v>3504400</v>
+        <v>3256200</v>
       </c>
       <c r="I76" s="3">
-        <v>3438800</v>
+        <v>3195300</v>
       </c>
       <c r="J76" s="3">
-        <v>2800600</v>
+        <v>2602300</v>
       </c>
       <c r="K76" s="3">
         <v>3730000</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>209800</v>
+        <v>195800</v>
       </c>
       <c r="E81" s="3">
-        <v>201000</v>
+        <v>187500</v>
       </c>
       <c r="F81" s="3">
-        <v>194500</v>
+        <v>181500</v>
       </c>
       <c r="G81" s="3">
-        <v>166900</v>
+        <v>155700</v>
       </c>
       <c r="H81" s="3">
-        <v>198000</v>
+        <v>184800</v>
       </c>
       <c r="I81" s="3">
-        <v>532800</v>
+        <v>497100</v>
       </c>
       <c r="J81" s="3">
-        <v>339000</v>
+        <v>316300</v>
       </c>
       <c r="K81" s="3">
         <v>516000</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>955800</v>
+        <v>891900</v>
       </c>
       <c r="E83" s="3">
-        <v>856700</v>
+        <v>799400</v>
       </c>
       <c r="F83" s="3">
-        <v>804100</v>
+        <v>750300</v>
       </c>
       <c r="G83" s="3">
-        <v>789400</v>
+        <v>736600</v>
       </c>
       <c r="H83" s="3">
-        <v>860500</v>
+        <v>802900</v>
       </c>
       <c r="I83" s="3">
-        <v>861000</v>
+        <v>803400</v>
       </c>
       <c r="J83" s="3">
-        <v>971500</v>
+        <v>906500</v>
       </c>
       <c r="K83" s="3">
         <v>1050200</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1411800</v>
+        <v>1317300</v>
       </c>
       <c r="E89" s="3">
-        <v>1096900</v>
+        <v>1023500</v>
       </c>
       <c r="F89" s="3">
-        <v>1019100</v>
+        <v>950900</v>
       </c>
       <c r="G89" s="3">
-        <v>953900</v>
+        <v>890100</v>
       </c>
       <c r="H89" s="3">
-        <v>1148100</v>
+        <v>1071300</v>
       </c>
       <c r="I89" s="3">
-        <v>1129600</v>
+        <v>1054000</v>
       </c>
       <c r="J89" s="3">
-        <v>1216800</v>
+        <v>1135400</v>
       </c>
       <c r="K89" s="3">
         <v>1525900</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1427300</v>
+        <v>-1331800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1039100</v>
+        <v>-969600</v>
       </c>
       <c r="F91" s="3">
-        <v>-862700</v>
+        <v>-805000</v>
       </c>
       <c r="G91" s="3">
-        <v>-878400</v>
+        <v>-819600</v>
       </c>
       <c r="H91" s="3">
-        <v>-890700</v>
+        <v>-831100</v>
       </c>
       <c r="I91" s="3">
-        <v>-818900</v>
+        <v>-764100</v>
       </c>
       <c r="J91" s="3">
-        <v>-972500</v>
+        <v>-907500</v>
       </c>
       <c r="K91" s="3">
         <v>-1479000</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1466500</v>
+        <v>-1368400</v>
       </c>
       <c r="E94" s="3">
-        <v>-982400</v>
+        <v>-916700</v>
       </c>
       <c r="F94" s="3">
-        <v>-759100</v>
+        <v>-708300</v>
       </c>
       <c r="G94" s="3">
-        <v>-808700</v>
+        <v>-754600</v>
       </c>
       <c r="H94" s="3">
-        <v>-931100</v>
+        <v>-868800</v>
       </c>
       <c r="I94" s="3">
-        <v>-299700</v>
+        <v>-279700</v>
       </c>
       <c r="J94" s="3">
-        <v>-879400</v>
+        <v>-820500</v>
       </c>
       <c r="K94" s="3">
         <v>-1450500</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-166600</v>
+        <v>-155400</v>
       </c>
       <c r="E96" s="3">
-        <v>-164000</v>
+        <v>-153000</v>
       </c>
       <c r="F96" s="3">
-        <v>-173200</v>
+        <v>-161600</v>
       </c>
       <c r="G96" s="3">
-        <v>-188800</v>
+        <v>-176200</v>
       </c>
       <c r="H96" s="3">
-        <v>-109000</v>
+        <v>-101700</v>
       </c>
       <c r="I96" s="3">
-        <v>-103600</v>
+        <v>-96600</v>
       </c>
       <c r="J96" s="3">
-        <v>-82800</v>
+        <v>-77200</v>
       </c>
       <c r="K96" s="3">
         <v>-144800</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>190500</v>
+        <v>177800</v>
       </c>
       <c r="E100" s="3">
-        <v>-26200</v>
+        <v>-24400</v>
       </c>
       <c r="F100" s="3">
-        <v>-264100</v>
+        <v>-246500</v>
       </c>
       <c r="G100" s="3">
-        <v>-180000</v>
+        <v>-168000</v>
       </c>
       <c r="H100" s="3">
-        <v>-356600</v>
+        <v>-332700</v>
       </c>
       <c r="I100" s="3">
-        <v>-705200</v>
+        <v>-658100</v>
       </c>
       <c r="J100" s="3">
-        <v>-418000</v>
+        <v>-390000</v>
       </c>
       <c r="K100" s="3">
         <v>-12000</v>
@@ -3215,22 +3215,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E101" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F101" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="G101" s="3">
-        <v>-6500</v>
+        <v>-6000</v>
       </c>
       <c r="H101" s="3">
         <v>700</v>
       </c>
       <c r="I101" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>134600</v>
+        <v>125600</v>
       </c>
       <c r="E102" s="3">
-        <v>89000</v>
+        <v>83000</v>
       </c>
       <c r="F102" s="3">
-        <v>-6300</v>
+        <v>-5900</v>
       </c>
       <c r="G102" s="3">
-        <v>-41300</v>
+        <v>-38500</v>
       </c>
       <c r="H102" s="3">
-        <v>-138900</v>
+        <v>-129600</v>
       </c>
       <c r="I102" s="3">
-        <v>127600</v>
+        <v>119100</v>
       </c>
       <c r="J102" s="3">
-        <v>-80500</v>
+        <v>-75100</v>
       </c>
       <c r="K102" s="3">
         <v>63100</v>

--- a/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4470800</v>
+        <v>4450600</v>
       </c>
       <c r="E8" s="3">
-        <v>4243200</v>
+        <v>4224000</v>
       </c>
       <c r="F8" s="3">
-        <v>4045600</v>
+        <v>4027300</v>
       </c>
       <c r="G8" s="3">
-        <v>3941200</v>
+        <v>3923300</v>
       </c>
       <c r="H8" s="3">
-        <v>3940000</v>
+        <v>3922100</v>
       </c>
       <c r="I8" s="3">
-        <v>3960900</v>
+        <v>3943000</v>
       </c>
       <c r="J8" s="3">
-        <v>3852300</v>
+        <v>3834800</v>
       </c>
       <c r="K8" s="3">
         <v>4663400</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1129100</v>
+        <v>1124000</v>
       </c>
       <c r="E9" s="3">
-        <v>1144900</v>
+        <v>1139700</v>
       </c>
       <c r="F9" s="3">
-        <v>1063400</v>
+        <v>1058600</v>
       </c>
       <c r="G9" s="3">
-        <v>1039700</v>
+        <v>1035000</v>
       </c>
       <c r="H9" s="3">
-        <v>1010500</v>
+        <v>1005900</v>
       </c>
       <c r="I9" s="3">
-        <v>993200</v>
+        <v>988700</v>
       </c>
       <c r="J9" s="3">
-        <v>910000</v>
+        <v>905900</v>
       </c>
       <c r="K9" s="3">
         <v>2232500</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3341800</v>
+        <v>3326600</v>
       </c>
       <c r="E10" s="3">
-        <v>3098200</v>
+        <v>3084200</v>
       </c>
       <c r="F10" s="3">
-        <v>2982200</v>
+        <v>2968700</v>
       </c>
       <c r="G10" s="3">
-        <v>2901500</v>
+        <v>2888400</v>
       </c>
       <c r="H10" s="3">
-        <v>2929500</v>
+        <v>2916200</v>
       </c>
       <c r="I10" s="3">
-        <v>2967700</v>
+        <v>2954200</v>
       </c>
       <c r="J10" s="3">
-        <v>2942200</v>
+        <v>2928900</v>
       </c>
       <c r="K10" s="3">
         <v>2430900</v>
@@ -878,13 +878,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>67100</v>
+        <v>66800</v>
       </c>
       <c r="E14" s="3">
-        <v>42000</v>
+        <v>41800</v>
       </c>
       <c r="F14" s="3">
-        <v>-14100</v>
+        <v>-14000</v>
       </c>
       <c r="G14" s="3">
         <v>-900</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>891900</v>
+        <v>887900</v>
       </c>
       <c r="E15" s="3">
-        <v>799400</v>
+        <v>795700</v>
       </c>
       <c r="F15" s="3">
-        <v>750300</v>
+        <v>746900</v>
       </c>
       <c r="G15" s="3">
-        <v>736600</v>
+        <v>733200</v>
       </c>
       <c r="H15" s="3">
-        <v>802900</v>
+        <v>799300</v>
       </c>
       <c r="I15" s="3">
-        <v>803300</v>
+        <v>799600</v>
       </c>
       <c r="J15" s="3">
-        <v>780600</v>
+        <v>777100</v>
       </c>
       <c r="K15" s="3">
         <v>902100</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4028100</v>
+        <v>4009900</v>
       </c>
       <c r="E17" s="3">
-        <v>3770300</v>
+        <v>3753200</v>
       </c>
       <c r="F17" s="3">
-        <v>3539500</v>
+        <v>3523400</v>
       </c>
       <c r="G17" s="3">
-        <v>3415800</v>
+        <v>3400400</v>
       </c>
       <c r="H17" s="3">
-        <v>3432500</v>
+        <v>3417000</v>
       </c>
       <c r="I17" s="3">
-        <v>3428800</v>
+        <v>3413300</v>
       </c>
       <c r="J17" s="3">
-        <v>3252900</v>
+        <v>3238200</v>
       </c>
       <c r="K17" s="3">
         <v>3834800</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>442700</v>
+        <v>440700</v>
       </c>
       <c r="E18" s="3">
-        <v>472900</v>
+        <v>470700</v>
       </c>
       <c r="F18" s="3">
-        <v>506100</v>
+        <v>503800</v>
       </c>
       <c r="G18" s="3">
-        <v>525300</v>
+        <v>522900</v>
       </c>
       <c r="H18" s="3">
-        <v>507400</v>
+        <v>505100</v>
       </c>
       <c r="I18" s="3">
-        <v>532100</v>
+        <v>529700</v>
       </c>
       <c r="J18" s="3">
-        <v>599400</v>
+        <v>596600</v>
       </c>
       <c r="K18" s="3">
         <v>828700</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>44200</v>
+        <v>44000</v>
       </c>
       <c r="E20" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="F20" s="3">
-        <v>-27300</v>
+        <v>-27100</v>
       </c>
       <c r="G20" s="3">
-        <v>-74900</v>
+        <v>-74600</v>
       </c>
       <c r="H20" s="3">
-        <v>-69400</v>
+        <v>-69100</v>
       </c>
       <c r="I20" s="3">
-        <v>-56800</v>
+        <v>-56500</v>
       </c>
       <c r="J20" s="3">
-        <v>-134900</v>
+        <v>-134200</v>
       </c>
       <c r="K20" s="3">
         <v>124900</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1382800</v>
+        <v>1375200</v>
       </c>
       <c r="E21" s="3">
-        <v>1283200</v>
+        <v>1276200</v>
       </c>
       <c r="F21" s="3">
-        <v>1232600</v>
+        <v>1225900</v>
       </c>
       <c r="G21" s="3">
-        <v>1190300</v>
+        <v>1183800</v>
       </c>
       <c r="H21" s="3">
-        <v>1244600</v>
+        <v>1237800</v>
       </c>
       <c r="I21" s="3">
-        <v>1282400</v>
+        <v>1275400</v>
       </c>
       <c r="J21" s="3">
-        <v>1375100</v>
+        <v>1367500</v>
       </c>
       <c r="K21" s="3">
         <v>2011800</v>
@@ -1083,22 +1083,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>241500</v>
+        <v>240400</v>
       </c>
       <c r="E22" s="3">
-        <v>222700</v>
+        <v>221700</v>
       </c>
       <c r="F22" s="3">
-        <v>228400</v>
+        <v>227300</v>
       </c>
       <c r="G22" s="3">
-        <v>225900</v>
+        <v>224900</v>
       </c>
       <c r="H22" s="3">
-        <v>215100</v>
+        <v>214100</v>
       </c>
       <c r="I22" s="3">
-        <v>205100</v>
+        <v>204200</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>245400</v>
+        <v>244300</v>
       </c>
       <c r="E23" s="3">
-        <v>257600</v>
+        <v>256400</v>
       </c>
       <c r="F23" s="3">
-        <v>250500</v>
+        <v>249400</v>
       </c>
       <c r="G23" s="3">
-        <v>224500</v>
+        <v>223500</v>
       </c>
       <c r="H23" s="3">
-        <v>223000</v>
+        <v>221900</v>
       </c>
       <c r="I23" s="3">
-        <v>270200</v>
+        <v>269000</v>
       </c>
       <c r="J23" s="3">
-        <v>464500</v>
+        <v>462400</v>
       </c>
       <c r="K23" s="3">
         <v>703900</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27100</v>
+        <v>27000</v>
       </c>
       <c r="E24" s="3">
-        <v>58700</v>
+        <v>58400</v>
       </c>
       <c r="F24" s="3">
-        <v>64300</v>
+        <v>64100</v>
       </c>
       <c r="G24" s="3">
-        <v>62200</v>
+        <v>61900</v>
       </c>
       <c r="H24" s="3">
-        <v>32300</v>
+        <v>32100</v>
       </c>
       <c r="I24" s="3">
-        <v>95500</v>
+        <v>95100</v>
       </c>
       <c r="J24" s="3">
-        <v>110900</v>
+        <v>110400</v>
       </c>
       <c r="K24" s="3">
         <v>173700</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>218300</v>
+        <v>217300</v>
       </c>
       <c r="E26" s="3">
-        <v>198900</v>
+        <v>198000</v>
       </c>
       <c r="F26" s="3">
-        <v>186200</v>
+        <v>185300</v>
       </c>
       <c r="G26" s="3">
-        <v>162300</v>
+        <v>161600</v>
       </c>
       <c r="H26" s="3">
-        <v>190700</v>
+        <v>189800</v>
       </c>
       <c r="I26" s="3">
-        <v>174700</v>
+        <v>173900</v>
       </c>
       <c r="J26" s="3">
-        <v>353600</v>
+        <v>352000</v>
       </c>
       <c r="K26" s="3">
         <v>530200</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>195800</v>
+        <v>194900</v>
       </c>
       <c r="E27" s="3">
-        <v>187500</v>
+        <v>186700</v>
       </c>
       <c r="F27" s="3">
-        <v>181500</v>
+        <v>180700</v>
       </c>
       <c r="G27" s="3">
-        <v>155700</v>
+        <v>155000</v>
       </c>
       <c r="H27" s="3">
-        <v>184800</v>
+        <v>183900</v>
       </c>
       <c r="I27" s="3">
-        <v>170900</v>
+        <v>170100</v>
       </c>
       <c r="J27" s="3">
-        <v>350200</v>
+        <v>348600</v>
       </c>
       <c r="K27" s="3">
         <v>522000</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>326300</v>
+        <v>324800</v>
       </c>
       <c r="J29" s="3">
-        <v>-33900</v>
+        <v>-33700</v>
       </c>
       <c r="K29" s="3">
         <v>-6000</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-44200</v>
+        <v>-44000</v>
       </c>
       <c r="E32" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="F32" s="3">
-        <v>27300</v>
+        <v>27100</v>
       </c>
       <c r="G32" s="3">
-        <v>74900</v>
+        <v>74600</v>
       </c>
       <c r="H32" s="3">
-        <v>69400</v>
+        <v>69100</v>
       </c>
       <c r="I32" s="3">
-        <v>56800</v>
+        <v>56500</v>
       </c>
       <c r="J32" s="3">
-        <v>134900</v>
+        <v>134200</v>
       </c>
       <c r="K32" s="3">
         <v>-124900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>195800</v>
+        <v>194900</v>
       </c>
       <c r="E33" s="3">
-        <v>187500</v>
+        <v>186700</v>
       </c>
       <c r="F33" s="3">
-        <v>181500</v>
+        <v>180700</v>
       </c>
       <c r="G33" s="3">
-        <v>155700</v>
+        <v>155000</v>
       </c>
       <c r="H33" s="3">
-        <v>184800</v>
+        <v>183900</v>
       </c>
       <c r="I33" s="3">
-        <v>497100</v>
+        <v>494900</v>
       </c>
       <c r="J33" s="3">
-        <v>316300</v>
+        <v>314900</v>
       </c>
       <c r="K33" s="3">
         <v>516000</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>195800</v>
+        <v>194900</v>
       </c>
       <c r="E35" s="3">
-        <v>187500</v>
+        <v>186700</v>
       </c>
       <c r="F35" s="3">
-        <v>181500</v>
+        <v>180700</v>
       </c>
       <c r="G35" s="3">
-        <v>155700</v>
+        <v>155000</v>
       </c>
       <c r="H35" s="3">
-        <v>184800</v>
+        <v>183900</v>
       </c>
       <c r="I35" s="3">
-        <v>497100</v>
+        <v>494900</v>
       </c>
       <c r="J35" s="3">
-        <v>316300</v>
+        <v>314900</v>
       </c>
       <c r="K35" s="3">
         <v>516000</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>523500</v>
+        <v>521200</v>
       </c>
       <c r="E41" s="3">
-        <v>133600</v>
+        <v>133000</v>
       </c>
       <c r="F41" s="3">
-        <v>50500</v>
+        <v>50300</v>
       </c>
       <c r="G41" s="3">
-        <v>56400</v>
+        <v>56100</v>
       </c>
       <c r="H41" s="3">
-        <v>94900</v>
+        <v>94500</v>
       </c>
       <c r="I41" s="3">
-        <v>224500</v>
+        <v>223500</v>
       </c>
       <c r="J41" s="3">
-        <v>105500</v>
+        <v>105000</v>
       </c>
       <c r="K41" s="3">
         <v>367800</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>117700</v>
+        <v>117200</v>
       </c>
       <c r="E42" s="3">
-        <v>99200</v>
+        <v>98800</v>
       </c>
       <c r="F42" s="3">
-        <v>79000</v>
+        <v>78700</v>
       </c>
       <c r="G42" s="3">
-        <v>71100</v>
+        <v>70800</v>
       </c>
       <c r="H42" s="3">
-        <v>75800</v>
+        <v>75400</v>
       </c>
       <c r="I42" s="3">
-        <v>25600</v>
+        <v>25500</v>
       </c>
       <c r="J42" s="3">
-        <v>26000</v>
+        <v>25900</v>
       </c>
       <c r="K42" s="3">
         <v>81300</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>680900</v>
+        <v>677800</v>
       </c>
       <c r="E43" s="3">
-        <v>711500</v>
+        <v>708300</v>
       </c>
       <c r="F43" s="3">
-        <v>633500</v>
+        <v>630700</v>
       </c>
       <c r="G43" s="3">
-        <v>608000</v>
+        <v>605200</v>
       </c>
       <c r="H43" s="3">
-        <v>571800</v>
+        <v>569200</v>
       </c>
       <c r="I43" s="3">
-        <v>597000</v>
+        <v>594300</v>
       </c>
       <c r="J43" s="3">
-        <v>527700</v>
+        <v>525300</v>
       </c>
       <c r="K43" s="3">
         <v>1103300</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>254500</v>
+        <v>253300</v>
       </c>
       <c r="E44" s="3">
-        <v>101100</v>
+        <v>100700</v>
       </c>
       <c r="F44" s="3">
-        <v>81700</v>
+        <v>81400</v>
       </c>
       <c r="G44" s="3">
-        <v>85400</v>
+        <v>85000</v>
       </c>
       <c r="H44" s="3">
-        <v>53800</v>
+        <v>53600</v>
       </c>
       <c r="I44" s="3">
-        <v>64000</v>
+        <v>63700</v>
       </c>
       <c r="J44" s="3">
-        <v>52200</v>
+        <v>52000</v>
       </c>
       <c r="K44" s="3">
         <v>150400</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>208400</v>
+        <v>207500</v>
       </c>
       <c r="E45" s="3">
-        <v>116300</v>
+        <v>115700</v>
       </c>
       <c r="F45" s="3">
-        <v>95800</v>
+        <v>95400</v>
       </c>
       <c r="G45" s="3">
-        <v>83100</v>
+        <v>82800</v>
       </c>
       <c r="H45" s="3">
-        <v>84100</v>
+        <v>83700</v>
       </c>
       <c r="I45" s="3">
-        <v>100600</v>
+        <v>100100</v>
       </c>
       <c r="J45" s="3">
-        <v>119400</v>
+        <v>118900</v>
       </c>
       <c r="K45" s="3">
         <v>258400</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1443500</v>
+        <v>1436900</v>
       </c>
       <c r="E46" s="3">
-        <v>1161700</v>
+        <v>1156400</v>
       </c>
       <c r="F46" s="3">
-        <v>940600</v>
+        <v>936400</v>
       </c>
       <c r="G46" s="3">
-        <v>904000</v>
+        <v>899900</v>
       </c>
       <c r="H46" s="3">
-        <v>880400</v>
+        <v>876400</v>
       </c>
       <c r="I46" s="3">
-        <v>1011700</v>
+        <v>1007100</v>
       </c>
       <c r="J46" s="3">
-        <v>830800</v>
+        <v>827000</v>
       </c>
       <c r="K46" s="3">
         <v>1046400</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>433500</v>
+        <v>431600</v>
       </c>
       <c r="E47" s="3">
-        <v>1220400</v>
+        <v>1214800</v>
       </c>
       <c r="F47" s="3">
-        <v>1004800</v>
+        <v>1000200</v>
       </c>
       <c r="G47" s="3">
-        <v>916200</v>
+        <v>912100</v>
       </c>
       <c r="H47" s="3">
-        <v>995000</v>
+        <v>990500</v>
       </c>
       <c r="I47" s="3">
-        <v>995800</v>
+        <v>991300</v>
       </c>
       <c r="J47" s="3">
-        <v>19100</v>
+        <v>19000</v>
       </c>
       <c r="K47" s="3">
         <v>690000</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13283100</v>
+        <v>13222900</v>
       </c>
       <c r="E48" s="3">
-        <v>5517600</v>
+        <v>5492600</v>
       </c>
       <c r="F48" s="3">
-        <v>4618800</v>
+        <v>4597900</v>
       </c>
       <c r="G48" s="3">
-        <v>4556000</v>
+        <v>4535400</v>
       </c>
       <c r="H48" s="3">
-        <v>4489200</v>
+        <v>4468900</v>
       </c>
       <c r="I48" s="3">
-        <v>4352500</v>
+        <v>4332800</v>
       </c>
       <c r="J48" s="3">
-        <v>4441000</v>
+        <v>4420900</v>
       </c>
       <c r="K48" s="3">
         <v>12418200</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2894200</v>
+        <v>2881100</v>
       </c>
       <c r="E49" s="3">
-        <v>875600</v>
+        <v>871600</v>
       </c>
       <c r="F49" s="3">
-        <v>792600</v>
+        <v>789000</v>
       </c>
       <c r="G49" s="3">
-        <v>811000</v>
+        <v>807300</v>
       </c>
       <c r="H49" s="3">
-        <v>805000</v>
+        <v>801400</v>
       </c>
       <c r="I49" s="3">
-        <v>774100</v>
+        <v>770600</v>
       </c>
       <c r="J49" s="3">
-        <v>852600</v>
+        <v>848700</v>
       </c>
       <c r="K49" s="3">
         <v>2781600</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>269800</v>
+        <v>268600</v>
       </c>
       <c r="E52" s="3">
-        <v>73300</v>
+        <v>72900</v>
       </c>
       <c r="F52" s="3">
-        <v>79400</v>
+        <v>79100</v>
       </c>
       <c r="G52" s="3">
-        <v>175600</v>
+        <v>174800</v>
       </c>
       <c r="H52" s="3">
-        <v>135400</v>
+        <v>134800</v>
       </c>
       <c r="I52" s="3">
-        <v>135300</v>
+        <v>134700</v>
       </c>
       <c r="J52" s="3">
-        <v>1289400</v>
+        <v>1283600</v>
       </c>
       <c r="K52" s="3">
         <v>263700</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11408800</v>
+        <v>11357200</v>
       </c>
       <c r="E54" s="3">
-        <v>8567500</v>
+        <v>8528700</v>
       </c>
       <c r="F54" s="3">
-        <v>7423000</v>
+        <v>7389400</v>
       </c>
       <c r="G54" s="3">
-        <v>7362800</v>
+        <v>7329400</v>
       </c>
       <c r="H54" s="3">
-        <v>7305000</v>
+        <v>7271900</v>
       </c>
       <c r="I54" s="3">
-        <v>7269400</v>
+        <v>7236500</v>
       </c>
       <c r="J54" s="3">
-        <v>7432900</v>
+        <v>7399200</v>
       </c>
       <c r="K54" s="3">
         <v>8955900</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1890700</v>
+        <v>1882200</v>
       </c>
       <c r="E57" s="3">
-        <v>799900</v>
+        <v>796300</v>
       </c>
       <c r="F57" s="3">
-        <v>516700</v>
+        <v>514300</v>
       </c>
       <c r="G57" s="3">
-        <v>591700</v>
+        <v>589000</v>
       </c>
       <c r="H57" s="3">
-        <v>568800</v>
+        <v>566200</v>
       </c>
       <c r="I57" s="3">
-        <v>577000</v>
+        <v>574300</v>
       </c>
       <c r="J57" s="3">
-        <v>975700</v>
+        <v>971200</v>
       </c>
       <c r="K57" s="3">
         <v>1750100</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1498900</v>
+        <v>1492100</v>
       </c>
       <c r="E58" s="3">
-        <v>459800</v>
+        <v>457700</v>
       </c>
       <c r="F58" s="3">
-        <v>327400</v>
+        <v>326000</v>
       </c>
       <c r="G58" s="3">
-        <v>809300</v>
+        <v>805600</v>
       </c>
       <c r="H58" s="3">
-        <v>772500</v>
+        <v>769000</v>
       </c>
       <c r="I58" s="3">
-        <v>690900</v>
+        <v>687800</v>
       </c>
       <c r="J58" s="3">
-        <v>440000</v>
+        <v>438000</v>
       </c>
       <c r="K58" s="3">
         <v>2029300</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1525100</v>
+        <v>1518200</v>
       </c>
       <c r="E59" s="3">
-        <v>559100</v>
+        <v>556600</v>
       </c>
       <c r="F59" s="3">
-        <v>417000</v>
+        <v>415100</v>
       </c>
       <c r="G59" s="3">
-        <v>375300</v>
+        <v>373600</v>
       </c>
       <c r="H59" s="3">
-        <v>390300</v>
+        <v>388500</v>
       </c>
       <c r="I59" s="3">
-        <v>365100</v>
+        <v>363500</v>
       </c>
       <c r="J59" s="3">
-        <v>124800</v>
+        <v>124200</v>
       </c>
       <c r="K59" s="3">
         <v>492900</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3125300</v>
+        <v>3111100</v>
       </c>
       <c r="E60" s="3">
-        <v>1818800</v>
+        <v>1810600</v>
       </c>
       <c r="F60" s="3">
-        <v>1261100</v>
+        <v>1255400</v>
       </c>
       <c r="G60" s="3">
-        <v>1776300</v>
+        <v>1768300</v>
       </c>
       <c r="H60" s="3">
-        <v>1731600</v>
+        <v>1723800</v>
       </c>
       <c r="I60" s="3">
-        <v>1633000</v>
+        <v>1625600</v>
       </c>
       <c r="J60" s="3">
-        <v>1540500</v>
+        <v>1533500</v>
       </c>
       <c r="K60" s="3">
         <v>2165500</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4279300</v>
+        <v>4259900</v>
       </c>
       <c r="E61" s="3">
-        <v>2533700</v>
+        <v>2522300</v>
       </c>
       <c r="F61" s="3">
-        <v>2208200</v>
+        <v>2198200</v>
       </c>
       <c r="G61" s="3">
-        <v>1649800</v>
+        <v>1642300</v>
       </c>
       <c r="H61" s="3">
-        <v>1677700</v>
+        <v>1670100</v>
       </c>
       <c r="I61" s="3">
-        <v>1826800</v>
+        <v>1818500</v>
       </c>
       <c r="J61" s="3">
-        <v>2445900</v>
+        <v>2434900</v>
       </c>
       <c r="K61" s="3">
         <v>2413900</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1585800</v>
+        <v>1578600</v>
       </c>
       <c r="E62" s="3">
-        <v>890100</v>
+        <v>886100</v>
       </c>
       <c r="F62" s="3">
-        <v>649600</v>
+        <v>646700</v>
       </c>
       <c r="G62" s="3">
-        <v>642300</v>
+        <v>639400</v>
       </c>
       <c r="H62" s="3">
-        <v>587600</v>
+        <v>584900</v>
       </c>
       <c r="I62" s="3">
-        <v>560400</v>
+        <v>557800</v>
       </c>
       <c r="J62" s="3">
-        <v>565900</v>
+        <v>563300</v>
       </c>
       <c r="K62" s="3">
         <v>1232800</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8614000</v>
+        <v>8575000</v>
       </c>
       <c r="E66" s="3">
-        <v>5294400</v>
+        <v>5270500</v>
       </c>
       <c r="F66" s="3">
-        <v>4161900</v>
+        <v>4143100</v>
       </c>
       <c r="G66" s="3">
-        <v>4125600</v>
+        <v>4106900</v>
       </c>
       <c r="H66" s="3">
-        <v>4048800</v>
+        <v>4030500</v>
       </c>
       <c r="I66" s="3">
-        <v>4074100</v>
+        <v>4055700</v>
       </c>
       <c r="J66" s="3">
-        <v>4830600</v>
+        <v>4808700</v>
       </c>
       <c r="K66" s="3">
         <v>5225900</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3501100</v>
+        <v>3485200</v>
       </c>
       <c r="E72" s="3">
-        <v>4070900</v>
+        <v>4052400</v>
       </c>
       <c r="F72" s="3">
-        <v>4127300</v>
+        <v>4108600</v>
       </c>
       <c r="G72" s="3">
-        <v>4123000</v>
+        <v>4104300</v>
       </c>
       <c r="H72" s="3">
-        <v>4163600</v>
+        <v>4144800</v>
       </c>
       <c r="I72" s="3">
-        <v>4269900</v>
+        <v>4250600</v>
       </c>
       <c r="J72" s="3">
-        <v>3484300</v>
+        <v>3468500</v>
       </c>
       <c r="K72" s="3">
         <v>8270000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2794900</v>
+        <v>2782200</v>
       </c>
       <c r="E76" s="3">
-        <v>3273100</v>
+        <v>3258200</v>
       </c>
       <c r="F76" s="3">
-        <v>3261100</v>
+        <v>3246300</v>
       </c>
       <c r="G76" s="3">
-        <v>3237200</v>
+        <v>3222500</v>
       </c>
       <c r="H76" s="3">
-        <v>3256200</v>
+        <v>3241400</v>
       </c>
       <c r="I76" s="3">
-        <v>3195300</v>
+        <v>3180800</v>
       </c>
       <c r="J76" s="3">
-        <v>2602300</v>
+        <v>2590500</v>
       </c>
       <c r="K76" s="3">
         <v>3730000</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>195800</v>
+        <v>194900</v>
       </c>
       <c r="E81" s="3">
-        <v>187500</v>
+        <v>186700</v>
       </c>
       <c r="F81" s="3">
-        <v>181500</v>
+        <v>180700</v>
       </c>
       <c r="G81" s="3">
-        <v>155700</v>
+        <v>155000</v>
       </c>
       <c r="H81" s="3">
-        <v>184800</v>
+        <v>183900</v>
       </c>
       <c r="I81" s="3">
-        <v>497100</v>
+        <v>494900</v>
       </c>
       <c r="J81" s="3">
-        <v>316300</v>
+        <v>314900</v>
       </c>
       <c r="K81" s="3">
         <v>516000</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>891900</v>
+        <v>887900</v>
       </c>
       <c r="E83" s="3">
-        <v>799400</v>
+        <v>795700</v>
       </c>
       <c r="F83" s="3">
-        <v>750300</v>
+        <v>746900</v>
       </c>
       <c r="G83" s="3">
-        <v>736600</v>
+        <v>733200</v>
       </c>
       <c r="H83" s="3">
-        <v>802900</v>
+        <v>799300</v>
       </c>
       <c r="I83" s="3">
-        <v>803400</v>
+        <v>799800</v>
       </c>
       <c r="J83" s="3">
-        <v>906500</v>
+        <v>902400</v>
       </c>
       <c r="K83" s="3">
         <v>1050200</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1317300</v>
+        <v>1311400</v>
       </c>
       <c r="E89" s="3">
-        <v>1023500</v>
+        <v>1018800</v>
       </c>
       <c r="F89" s="3">
-        <v>950900</v>
+        <v>946600</v>
       </c>
       <c r="G89" s="3">
-        <v>890100</v>
+        <v>886100</v>
       </c>
       <c r="H89" s="3">
-        <v>1071300</v>
+        <v>1066400</v>
       </c>
       <c r="I89" s="3">
-        <v>1054000</v>
+        <v>1049200</v>
       </c>
       <c r="J89" s="3">
-        <v>1135400</v>
+        <v>1130300</v>
       </c>
       <c r="K89" s="3">
         <v>1525900</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1331800</v>
+        <v>-1325800</v>
       </c>
       <c r="E91" s="3">
-        <v>-969600</v>
+        <v>-965200</v>
       </c>
       <c r="F91" s="3">
-        <v>-805000</v>
+        <v>-801300</v>
       </c>
       <c r="G91" s="3">
-        <v>-819600</v>
+        <v>-815900</v>
       </c>
       <c r="H91" s="3">
-        <v>-831100</v>
+        <v>-827400</v>
       </c>
       <c r="I91" s="3">
-        <v>-764100</v>
+        <v>-760600</v>
       </c>
       <c r="J91" s="3">
-        <v>-907500</v>
+        <v>-903300</v>
       </c>
       <c r="K91" s="3">
         <v>-1479000</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1368400</v>
+        <v>-1362200</v>
       </c>
       <c r="E94" s="3">
-        <v>-916700</v>
+        <v>-912500</v>
       </c>
       <c r="F94" s="3">
-        <v>-708300</v>
+        <v>-705100</v>
       </c>
       <c r="G94" s="3">
-        <v>-754600</v>
+        <v>-751200</v>
       </c>
       <c r="H94" s="3">
-        <v>-868800</v>
+        <v>-864800</v>
       </c>
       <c r="I94" s="3">
-        <v>-279700</v>
+        <v>-278400</v>
       </c>
       <c r="J94" s="3">
-        <v>-820500</v>
+        <v>-816800</v>
       </c>
       <c r="K94" s="3">
         <v>-1450500</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-155400</v>
+        <v>-154700</v>
       </c>
       <c r="E96" s="3">
-        <v>-153000</v>
+        <v>-152300</v>
       </c>
       <c r="F96" s="3">
-        <v>-161600</v>
+        <v>-160900</v>
       </c>
       <c r="G96" s="3">
-        <v>-176200</v>
+        <v>-175400</v>
       </c>
       <c r="H96" s="3">
-        <v>-101700</v>
+        <v>-101200</v>
       </c>
       <c r="I96" s="3">
-        <v>-96600</v>
+        <v>-96200</v>
       </c>
       <c r="J96" s="3">
-        <v>-77200</v>
+        <v>-76900</v>
       </c>
       <c r="K96" s="3">
         <v>-144800</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>177800</v>
+        <v>177000</v>
       </c>
       <c r="E100" s="3">
-        <v>-24400</v>
+        <v>-24300</v>
       </c>
       <c r="F100" s="3">
-        <v>-246500</v>
+        <v>-245300</v>
       </c>
       <c r="G100" s="3">
-        <v>-168000</v>
+        <v>-167200</v>
       </c>
       <c r="H100" s="3">
-        <v>-332700</v>
+        <v>-331200</v>
       </c>
       <c r="I100" s="3">
-        <v>-658100</v>
+        <v>-655100</v>
       </c>
       <c r="J100" s="3">
-        <v>-390000</v>
+        <v>-388200</v>
       </c>
       <c r="K100" s="3">
         <v>-12000</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>125600</v>
+        <v>125000</v>
       </c>
       <c r="E102" s="3">
-        <v>83000</v>
+        <v>82600</v>
       </c>
       <c r="F102" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="G102" s="3">
-        <v>-38500</v>
+        <v>-38400</v>
       </c>
       <c r="H102" s="3">
-        <v>-129600</v>
+        <v>-129000</v>
       </c>
       <c r="I102" s="3">
-        <v>119100</v>
+        <v>118500</v>
       </c>
       <c r="J102" s="3">
-        <v>-75100</v>
+        <v>-74800</v>
       </c>
       <c r="K102" s="3">
         <v>63100</v>

--- a/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>ROSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4450600</v>
+        <v>7191600</v>
       </c>
       <c r="E8" s="3">
-        <v>4224000</v>
+        <v>6256100</v>
       </c>
       <c r="F8" s="3">
-        <v>4027300</v>
+        <v>4211100</v>
       </c>
       <c r="G8" s="3">
-        <v>3923300</v>
+        <v>4015100</v>
       </c>
       <c r="H8" s="3">
-        <v>3922100</v>
+        <v>3911400</v>
       </c>
       <c r="I8" s="3">
-        <v>3943000</v>
+        <v>3910200</v>
       </c>
       <c r="J8" s="3">
+        <v>3931000</v>
+      </c>
+      <c r="K8" s="3">
         <v>3834800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4663400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1124000</v>
+        <v>1812000</v>
       </c>
       <c r="E9" s="3">
-        <v>1139700</v>
+        <v>1614100</v>
       </c>
       <c r="F9" s="3">
-        <v>1058600</v>
+        <v>1136300</v>
       </c>
       <c r="G9" s="3">
-        <v>1035000</v>
+        <v>1055400</v>
       </c>
       <c r="H9" s="3">
-        <v>1005900</v>
+        <v>1031800</v>
       </c>
       <c r="I9" s="3">
-        <v>988700</v>
+        <v>1002900</v>
       </c>
       <c r="J9" s="3">
+        <v>985700</v>
+      </c>
+      <c r="K9" s="3">
         <v>905900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2232500</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3326600</v>
+        <v>5379600</v>
       </c>
       <c r="E10" s="3">
-        <v>3084200</v>
+        <v>4642000</v>
       </c>
       <c r="F10" s="3">
-        <v>2968700</v>
+        <v>3074900</v>
       </c>
       <c r="G10" s="3">
-        <v>2888400</v>
+        <v>2959700</v>
       </c>
       <c r="H10" s="3">
-        <v>2916200</v>
+        <v>2879600</v>
       </c>
       <c r="I10" s="3">
-        <v>2954200</v>
+        <v>2907300</v>
       </c>
       <c r="J10" s="3">
+        <v>2945300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2928900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2430900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>66800</v>
+        <v>87600</v>
       </c>
       <c r="E14" s="3">
-        <v>41800</v>
+        <v>72300</v>
       </c>
       <c r="F14" s="3">
+        <v>41700</v>
+      </c>
+      <c r="G14" s="3">
         <v>-14000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-190200</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>887900</v>
+        <v>1574100</v>
       </c>
       <c r="E15" s="3">
-        <v>795700</v>
+        <v>1368400</v>
       </c>
       <c r="F15" s="3">
-        <v>746900</v>
+        <v>793300</v>
       </c>
       <c r="G15" s="3">
-        <v>733200</v>
+        <v>744700</v>
       </c>
       <c r="H15" s="3">
-        <v>799300</v>
+        <v>731000</v>
       </c>
       <c r="I15" s="3">
-        <v>799600</v>
+        <v>796900</v>
       </c>
       <c r="J15" s="3">
+        <v>797200</v>
+      </c>
+      <c r="K15" s="3">
         <v>777100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>902100</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4009900</v>
+        <v>6286000</v>
       </c>
       <c r="E17" s="3">
-        <v>3753200</v>
+        <v>5456100</v>
       </c>
       <c r="F17" s="3">
-        <v>3523400</v>
+        <v>3741900</v>
       </c>
       <c r="G17" s="3">
-        <v>3400400</v>
+        <v>3512800</v>
       </c>
       <c r="H17" s="3">
-        <v>3417000</v>
+        <v>3390100</v>
       </c>
       <c r="I17" s="3">
-        <v>3413300</v>
+        <v>3406600</v>
       </c>
       <c r="J17" s="3">
+        <v>3402900</v>
+      </c>
+      <c r="K17" s="3">
         <v>3238200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3834800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>440700</v>
+        <v>905600</v>
       </c>
       <c r="E18" s="3">
-        <v>470700</v>
+        <v>800000</v>
       </c>
       <c r="F18" s="3">
-        <v>503800</v>
+        <v>469300</v>
       </c>
       <c r="G18" s="3">
-        <v>522900</v>
+        <v>502300</v>
       </c>
       <c r="H18" s="3">
-        <v>505100</v>
+        <v>521400</v>
       </c>
       <c r="I18" s="3">
-        <v>529700</v>
+        <v>503600</v>
       </c>
       <c r="J18" s="3">
+        <v>528100</v>
+      </c>
+      <c r="K18" s="3">
         <v>596600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>828700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>44000</v>
+        <v>-5000</v>
       </c>
       <c r="E20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>7300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-27100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-74600</v>
-      </c>
       <c r="H20" s="3">
-        <v>-69100</v>
+        <v>-74400</v>
       </c>
       <c r="I20" s="3">
-        <v>-56500</v>
+        <v>-68900</v>
       </c>
       <c r="J20" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-134200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>124900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1375200</v>
+        <v>2465200</v>
       </c>
       <c r="E21" s="3">
-        <v>1276200</v>
+        <v>2158800</v>
       </c>
       <c r="F21" s="3">
-        <v>1225900</v>
+        <v>1265100</v>
       </c>
       <c r="G21" s="3">
-        <v>1183800</v>
+        <v>1215400</v>
       </c>
       <c r="H21" s="3">
-        <v>1237800</v>
+        <v>1173500</v>
       </c>
       <c r="I21" s="3">
-        <v>1275400</v>
+        <v>1226800</v>
       </c>
       <c r="J21" s="3">
+        <v>1264200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1367500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2011800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>240400</v>
+        <v>453500</v>
       </c>
       <c r="E22" s="3">
-        <v>221700</v>
+        <v>438500</v>
       </c>
       <c r="F22" s="3">
-        <v>227300</v>
+        <v>221000</v>
       </c>
       <c r="G22" s="3">
-        <v>224900</v>
+        <v>226600</v>
       </c>
       <c r="H22" s="3">
-        <v>214100</v>
+        <v>224200</v>
       </c>
       <c r="I22" s="3">
-        <v>204200</v>
-      </c>
-      <c r="J22" s="3" t="s">
+        <v>213500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>203600</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>249700</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>244300</v>
+        <v>447200</v>
       </c>
       <c r="E23" s="3">
-        <v>256400</v>
+        <v>360200</v>
       </c>
       <c r="F23" s="3">
-        <v>249400</v>
+        <v>255600</v>
       </c>
       <c r="G23" s="3">
-        <v>223500</v>
+        <v>248600</v>
       </c>
       <c r="H23" s="3">
-        <v>221900</v>
+        <v>222800</v>
       </c>
       <c r="I23" s="3">
-        <v>269000</v>
+        <v>221300</v>
       </c>
       <c r="J23" s="3">
+        <v>268200</v>
+      </c>
+      <c r="K23" s="3">
         <v>462400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>703900</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27000</v>
+        <v>113900</v>
       </c>
       <c r="E24" s="3">
-        <v>58400</v>
+        <v>72500</v>
       </c>
       <c r="F24" s="3">
-        <v>64100</v>
+        <v>58200</v>
       </c>
       <c r="G24" s="3">
-        <v>61900</v>
+        <v>63900</v>
       </c>
       <c r="H24" s="3">
-        <v>32100</v>
+        <v>61700</v>
       </c>
       <c r="I24" s="3">
-        <v>95100</v>
+        <v>32000</v>
       </c>
       <c r="J24" s="3">
+        <v>94800</v>
+      </c>
+      <c r="K24" s="3">
         <v>110400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>173700</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>217300</v>
+        <v>333300</v>
       </c>
       <c r="E26" s="3">
-        <v>198000</v>
+        <v>287700</v>
       </c>
       <c r="F26" s="3">
-        <v>185300</v>
+        <v>197400</v>
       </c>
       <c r="G26" s="3">
-        <v>161600</v>
+        <v>184800</v>
       </c>
       <c r="H26" s="3">
-        <v>189800</v>
+        <v>161100</v>
       </c>
       <c r="I26" s="3">
-        <v>173900</v>
+        <v>189200</v>
       </c>
       <c r="J26" s="3">
+        <v>173300</v>
+      </c>
+      <c r="K26" s="3">
         <v>352000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>530200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>194900</v>
+        <v>306500</v>
       </c>
       <c r="E27" s="3">
-        <v>186700</v>
+        <v>265400</v>
       </c>
       <c r="F27" s="3">
-        <v>180700</v>
+        <v>186100</v>
       </c>
       <c r="G27" s="3">
-        <v>155000</v>
+        <v>180100</v>
       </c>
       <c r="H27" s="3">
-        <v>183900</v>
+        <v>154500</v>
       </c>
       <c r="I27" s="3">
-        <v>170100</v>
+        <v>183400</v>
       </c>
       <c r="J27" s="3">
+        <v>169600</v>
+      </c>
+      <c r="K27" s="3">
         <v>348600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>522000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1304,21 +1364,24 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>324800</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>323800</v>
+      </c>
+      <c r="K29" s="3">
         <v>-33700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6000</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-44000</v>
+        <v>5000</v>
       </c>
       <c r="E32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>27100</v>
       </c>
-      <c r="G32" s="3">
-        <v>74600</v>
-      </c>
       <c r="H32" s="3">
-        <v>69100</v>
+        <v>74400</v>
       </c>
       <c r="I32" s="3">
-        <v>56500</v>
+        <v>68900</v>
       </c>
       <c r="J32" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K32" s="3">
         <v>134200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-124900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>194900</v>
+        <v>306500</v>
       </c>
       <c r="E33" s="3">
-        <v>186700</v>
+        <v>265400</v>
       </c>
       <c r="F33" s="3">
-        <v>180700</v>
+        <v>186100</v>
       </c>
       <c r="G33" s="3">
-        <v>155000</v>
+        <v>180100</v>
       </c>
       <c r="H33" s="3">
-        <v>183900</v>
+        <v>154500</v>
       </c>
       <c r="I33" s="3">
-        <v>494900</v>
+        <v>183400</v>
       </c>
       <c r="J33" s="3">
+        <v>493400</v>
+      </c>
+      <c r="K33" s="3">
         <v>314900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>516000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>194900</v>
+        <v>306500</v>
       </c>
       <c r="E35" s="3">
-        <v>186700</v>
+        <v>265400</v>
       </c>
       <c r="F35" s="3">
-        <v>180700</v>
+        <v>186100</v>
       </c>
       <c r="G35" s="3">
-        <v>155000</v>
+        <v>180100</v>
       </c>
       <c r="H35" s="3">
-        <v>183900</v>
+        <v>154500</v>
       </c>
       <c r="I35" s="3">
-        <v>494900</v>
+        <v>183400</v>
       </c>
       <c r="J35" s="3">
+        <v>493400</v>
+      </c>
+      <c r="K35" s="3">
         <v>314900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>516000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>521200</v>
+        <v>410500</v>
       </c>
       <c r="E41" s="3">
-        <v>133000</v>
+        <v>524800</v>
       </c>
       <c r="F41" s="3">
-        <v>50300</v>
+        <v>132600</v>
       </c>
       <c r="G41" s="3">
-        <v>56100</v>
+        <v>50200</v>
       </c>
       <c r="H41" s="3">
-        <v>94500</v>
+        <v>56000</v>
       </c>
       <c r="I41" s="3">
-        <v>223500</v>
+        <v>94200</v>
       </c>
       <c r="J41" s="3">
+        <v>222800</v>
+      </c>
+      <c r="K41" s="3">
         <v>105000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>367800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>117200</v>
+        <v>151000</v>
       </c>
       <c r="E42" s="3">
-        <v>98800</v>
+        <v>116900</v>
       </c>
       <c r="F42" s="3">
-        <v>78700</v>
+        <v>98500</v>
       </c>
       <c r="G42" s="3">
-        <v>70800</v>
+        <v>78400</v>
       </c>
       <c r="H42" s="3">
-        <v>75400</v>
+        <v>70600</v>
       </c>
       <c r="I42" s="3">
-        <v>25500</v>
+        <v>75200</v>
       </c>
       <c r="J42" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K42" s="3">
         <v>25900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>81300</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>677800</v>
+        <v>756600</v>
       </c>
       <c r="E43" s="3">
-        <v>708300</v>
+        <v>717900</v>
       </c>
       <c r="F43" s="3">
-        <v>630700</v>
+        <v>706200</v>
       </c>
       <c r="G43" s="3">
-        <v>605200</v>
+        <v>628700</v>
       </c>
       <c r="H43" s="3">
-        <v>569200</v>
+        <v>603400</v>
       </c>
       <c r="I43" s="3">
-        <v>594300</v>
+        <v>567400</v>
       </c>
       <c r="J43" s="3">
+        <v>592500</v>
+      </c>
+      <c r="K43" s="3">
         <v>525300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1103300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>253300</v>
+        <v>141900</v>
       </c>
       <c r="E44" s="3">
-        <v>100700</v>
+        <v>257600</v>
       </c>
       <c r="F44" s="3">
-        <v>81400</v>
+        <v>100300</v>
       </c>
       <c r="G44" s="3">
-        <v>85000</v>
+        <v>81100</v>
       </c>
       <c r="H44" s="3">
-        <v>53600</v>
+        <v>84700</v>
       </c>
       <c r="I44" s="3">
-        <v>63700</v>
+        <v>53400</v>
       </c>
       <c r="J44" s="3">
+        <v>63500</v>
+      </c>
+      <c r="K44" s="3">
         <v>52000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>150400</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>207500</v>
+        <v>250500</v>
       </c>
       <c r="E45" s="3">
-        <v>115700</v>
+        <v>206800</v>
       </c>
       <c r="F45" s="3">
-        <v>95400</v>
+        <v>115400</v>
       </c>
       <c r="G45" s="3">
-        <v>82800</v>
+        <v>95100</v>
       </c>
       <c r="H45" s="3">
-        <v>83700</v>
+        <v>82500</v>
       </c>
       <c r="I45" s="3">
-        <v>100100</v>
+        <v>83500</v>
       </c>
       <c r="J45" s="3">
+        <v>99800</v>
+      </c>
+      <c r="K45" s="3">
         <v>118900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>258400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1436900</v>
+        <v>1710600</v>
       </c>
       <c r="E46" s="3">
-        <v>1156400</v>
+        <v>1432800</v>
       </c>
       <c r="F46" s="3">
-        <v>936400</v>
+        <v>1152900</v>
       </c>
       <c r="G46" s="3">
-        <v>899900</v>
+        <v>933500</v>
       </c>
       <c r="H46" s="3">
-        <v>876400</v>
+        <v>897200</v>
       </c>
       <c r="I46" s="3">
-        <v>1007100</v>
+        <v>873800</v>
       </c>
       <c r="J46" s="3">
+        <v>1004100</v>
+      </c>
+      <c r="K46" s="3">
         <v>827000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1046400</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>431600</v>
+        <v>464500</v>
       </c>
       <c r="E47" s="3">
-        <v>1214800</v>
+        <v>430200</v>
       </c>
       <c r="F47" s="3">
-        <v>1000200</v>
+        <v>1211100</v>
       </c>
       <c r="G47" s="3">
-        <v>912100</v>
+        <v>997200</v>
       </c>
       <c r="H47" s="3">
-        <v>990500</v>
+        <v>909300</v>
       </c>
       <c r="I47" s="3">
-        <v>991300</v>
+        <v>987500</v>
       </c>
       <c r="J47" s="3">
+        <v>988300</v>
+      </c>
+      <c r="K47" s="3">
         <v>19000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>690000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13222900</v>
+        <v>8824800</v>
       </c>
       <c r="E48" s="3">
-        <v>5492600</v>
+        <v>15357800</v>
       </c>
       <c r="F48" s="3">
-        <v>4597900</v>
+        <v>5475900</v>
       </c>
       <c r="G48" s="3">
-        <v>4535400</v>
+        <v>4583900</v>
       </c>
       <c r="H48" s="3">
-        <v>4468900</v>
+        <v>4521600</v>
       </c>
       <c r="I48" s="3">
-        <v>4332800</v>
+        <v>4455300</v>
       </c>
       <c r="J48" s="3">
+        <v>4319600</v>
+      </c>
+      <c r="K48" s="3">
         <v>4420900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12418200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2881100</v>
+        <v>1858400</v>
       </c>
       <c r="E49" s="3">
-        <v>871600</v>
+        <v>3329600</v>
       </c>
       <c r="F49" s="3">
-        <v>789000</v>
+        <v>869000</v>
       </c>
       <c r="G49" s="3">
-        <v>807300</v>
+        <v>786600</v>
       </c>
       <c r="H49" s="3">
-        <v>801400</v>
+        <v>804900</v>
       </c>
       <c r="I49" s="3">
-        <v>770600</v>
+        <v>798900</v>
       </c>
       <c r="J49" s="3">
+        <v>768200</v>
+      </c>
+      <c r="K49" s="3">
         <v>848700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2781600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>268600</v>
+        <v>288600</v>
       </c>
       <c r="E52" s="3">
-        <v>72900</v>
+        <v>267300</v>
       </c>
       <c r="F52" s="3">
-        <v>79100</v>
+        <v>72700</v>
       </c>
       <c r="G52" s="3">
-        <v>174800</v>
+        <v>78800</v>
       </c>
       <c r="H52" s="3">
-        <v>134800</v>
+        <v>174200</v>
       </c>
       <c r="I52" s="3">
-        <v>134700</v>
+        <v>134400</v>
       </c>
       <c r="J52" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1283600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>263700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11357200</v>
+        <v>13146900</v>
       </c>
       <c r="E54" s="3">
-        <v>8528700</v>
+        <v>11623200</v>
       </c>
       <c r="F54" s="3">
-        <v>7389400</v>
+        <v>8502800</v>
       </c>
       <c r="G54" s="3">
-        <v>7329400</v>
+        <v>7367000</v>
       </c>
       <c r="H54" s="3">
-        <v>7271900</v>
+        <v>7307200</v>
       </c>
       <c r="I54" s="3">
-        <v>7236500</v>
+        <v>7249900</v>
       </c>
       <c r="J54" s="3">
+        <v>7214500</v>
+      </c>
+      <c r="K54" s="3">
         <v>7399200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8955900</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1882200</v>
+        <v>925100</v>
       </c>
       <c r="E57" s="3">
-        <v>796300</v>
+        <v>2041300</v>
       </c>
       <c r="F57" s="3">
-        <v>514300</v>
+        <v>793900</v>
       </c>
       <c r="G57" s="3">
-        <v>589000</v>
+        <v>512800</v>
       </c>
       <c r="H57" s="3">
-        <v>566200</v>
+        <v>587200</v>
       </c>
       <c r="I57" s="3">
-        <v>574300</v>
+        <v>564500</v>
       </c>
       <c r="J57" s="3">
+        <v>572600</v>
+      </c>
+      <c r="K57" s="3">
         <v>971200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1750100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1492100</v>
+        <v>656600</v>
       </c>
       <c r="E58" s="3">
-        <v>457700</v>
+        <v>2432300</v>
       </c>
       <c r="F58" s="3">
-        <v>326000</v>
+        <v>456300</v>
       </c>
       <c r="G58" s="3">
-        <v>805600</v>
+        <v>325000</v>
       </c>
       <c r="H58" s="3">
-        <v>769000</v>
+        <v>803200</v>
       </c>
       <c r="I58" s="3">
-        <v>687800</v>
+        <v>766700</v>
       </c>
       <c r="J58" s="3">
+        <v>685700</v>
+      </c>
+      <c r="K58" s="3">
         <v>438000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2029300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1518200</v>
+        <v>1155300</v>
       </c>
       <c r="E59" s="3">
-        <v>556600</v>
+        <v>1532000</v>
       </c>
       <c r="F59" s="3">
-        <v>415100</v>
+        <v>554900</v>
       </c>
       <c r="G59" s="3">
-        <v>373600</v>
+        <v>413800</v>
       </c>
       <c r="H59" s="3">
-        <v>388500</v>
+        <v>372500</v>
       </c>
       <c r="I59" s="3">
-        <v>363500</v>
+        <v>387400</v>
       </c>
       <c r="J59" s="3">
+        <v>362400</v>
+      </c>
+      <c r="K59" s="3">
         <v>124200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>492900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3111100</v>
+        <v>2737100</v>
       </c>
       <c r="E60" s="3">
-        <v>1810600</v>
+        <v>3134400</v>
       </c>
       <c r="F60" s="3">
-        <v>1255400</v>
+        <v>1805100</v>
       </c>
       <c r="G60" s="3">
-        <v>1768300</v>
+        <v>1251600</v>
       </c>
       <c r="H60" s="3">
-        <v>1723800</v>
+        <v>1762900</v>
       </c>
       <c r="I60" s="3">
-        <v>1625600</v>
+        <v>1718600</v>
       </c>
       <c r="J60" s="3">
+        <v>1620700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1533500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2165500</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4259900</v>
+        <v>6033200</v>
       </c>
       <c r="E61" s="3">
-        <v>2522300</v>
+        <v>4520000</v>
       </c>
       <c r="F61" s="3">
-        <v>2198200</v>
+        <v>2514600</v>
       </c>
       <c r="G61" s="3">
-        <v>1642300</v>
+        <v>2191600</v>
       </c>
       <c r="H61" s="3">
-        <v>1670100</v>
+        <v>1637300</v>
       </c>
       <c r="I61" s="3">
-        <v>1818500</v>
+        <v>1665100</v>
       </c>
       <c r="J61" s="3">
+        <v>1813000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2434900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2413900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1578600</v>
+        <v>1514200</v>
       </c>
       <c r="E62" s="3">
-        <v>886100</v>
+        <v>1633900</v>
       </c>
       <c r="F62" s="3">
-        <v>646700</v>
+        <v>883400</v>
       </c>
       <c r="G62" s="3">
-        <v>639400</v>
+        <v>644700</v>
       </c>
       <c r="H62" s="3">
-        <v>584900</v>
+        <v>637500</v>
       </c>
       <c r="I62" s="3">
-        <v>557800</v>
+        <v>583200</v>
       </c>
       <c r="J62" s="3">
+        <v>556100</v>
+      </c>
+      <c r="K62" s="3">
         <v>563300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1232800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8575000</v>
+        <v>10778100</v>
       </c>
       <c r="E66" s="3">
-        <v>5270500</v>
+        <v>8868500</v>
       </c>
       <c r="F66" s="3">
-        <v>4143100</v>
+        <v>5254500</v>
       </c>
       <c r="G66" s="3">
-        <v>4106900</v>
+        <v>4130500</v>
       </c>
       <c r="H66" s="3">
-        <v>4030500</v>
+        <v>4094500</v>
       </c>
       <c r="I66" s="3">
-        <v>4055700</v>
+        <v>4018300</v>
       </c>
       <c r="J66" s="3">
+        <v>4043400</v>
+      </c>
+      <c r="K66" s="3">
         <v>4808700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5225900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3485200</v>
+        <v>2556500</v>
       </c>
       <c r="E72" s="3">
-        <v>4052400</v>
+        <v>3455600</v>
       </c>
       <c r="F72" s="3">
-        <v>4108600</v>
+        <v>4040100</v>
       </c>
       <c r="G72" s="3">
-        <v>4104300</v>
+        <v>4096100</v>
       </c>
       <c r="H72" s="3">
-        <v>4144800</v>
+        <v>4091800</v>
       </c>
       <c r="I72" s="3">
-        <v>4250600</v>
+        <v>4132200</v>
       </c>
       <c r="J72" s="3">
+        <v>4237700</v>
+      </c>
+      <c r="K72" s="3">
         <v>3468500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8270000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2782200</v>
+        <v>2368700</v>
       </c>
       <c r="E76" s="3">
-        <v>3258200</v>
+        <v>2754700</v>
       </c>
       <c r="F76" s="3">
-        <v>3246300</v>
+        <v>3248400</v>
       </c>
       <c r="G76" s="3">
-        <v>3222500</v>
+        <v>3236500</v>
       </c>
       <c r="H76" s="3">
-        <v>3241400</v>
+        <v>3212800</v>
       </c>
       <c r="I76" s="3">
-        <v>3180800</v>
+        <v>3231600</v>
       </c>
       <c r="J76" s="3">
+        <v>3171100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2590500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3730000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>194900</v>
+        <v>306500</v>
       </c>
       <c r="E81" s="3">
-        <v>186700</v>
+        <v>265400</v>
       </c>
       <c r="F81" s="3">
-        <v>180700</v>
+        <v>186100</v>
       </c>
       <c r="G81" s="3">
-        <v>155000</v>
+        <v>180100</v>
       </c>
       <c r="H81" s="3">
-        <v>183900</v>
+        <v>154500</v>
       </c>
       <c r="I81" s="3">
-        <v>494900</v>
+        <v>183400</v>
       </c>
       <c r="J81" s="3">
+        <v>493400</v>
+      </c>
+      <c r="K81" s="3">
         <v>314900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>516000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>887900</v>
+        <v>1574100</v>
       </c>
       <c r="E83" s="3">
-        <v>795700</v>
+        <v>1368400</v>
       </c>
       <c r="F83" s="3">
-        <v>746900</v>
+        <v>793300</v>
       </c>
       <c r="G83" s="3">
-        <v>733200</v>
+        <v>744700</v>
       </c>
       <c r="H83" s="3">
-        <v>799300</v>
+        <v>731000</v>
       </c>
       <c r="I83" s="3">
-        <v>799800</v>
+        <v>796900</v>
       </c>
       <c r="J83" s="3">
+        <v>797400</v>
+      </c>
+      <c r="K83" s="3">
         <v>902400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1050200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1311400</v>
+        <v>1798800</v>
       </c>
       <c r="E89" s="3">
-        <v>1018800</v>
+        <v>1853300</v>
       </c>
       <c r="F89" s="3">
-        <v>946600</v>
+        <v>1015800</v>
       </c>
       <c r="G89" s="3">
-        <v>886100</v>
+        <v>943800</v>
       </c>
       <c r="H89" s="3">
-        <v>1066400</v>
+        <v>883400</v>
       </c>
       <c r="I89" s="3">
-        <v>1049200</v>
+        <v>1063200</v>
       </c>
       <c r="J89" s="3">
+        <v>1046000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1130300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1525900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1325800</v>
+        <v>-1788200</v>
       </c>
       <c r="E91" s="3">
-        <v>-965200</v>
+        <v>-1767100</v>
       </c>
       <c r="F91" s="3">
-        <v>-801300</v>
+        <v>-962300</v>
       </c>
       <c r="G91" s="3">
-        <v>-815900</v>
+        <v>-798900</v>
       </c>
       <c r="H91" s="3">
-        <v>-827400</v>
+        <v>-813400</v>
       </c>
       <c r="I91" s="3">
-        <v>-760600</v>
+        <v>-824800</v>
       </c>
       <c r="J91" s="3">
+        <v>-758300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-903300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1479000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1362200</v>
+        <v>-3099800</v>
       </c>
       <c r="E94" s="3">
-        <v>-912500</v>
+        <v>-1806100</v>
       </c>
       <c r="F94" s="3">
-        <v>-705100</v>
+        <v>-909700</v>
       </c>
       <c r="G94" s="3">
-        <v>-751200</v>
+        <v>-703000</v>
       </c>
       <c r="H94" s="3">
-        <v>-864800</v>
+        <v>-748900</v>
       </c>
       <c r="I94" s="3">
-        <v>-278400</v>
+        <v>-862200</v>
       </c>
       <c r="J94" s="3">
+        <v>-277600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-816800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1450500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-154700</v>
+        <v>-219100</v>
       </c>
       <c r="E96" s="3">
-        <v>-152300</v>
+        <v>-154300</v>
       </c>
       <c r="F96" s="3">
-        <v>-160900</v>
+        <v>-151800</v>
       </c>
       <c r="G96" s="3">
-        <v>-175400</v>
+        <v>-160400</v>
       </c>
       <c r="H96" s="3">
-        <v>-101200</v>
+        <v>-174800</v>
       </c>
       <c r="I96" s="3">
-        <v>-96200</v>
+        <v>-100900</v>
       </c>
       <c r="J96" s="3">
+        <v>-95900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-76900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-144800</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>177000</v>
+        <v>1453700</v>
       </c>
       <c r="E100" s="3">
-        <v>-24300</v>
+        <v>78600</v>
       </c>
       <c r="F100" s="3">
-        <v>-245300</v>
+        <v>-24200</v>
       </c>
       <c r="G100" s="3">
-        <v>-167200</v>
+        <v>-244600</v>
       </c>
       <c r="H100" s="3">
-        <v>-331200</v>
+        <v>-166700</v>
       </c>
       <c r="I100" s="3">
-        <v>-655100</v>
+        <v>-330200</v>
       </c>
       <c r="J100" s="3">
+        <v>-653100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-388200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1200</v>
+        <v>-4700</v>
       </c>
       <c r="E101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2800</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>125000</v>
+        <v>148100</v>
       </c>
       <c r="E102" s="3">
-        <v>82600</v>
+        <v>124400</v>
       </c>
       <c r="F102" s="3">
+        <v>82400</v>
+      </c>
+      <c r="G102" s="3">
         <v>-5800</v>
       </c>
-      <c r="G102" s="3">
-        <v>-38400</v>
-      </c>
       <c r="H102" s="3">
-        <v>-129000</v>
+        <v>-38200</v>
       </c>
       <c r="I102" s="3">
-        <v>118500</v>
+        <v>-128600</v>
       </c>
       <c r="J102" s="3">
+        <v>118200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-74800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>63100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7191600</v>
+        <v>7443200</v>
       </c>
       <c r="E8" s="3">
-        <v>6256100</v>
+        <v>6475000</v>
       </c>
       <c r="F8" s="3">
-        <v>4211100</v>
+        <v>4358500</v>
       </c>
       <c r="G8" s="3">
-        <v>4015100</v>
+        <v>4155500</v>
       </c>
       <c r="H8" s="3">
-        <v>3911400</v>
+        <v>4048200</v>
       </c>
       <c r="I8" s="3">
-        <v>3910200</v>
+        <v>4047000</v>
       </c>
       <c r="J8" s="3">
-        <v>3931000</v>
+        <v>4068500</v>
       </c>
       <c r="K8" s="3">
         <v>3834800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1812000</v>
+        <v>1875400</v>
       </c>
       <c r="E9" s="3">
-        <v>1614100</v>
+        <v>1670600</v>
       </c>
       <c r="F9" s="3">
-        <v>1136300</v>
+        <v>1176000</v>
       </c>
       <c r="G9" s="3">
-        <v>1055400</v>
+        <v>1092300</v>
       </c>
       <c r="H9" s="3">
-        <v>1031800</v>
+        <v>1067900</v>
       </c>
       <c r="I9" s="3">
-        <v>1002900</v>
+        <v>1038000</v>
       </c>
       <c r="J9" s="3">
-        <v>985700</v>
+        <v>1020200</v>
       </c>
       <c r="K9" s="3">
         <v>905900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5379600</v>
+        <v>5567800</v>
       </c>
       <c r="E10" s="3">
-        <v>4642000</v>
+        <v>4804400</v>
       </c>
       <c r="F10" s="3">
-        <v>3074900</v>
+        <v>3182400</v>
       </c>
       <c r="G10" s="3">
-        <v>2959700</v>
+        <v>3063300</v>
       </c>
       <c r="H10" s="3">
-        <v>2879600</v>
+        <v>2980300</v>
       </c>
       <c r="I10" s="3">
-        <v>2907300</v>
+        <v>3009000</v>
       </c>
       <c r="J10" s="3">
-        <v>2945300</v>
+        <v>3048300</v>
       </c>
       <c r="K10" s="3">
         <v>2928900</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>87600</v>
+        <v>90700</v>
       </c>
       <c r="E14" s="3">
-        <v>72300</v>
+        <v>74900</v>
       </c>
       <c r="F14" s="3">
-        <v>41700</v>
+        <v>43100</v>
       </c>
       <c r="G14" s="3">
-        <v>-14000</v>
+        <v>-14500</v>
       </c>
       <c r="H14" s="3">
         <v>-900</v>
       </c>
       <c r="I14" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J14" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1574100</v>
+        <v>1629100</v>
       </c>
       <c r="E15" s="3">
-        <v>1368400</v>
+        <v>1416300</v>
       </c>
       <c r="F15" s="3">
-        <v>793300</v>
+        <v>821100</v>
       </c>
       <c r="G15" s="3">
-        <v>744700</v>
+        <v>770700</v>
       </c>
       <c r="H15" s="3">
-        <v>731000</v>
+        <v>756600</v>
       </c>
       <c r="I15" s="3">
-        <v>796900</v>
+        <v>824800</v>
       </c>
       <c r="J15" s="3">
-        <v>797200</v>
+        <v>825100</v>
       </c>
       <c r="K15" s="3">
         <v>777100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6286000</v>
+        <v>6505900</v>
       </c>
       <c r="E17" s="3">
-        <v>5456100</v>
+        <v>5647000</v>
       </c>
       <c r="F17" s="3">
-        <v>3741900</v>
+        <v>3872800</v>
       </c>
       <c r="G17" s="3">
-        <v>3512800</v>
+        <v>3635600</v>
       </c>
       <c r="H17" s="3">
-        <v>3390100</v>
+        <v>3508600</v>
       </c>
       <c r="I17" s="3">
-        <v>3406600</v>
+        <v>3525800</v>
       </c>
       <c r="J17" s="3">
-        <v>3402900</v>
+        <v>3522000</v>
       </c>
       <c r="K17" s="3">
         <v>3238200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>905600</v>
+        <v>937300</v>
       </c>
       <c r="E18" s="3">
-        <v>800000</v>
+        <v>828000</v>
       </c>
       <c r="F18" s="3">
-        <v>469300</v>
+        <v>485700</v>
       </c>
       <c r="G18" s="3">
-        <v>502300</v>
+        <v>519900</v>
       </c>
       <c r="H18" s="3">
-        <v>521400</v>
+        <v>539600</v>
       </c>
       <c r="I18" s="3">
-        <v>503600</v>
+        <v>521200</v>
       </c>
       <c r="J18" s="3">
-        <v>528100</v>
+        <v>546600</v>
       </c>
       <c r="K18" s="3">
         <v>596600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F20" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="G20" s="3">
-        <v>-27100</v>
+        <v>-28000</v>
       </c>
       <c r="H20" s="3">
-        <v>-74400</v>
+        <v>-77000</v>
       </c>
       <c r="I20" s="3">
-        <v>-68900</v>
+        <v>-71300</v>
       </c>
       <c r="J20" s="3">
-        <v>-56400</v>
+        <v>-58300</v>
       </c>
       <c r="K20" s="3">
         <v>-134200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2465200</v>
+        <v>2562500</v>
       </c>
       <c r="E21" s="3">
-        <v>2158800</v>
+        <v>2244000</v>
       </c>
       <c r="F21" s="3">
-        <v>1265100</v>
+        <v>1315000</v>
       </c>
       <c r="G21" s="3">
-        <v>1215400</v>
+        <v>1263200</v>
       </c>
       <c r="H21" s="3">
-        <v>1173500</v>
+        <v>1219700</v>
       </c>
       <c r="I21" s="3">
-        <v>1226800</v>
+        <v>1275300</v>
       </c>
       <c r="J21" s="3">
-        <v>1264200</v>
+        <v>1314100</v>
       </c>
       <c r="K21" s="3">
         <v>1367500</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>453500</v>
+        <v>469300</v>
       </c>
       <c r="E22" s="3">
-        <v>438500</v>
+        <v>453900</v>
       </c>
       <c r="F22" s="3">
-        <v>221000</v>
+        <v>228700</v>
       </c>
       <c r="G22" s="3">
-        <v>226600</v>
+        <v>234600</v>
       </c>
       <c r="H22" s="3">
-        <v>224200</v>
+        <v>232100</v>
       </c>
       <c r="I22" s="3">
-        <v>213500</v>
+        <v>220900</v>
       </c>
       <c r="J22" s="3">
-        <v>203600</v>
+        <v>210700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>447200</v>
+        <v>462800</v>
       </c>
       <c r="E23" s="3">
-        <v>360200</v>
+        <v>372800</v>
       </c>
       <c r="F23" s="3">
-        <v>255600</v>
+        <v>264600</v>
       </c>
       <c r="G23" s="3">
-        <v>248600</v>
+        <v>257300</v>
       </c>
       <c r="H23" s="3">
-        <v>222800</v>
+        <v>230600</v>
       </c>
       <c r="I23" s="3">
-        <v>221300</v>
+        <v>229000</v>
       </c>
       <c r="J23" s="3">
-        <v>268200</v>
+        <v>277500</v>
       </c>
       <c r="K23" s="3">
         <v>462400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>113900</v>
+        <v>117800</v>
       </c>
       <c r="E24" s="3">
-        <v>72500</v>
+        <v>75000</v>
       </c>
       <c r="F24" s="3">
-        <v>58200</v>
+        <v>60300</v>
       </c>
       <c r="G24" s="3">
+        <v>66100</v>
+      </c>
+      <c r="H24" s="3">
         <v>63900</v>
       </c>
-      <c r="H24" s="3">
-        <v>61700</v>
-      </c>
       <c r="I24" s="3">
-        <v>32000</v>
+        <v>33200</v>
       </c>
       <c r="J24" s="3">
-        <v>94800</v>
+        <v>98100</v>
       </c>
       <c r="K24" s="3">
         <v>110400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>333300</v>
+        <v>345000</v>
       </c>
       <c r="E26" s="3">
-        <v>287700</v>
+        <v>297800</v>
       </c>
       <c r="F26" s="3">
-        <v>197400</v>
+        <v>204300</v>
       </c>
       <c r="G26" s="3">
-        <v>184800</v>
+        <v>191200</v>
       </c>
       <c r="H26" s="3">
-        <v>161100</v>
+        <v>166700</v>
       </c>
       <c r="I26" s="3">
-        <v>189200</v>
+        <v>195900</v>
       </c>
       <c r="J26" s="3">
-        <v>173300</v>
+        <v>179400</v>
       </c>
       <c r="K26" s="3">
         <v>352000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>306500</v>
+        <v>317300</v>
       </c>
       <c r="E27" s="3">
-        <v>265400</v>
+        <v>274700</v>
       </c>
       <c r="F27" s="3">
-        <v>186100</v>
+        <v>192600</v>
       </c>
       <c r="G27" s="3">
-        <v>180100</v>
+        <v>186400</v>
       </c>
       <c r="H27" s="3">
-        <v>154500</v>
+        <v>159900</v>
       </c>
       <c r="I27" s="3">
-        <v>183400</v>
+        <v>189800</v>
       </c>
       <c r="J27" s="3">
-        <v>169600</v>
+        <v>175500</v>
       </c>
       <c r="K27" s="3">
         <v>348600</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>323800</v>
+        <v>335100</v>
       </c>
       <c r="K29" s="3">
         <v>-33700</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E32" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F32" s="3">
-        <v>-7300</v>
+        <v>-7600</v>
       </c>
       <c r="G32" s="3">
-        <v>27100</v>
+        <v>28000</v>
       </c>
       <c r="H32" s="3">
-        <v>74400</v>
+        <v>77000</v>
       </c>
       <c r="I32" s="3">
-        <v>68900</v>
+        <v>71300</v>
       </c>
       <c r="J32" s="3">
-        <v>56400</v>
+        <v>58300</v>
       </c>
       <c r="K32" s="3">
         <v>134200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>306500</v>
+        <v>317300</v>
       </c>
       <c r="E33" s="3">
-        <v>265400</v>
+        <v>274700</v>
       </c>
       <c r="F33" s="3">
-        <v>186100</v>
+        <v>192600</v>
       </c>
       <c r="G33" s="3">
-        <v>180100</v>
+        <v>186400</v>
       </c>
       <c r="H33" s="3">
-        <v>154500</v>
+        <v>159900</v>
       </c>
       <c r="I33" s="3">
-        <v>183400</v>
+        <v>189800</v>
       </c>
       <c r="J33" s="3">
-        <v>493400</v>
+        <v>510600</v>
       </c>
       <c r="K33" s="3">
         <v>314900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>306500</v>
+        <v>317300</v>
       </c>
       <c r="E35" s="3">
-        <v>265400</v>
+        <v>274700</v>
       </c>
       <c r="F35" s="3">
-        <v>186100</v>
+        <v>192600</v>
       </c>
       <c r="G35" s="3">
-        <v>180100</v>
+        <v>186400</v>
       </c>
       <c r="H35" s="3">
-        <v>154500</v>
+        <v>159900</v>
       </c>
       <c r="I35" s="3">
-        <v>183400</v>
+        <v>189800</v>
       </c>
       <c r="J35" s="3">
-        <v>493400</v>
+        <v>510600</v>
       </c>
       <c r="K35" s="3">
         <v>314900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>410500</v>
+        <v>424800</v>
       </c>
       <c r="E41" s="3">
-        <v>524800</v>
+        <v>543200</v>
       </c>
       <c r="F41" s="3">
-        <v>132600</v>
+        <v>137200</v>
       </c>
       <c r="G41" s="3">
-        <v>50200</v>
+        <v>51900</v>
       </c>
       <c r="H41" s="3">
-        <v>56000</v>
+        <v>57900</v>
       </c>
       <c r="I41" s="3">
-        <v>94200</v>
+        <v>97500</v>
       </c>
       <c r="J41" s="3">
-        <v>222800</v>
+        <v>230600</v>
       </c>
       <c r="K41" s="3">
         <v>105000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>151000</v>
+        <v>156300</v>
       </c>
       <c r="E42" s="3">
-        <v>116900</v>
+        <v>120900</v>
       </c>
       <c r="F42" s="3">
-        <v>98500</v>
+        <v>101900</v>
       </c>
       <c r="G42" s="3">
-        <v>78400</v>
+        <v>81200</v>
       </c>
       <c r="H42" s="3">
-        <v>70600</v>
+        <v>73000</v>
       </c>
       <c r="I42" s="3">
-        <v>75200</v>
+        <v>77800</v>
       </c>
       <c r="J42" s="3">
-        <v>25400</v>
+        <v>26300</v>
       </c>
       <c r="K42" s="3">
         <v>25900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>756600</v>
+        <v>783100</v>
       </c>
       <c r="E43" s="3">
-        <v>717900</v>
+        <v>743000</v>
       </c>
       <c r="F43" s="3">
-        <v>706200</v>
+        <v>730900</v>
       </c>
       <c r="G43" s="3">
-        <v>628700</v>
+        <v>650700</v>
       </c>
       <c r="H43" s="3">
-        <v>603400</v>
+        <v>624500</v>
       </c>
       <c r="I43" s="3">
-        <v>567400</v>
+        <v>587300</v>
       </c>
       <c r="J43" s="3">
-        <v>592500</v>
+        <v>613200</v>
       </c>
       <c r="K43" s="3">
         <v>525300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>141900</v>
+        <v>146900</v>
       </c>
       <c r="E44" s="3">
-        <v>257600</v>
+        <v>266600</v>
       </c>
       <c r="F44" s="3">
-        <v>100300</v>
+        <v>103900</v>
       </c>
       <c r="G44" s="3">
-        <v>81100</v>
+        <v>84000</v>
       </c>
       <c r="H44" s="3">
-        <v>84700</v>
+        <v>87700</v>
       </c>
       <c r="I44" s="3">
-        <v>53400</v>
+        <v>55300</v>
       </c>
       <c r="J44" s="3">
-        <v>63500</v>
+        <v>65700</v>
       </c>
       <c r="K44" s="3">
         <v>52000</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>250500</v>
+        <v>259300</v>
       </c>
       <c r="E45" s="3">
-        <v>206800</v>
+        <v>214100</v>
       </c>
       <c r="F45" s="3">
-        <v>115400</v>
+        <v>119400</v>
       </c>
       <c r="G45" s="3">
-        <v>95100</v>
+        <v>98400</v>
       </c>
       <c r="H45" s="3">
-        <v>82500</v>
+        <v>85400</v>
       </c>
       <c r="I45" s="3">
-        <v>83500</v>
+        <v>86400</v>
       </c>
       <c r="J45" s="3">
-        <v>99800</v>
+        <v>103300</v>
       </c>
       <c r="K45" s="3">
         <v>118900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1710600</v>
+        <v>1770400</v>
       </c>
       <c r="E46" s="3">
-        <v>1432800</v>
+        <v>1482900</v>
       </c>
       <c r="F46" s="3">
-        <v>1152900</v>
+        <v>1193200</v>
       </c>
       <c r="G46" s="3">
-        <v>933500</v>
+        <v>966200</v>
       </c>
       <c r="H46" s="3">
-        <v>897200</v>
+        <v>928600</v>
       </c>
       <c r="I46" s="3">
-        <v>873800</v>
+        <v>904300</v>
       </c>
       <c r="J46" s="3">
-        <v>1004100</v>
+        <v>1039200</v>
       </c>
       <c r="K46" s="3">
         <v>827000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>464500</v>
+        <v>480800</v>
       </c>
       <c r="E47" s="3">
-        <v>430200</v>
+        <v>445300</v>
       </c>
       <c r="F47" s="3">
-        <v>1211100</v>
+        <v>1253500</v>
       </c>
       <c r="G47" s="3">
-        <v>997200</v>
+        <v>1032100</v>
       </c>
       <c r="H47" s="3">
-        <v>909300</v>
+        <v>941100</v>
       </c>
       <c r="I47" s="3">
-        <v>987500</v>
+        <v>1022000</v>
       </c>
       <c r="J47" s="3">
-        <v>988300</v>
+        <v>1022900</v>
       </c>
       <c r="K47" s="3">
         <v>19000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8824800</v>
+        <v>9133500</v>
       </c>
       <c r="E48" s="3">
-        <v>15357800</v>
+        <v>15895100</v>
       </c>
       <c r="F48" s="3">
-        <v>5475900</v>
+        <v>5667500</v>
       </c>
       <c r="G48" s="3">
-        <v>4583900</v>
+        <v>4744300</v>
       </c>
       <c r="H48" s="3">
-        <v>4521600</v>
+        <v>4679800</v>
       </c>
       <c r="I48" s="3">
-        <v>4455300</v>
+        <v>4611100</v>
       </c>
       <c r="J48" s="3">
-        <v>4319600</v>
+        <v>4470700</v>
       </c>
       <c r="K48" s="3">
         <v>4420900</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1858400</v>
+        <v>1923400</v>
       </c>
       <c r="E49" s="3">
-        <v>3329600</v>
+        <v>3446100</v>
       </c>
       <c r="F49" s="3">
-        <v>869000</v>
+        <v>899400</v>
       </c>
       <c r="G49" s="3">
-        <v>786600</v>
+        <v>814200</v>
       </c>
       <c r="H49" s="3">
-        <v>804900</v>
+        <v>833100</v>
       </c>
       <c r="I49" s="3">
-        <v>798900</v>
+        <v>826900</v>
       </c>
       <c r="J49" s="3">
-        <v>768200</v>
+        <v>795100</v>
       </c>
       <c r="K49" s="3">
         <v>848700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>288600</v>
+        <v>298700</v>
       </c>
       <c r="E52" s="3">
-        <v>267300</v>
+        <v>276600</v>
       </c>
       <c r="F52" s="3">
-        <v>72700</v>
+        <v>75300</v>
       </c>
       <c r="G52" s="3">
-        <v>78800</v>
+        <v>81600</v>
       </c>
       <c r="H52" s="3">
-        <v>174200</v>
+        <v>180300</v>
       </c>
       <c r="I52" s="3">
-        <v>134400</v>
+        <v>139100</v>
       </c>
       <c r="J52" s="3">
-        <v>134300</v>
+        <v>139000</v>
       </c>
       <c r="K52" s="3">
         <v>1283600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13146900</v>
+        <v>13606700</v>
       </c>
       <c r="E54" s="3">
-        <v>11623200</v>
+        <v>12029800</v>
       </c>
       <c r="F54" s="3">
-        <v>8502800</v>
+        <v>8800300</v>
       </c>
       <c r="G54" s="3">
-        <v>7367000</v>
+        <v>7624700</v>
       </c>
       <c r="H54" s="3">
-        <v>7307200</v>
+        <v>7562800</v>
       </c>
       <c r="I54" s="3">
-        <v>7249900</v>
+        <v>7503500</v>
       </c>
       <c r="J54" s="3">
-        <v>7214500</v>
+        <v>7466900</v>
       </c>
       <c r="K54" s="3">
         <v>7399200</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>925100</v>
+        <v>957500</v>
       </c>
       <c r="E57" s="3">
-        <v>2041300</v>
+        <v>2112700</v>
       </c>
       <c r="F57" s="3">
-        <v>793900</v>
+        <v>821700</v>
       </c>
       <c r="G57" s="3">
-        <v>512800</v>
+        <v>530700</v>
       </c>
       <c r="H57" s="3">
-        <v>587200</v>
+        <v>607800</v>
       </c>
       <c r="I57" s="3">
-        <v>564500</v>
+        <v>584200</v>
       </c>
       <c r="J57" s="3">
-        <v>572600</v>
+        <v>592600</v>
       </c>
       <c r="K57" s="3">
         <v>971200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>656600</v>
+        <v>679600</v>
       </c>
       <c r="E58" s="3">
-        <v>2432300</v>
+        <v>2517400</v>
       </c>
       <c r="F58" s="3">
-        <v>456300</v>
+        <v>472300</v>
       </c>
       <c r="G58" s="3">
-        <v>325000</v>
+        <v>336300</v>
       </c>
       <c r="H58" s="3">
-        <v>803200</v>
+        <v>831300</v>
       </c>
       <c r="I58" s="3">
-        <v>766700</v>
+        <v>793500</v>
       </c>
       <c r="J58" s="3">
-        <v>685700</v>
+        <v>709700</v>
       </c>
       <c r="K58" s="3">
         <v>438000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1155300</v>
+        <v>1195700</v>
       </c>
       <c r="E59" s="3">
-        <v>1532000</v>
+        <v>1585600</v>
       </c>
       <c r="F59" s="3">
-        <v>554900</v>
+        <v>574300</v>
       </c>
       <c r="G59" s="3">
-        <v>413800</v>
+        <v>428300</v>
       </c>
       <c r="H59" s="3">
-        <v>372500</v>
+        <v>385500</v>
       </c>
       <c r="I59" s="3">
-        <v>387400</v>
+        <v>400900</v>
       </c>
       <c r="J59" s="3">
-        <v>362400</v>
+        <v>375100</v>
       </c>
       <c r="K59" s="3">
         <v>124200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2737100</v>
+        <v>2832800</v>
       </c>
       <c r="E60" s="3">
-        <v>3134400</v>
+        <v>3244000</v>
       </c>
       <c r="F60" s="3">
-        <v>1805100</v>
+        <v>1868200</v>
       </c>
       <c r="G60" s="3">
-        <v>1251600</v>
+        <v>1295300</v>
       </c>
       <c r="H60" s="3">
-        <v>1762900</v>
+        <v>1824600</v>
       </c>
       <c r="I60" s="3">
-        <v>1718600</v>
+        <v>1778700</v>
       </c>
       <c r="J60" s="3">
-        <v>1620700</v>
+        <v>1677400</v>
       </c>
       <c r="K60" s="3">
         <v>1533500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6033200</v>
+        <v>6244200</v>
       </c>
       <c r="E61" s="3">
-        <v>4520000</v>
+        <v>4678100</v>
       </c>
       <c r="F61" s="3">
-        <v>2514600</v>
+        <v>2602600</v>
       </c>
       <c r="G61" s="3">
-        <v>2191600</v>
+        <v>2268200</v>
       </c>
       <c r="H61" s="3">
-        <v>1637300</v>
+        <v>1694600</v>
       </c>
       <c r="I61" s="3">
-        <v>1665100</v>
+        <v>1723300</v>
       </c>
       <c r="J61" s="3">
-        <v>1813000</v>
+        <v>1876400</v>
       </c>
       <c r="K61" s="3">
         <v>2434900</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1514200</v>
+        <v>1567100</v>
       </c>
       <c r="E62" s="3">
-        <v>1633900</v>
+        <v>1691000</v>
       </c>
       <c r="F62" s="3">
-        <v>883400</v>
+        <v>914300</v>
       </c>
       <c r="G62" s="3">
-        <v>644700</v>
+        <v>667300</v>
       </c>
       <c r="H62" s="3">
-        <v>637500</v>
+        <v>659800</v>
       </c>
       <c r="I62" s="3">
-        <v>583200</v>
+        <v>603600</v>
       </c>
       <c r="J62" s="3">
-        <v>556100</v>
+        <v>575600</v>
       </c>
       <c r="K62" s="3">
         <v>563300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10778100</v>
+        <v>11155200</v>
       </c>
       <c r="E66" s="3">
-        <v>8868500</v>
+        <v>9178700</v>
       </c>
       <c r="F66" s="3">
-        <v>5254500</v>
+        <v>5438300</v>
       </c>
       <c r="G66" s="3">
-        <v>4130500</v>
+        <v>4275000</v>
       </c>
       <c r="H66" s="3">
-        <v>4094500</v>
+        <v>4237700</v>
       </c>
       <c r="I66" s="3">
-        <v>4018300</v>
+        <v>4158800</v>
       </c>
       <c r="J66" s="3">
-        <v>4043400</v>
+        <v>4184800</v>
       </c>
       <c r="K66" s="3">
         <v>4808700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2556500</v>
+        <v>2645900</v>
       </c>
       <c r="E72" s="3">
-        <v>3455600</v>
+        <v>3576500</v>
       </c>
       <c r="F72" s="3">
-        <v>4040100</v>
+        <v>4181500</v>
       </c>
       <c r="G72" s="3">
-        <v>4096100</v>
+        <v>4239400</v>
       </c>
       <c r="H72" s="3">
-        <v>4091800</v>
+        <v>4235000</v>
       </c>
       <c r="I72" s="3">
-        <v>4132200</v>
+        <v>4276800</v>
       </c>
       <c r="J72" s="3">
-        <v>4237700</v>
+        <v>4385900</v>
       </c>
       <c r="K72" s="3">
         <v>3468500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2368700</v>
+        <v>2451600</v>
       </c>
       <c r="E76" s="3">
-        <v>2754700</v>
+        <v>2851100</v>
       </c>
       <c r="F76" s="3">
-        <v>3248400</v>
+        <v>3362000</v>
       </c>
       <c r="G76" s="3">
-        <v>3236500</v>
+        <v>3349700</v>
       </c>
       <c r="H76" s="3">
-        <v>3212800</v>
+        <v>3325100</v>
       </c>
       <c r="I76" s="3">
-        <v>3231600</v>
+        <v>3344600</v>
       </c>
       <c r="J76" s="3">
-        <v>3171100</v>
+        <v>3282100</v>
       </c>
       <c r="K76" s="3">
         <v>2590500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>306500</v>
+        <v>317300</v>
       </c>
       <c r="E81" s="3">
-        <v>265400</v>
+        <v>274700</v>
       </c>
       <c r="F81" s="3">
-        <v>186100</v>
+        <v>192600</v>
       </c>
       <c r="G81" s="3">
-        <v>180100</v>
+        <v>186400</v>
       </c>
       <c r="H81" s="3">
-        <v>154500</v>
+        <v>159900</v>
       </c>
       <c r="I81" s="3">
-        <v>183400</v>
+        <v>189800</v>
       </c>
       <c r="J81" s="3">
-        <v>493400</v>
+        <v>510600</v>
       </c>
       <c r="K81" s="3">
         <v>314900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1574100</v>
+        <v>1629100</v>
       </c>
       <c r="E83" s="3">
-        <v>1368400</v>
+        <v>1416300</v>
       </c>
       <c r="F83" s="3">
-        <v>793300</v>
+        <v>821100</v>
       </c>
       <c r="G83" s="3">
-        <v>744700</v>
+        <v>770700</v>
       </c>
       <c r="H83" s="3">
-        <v>731000</v>
+        <v>756600</v>
       </c>
       <c r="I83" s="3">
-        <v>796900</v>
+        <v>824800</v>
       </c>
       <c r="J83" s="3">
-        <v>797400</v>
+        <v>825200</v>
       </c>
       <c r="K83" s="3">
         <v>902400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1798800</v>
+        <v>1861700</v>
       </c>
       <c r="E89" s="3">
-        <v>1853300</v>
+        <v>1918200</v>
       </c>
       <c r="F89" s="3">
-        <v>1015800</v>
+        <v>1051300</v>
       </c>
       <c r="G89" s="3">
-        <v>943800</v>
+        <v>976800</v>
       </c>
       <c r="H89" s="3">
-        <v>883400</v>
+        <v>914300</v>
       </c>
       <c r="I89" s="3">
-        <v>1063200</v>
+        <v>1100400</v>
       </c>
       <c r="J89" s="3">
-        <v>1046000</v>
+        <v>1082600</v>
       </c>
       <c r="K89" s="3">
         <v>1130300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1788200</v>
+        <v>-1850800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1767100</v>
+        <v>-1829000</v>
       </c>
       <c r="F91" s="3">
-        <v>-962300</v>
+        <v>-996000</v>
       </c>
       <c r="G91" s="3">
-        <v>-798900</v>
+        <v>-826800</v>
       </c>
       <c r="H91" s="3">
-        <v>-813400</v>
+        <v>-841900</v>
       </c>
       <c r="I91" s="3">
-        <v>-824800</v>
+        <v>-853700</v>
       </c>
       <c r="J91" s="3">
-        <v>-758300</v>
+        <v>-784800</v>
       </c>
       <c r="K91" s="3">
         <v>-903300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3099800</v>
+        <v>-3208200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1806100</v>
+        <v>-1869300</v>
       </c>
       <c r="F94" s="3">
-        <v>-909700</v>
+        <v>-941600</v>
       </c>
       <c r="G94" s="3">
-        <v>-703000</v>
+        <v>-727600</v>
       </c>
       <c r="H94" s="3">
-        <v>-748900</v>
+        <v>-775100</v>
       </c>
       <c r="I94" s="3">
-        <v>-862200</v>
+        <v>-892400</v>
       </c>
       <c r="J94" s="3">
-        <v>-277600</v>
+        <v>-287300</v>
       </c>
       <c r="K94" s="3">
         <v>-816800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-219100</v>
+        <v>-226800</v>
       </c>
       <c r="E96" s="3">
-        <v>-154300</v>
+        <v>-159700</v>
       </c>
       <c r="F96" s="3">
-        <v>-151800</v>
+        <v>-157200</v>
       </c>
       <c r="G96" s="3">
-        <v>-160400</v>
+        <v>-166000</v>
       </c>
       <c r="H96" s="3">
-        <v>-174800</v>
+        <v>-180900</v>
       </c>
       <c r="I96" s="3">
-        <v>-100900</v>
+        <v>-104500</v>
       </c>
       <c r="J96" s="3">
-        <v>-95900</v>
+        <v>-99300</v>
       </c>
       <c r="K96" s="3">
         <v>-76900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1453700</v>
+        <v>1504600</v>
       </c>
       <c r="E100" s="3">
-        <v>78600</v>
+        <v>81400</v>
       </c>
       <c r="F100" s="3">
-        <v>-24200</v>
+        <v>-25100</v>
       </c>
       <c r="G100" s="3">
-        <v>-244600</v>
+        <v>-253200</v>
       </c>
       <c r="H100" s="3">
-        <v>-166700</v>
+        <v>-172600</v>
       </c>
       <c r="I100" s="3">
-        <v>-330200</v>
+        <v>-341800</v>
       </c>
       <c r="J100" s="3">
-        <v>-653100</v>
+        <v>-675900</v>
       </c>
       <c r="K100" s="3">
         <v>-388200</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="E101" s="3">
         <v>-1400</v>
@@ -3472,16 +3472,16 @@
         <v>600</v>
       </c>
       <c r="G101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H101" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="I101" s="3">
         <v>700</v>
       </c>
       <c r="J101" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>148100</v>
+        <v>153200</v>
       </c>
       <c r="E102" s="3">
-        <v>124400</v>
+        <v>128800</v>
       </c>
       <c r="F102" s="3">
-        <v>82400</v>
+        <v>85300</v>
       </c>
       <c r="G102" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="H102" s="3">
-        <v>-38200</v>
+        <v>-39600</v>
       </c>
       <c r="I102" s="3">
-        <v>-128600</v>
+        <v>-133100</v>
       </c>
       <c r="J102" s="3">
-        <v>118200</v>
+        <v>122300</v>
       </c>
       <c r="K102" s="3">
         <v>-74800</v>

--- a/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7443200</v>
+        <v>7393900</v>
       </c>
       <c r="E8" s="3">
-        <v>6475000</v>
+        <v>6432200</v>
       </c>
       <c r="F8" s="3">
-        <v>4358500</v>
+        <v>4329600</v>
       </c>
       <c r="G8" s="3">
-        <v>4155500</v>
+        <v>4128000</v>
       </c>
       <c r="H8" s="3">
-        <v>4048200</v>
+        <v>4021500</v>
       </c>
       <c r="I8" s="3">
-        <v>4047000</v>
+        <v>4020200</v>
       </c>
       <c r="J8" s="3">
-        <v>4068500</v>
+        <v>4041600</v>
       </c>
       <c r="K8" s="3">
         <v>3834800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1875400</v>
+        <v>1863000</v>
       </c>
       <c r="E9" s="3">
-        <v>1670600</v>
+        <v>1659600</v>
       </c>
       <c r="F9" s="3">
-        <v>1176000</v>
+        <v>1168200</v>
       </c>
       <c r="G9" s="3">
-        <v>1092300</v>
+        <v>1085000</v>
       </c>
       <c r="H9" s="3">
-        <v>1067900</v>
+        <v>1060800</v>
       </c>
       <c r="I9" s="3">
-        <v>1038000</v>
+        <v>1031100</v>
       </c>
       <c r="J9" s="3">
-        <v>1020200</v>
+        <v>1013500</v>
       </c>
       <c r="K9" s="3">
         <v>905900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5567800</v>
+        <v>5530900</v>
       </c>
       <c r="E10" s="3">
-        <v>4804400</v>
+        <v>4772600</v>
       </c>
       <c r="F10" s="3">
-        <v>3182400</v>
+        <v>3161400</v>
       </c>
       <c r="G10" s="3">
-        <v>3063300</v>
+        <v>3043000</v>
       </c>
       <c r="H10" s="3">
-        <v>2980300</v>
+        <v>2960600</v>
       </c>
       <c r="I10" s="3">
-        <v>3009000</v>
+        <v>2989200</v>
       </c>
       <c r="J10" s="3">
-        <v>3048300</v>
+        <v>3028200</v>
       </c>
       <c r="K10" s="3">
         <v>2928900</v>
@@ -897,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>90700</v>
+        <v>90100</v>
       </c>
       <c r="E14" s="3">
-        <v>74900</v>
+        <v>74400</v>
       </c>
       <c r="F14" s="3">
-        <v>43100</v>
+        <v>42800</v>
       </c>
       <c r="G14" s="3">
-        <v>-14500</v>
+        <v>-14400</v>
       </c>
       <c r="H14" s="3">
         <v>-900</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1629100</v>
+        <v>1618400</v>
       </c>
       <c r="E15" s="3">
-        <v>1416300</v>
+        <v>1406900</v>
       </c>
       <c r="F15" s="3">
-        <v>821100</v>
+        <v>815600</v>
       </c>
       <c r="G15" s="3">
-        <v>770700</v>
+        <v>765600</v>
       </c>
       <c r="H15" s="3">
-        <v>756600</v>
+        <v>751600</v>
       </c>
       <c r="I15" s="3">
-        <v>824800</v>
+        <v>819300</v>
       </c>
       <c r="J15" s="3">
-        <v>825100</v>
+        <v>819600</v>
       </c>
       <c r="K15" s="3">
         <v>777100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6505900</v>
+        <v>6462800</v>
       </c>
       <c r="E17" s="3">
-        <v>5647000</v>
+        <v>5609600</v>
       </c>
       <c r="F17" s="3">
-        <v>3872800</v>
+        <v>3847100</v>
       </c>
       <c r="G17" s="3">
-        <v>3635600</v>
+        <v>3611600</v>
       </c>
       <c r="H17" s="3">
-        <v>3508600</v>
+        <v>3485400</v>
       </c>
       <c r="I17" s="3">
-        <v>3525800</v>
+        <v>3502500</v>
       </c>
       <c r="J17" s="3">
-        <v>3522000</v>
+        <v>3498700</v>
       </c>
       <c r="K17" s="3">
         <v>3238200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>937300</v>
+        <v>931100</v>
       </c>
       <c r="E18" s="3">
-        <v>828000</v>
+        <v>822500</v>
       </c>
       <c r="F18" s="3">
-        <v>485700</v>
+        <v>482500</v>
       </c>
       <c r="G18" s="3">
-        <v>519900</v>
+        <v>516500</v>
       </c>
       <c r="H18" s="3">
-        <v>539600</v>
+        <v>536000</v>
       </c>
       <c r="I18" s="3">
-        <v>521200</v>
+        <v>517800</v>
       </c>
       <c r="J18" s="3">
-        <v>546600</v>
+        <v>543000</v>
       </c>
       <c r="K18" s="3">
         <v>596600</v>
@@ -1062,19 +1062,19 @@
         <v>-1400</v>
       </c>
       <c r="F20" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="G20" s="3">
-        <v>-28000</v>
+        <v>-27800</v>
       </c>
       <c r="H20" s="3">
-        <v>-77000</v>
+        <v>-76500</v>
       </c>
       <c r="I20" s="3">
-        <v>-71300</v>
+        <v>-70800</v>
       </c>
       <c r="J20" s="3">
-        <v>-58300</v>
+        <v>-58000</v>
       </c>
       <c r="K20" s="3">
         <v>-134200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2562500</v>
+        <v>2555100</v>
       </c>
       <c r="E21" s="3">
-        <v>2244000</v>
+        <v>2237500</v>
       </c>
       <c r="F21" s="3">
-        <v>1315000</v>
+        <v>1311100</v>
       </c>
       <c r="G21" s="3">
-        <v>1263200</v>
+        <v>1259300</v>
       </c>
       <c r="H21" s="3">
-        <v>1219700</v>
+        <v>1216100</v>
       </c>
       <c r="I21" s="3">
-        <v>1275300</v>
+        <v>1271700</v>
       </c>
       <c r="J21" s="3">
-        <v>1314100</v>
+        <v>1310200</v>
       </c>
       <c r="K21" s="3">
         <v>1367500</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>469300</v>
+        <v>466200</v>
       </c>
       <c r="E22" s="3">
-        <v>453900</v>
+        <v>450900</v>
       </c>
       <c r="F22" s="3">
-        <v>228700</v>
+        <v>227200</v>
       </c>
       <c r="G22" s="3">
-        <v>234600</v>
+        <v>233000</v>
       </c>
       <c r="H22" s="3">
-        <v>232100</v>
+        <v>230500</v>
       </c>
       <c r="I22" s="3">
-        <v>220900</v>
+        <v>219500</v>
       </c>
       <c r="J22" s="3">
-        <v>210700</v>
+        <v>209300</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>462800</v>
+        <v>459800</v>
       </c>
       <c r="E23" s="3">
-        <v>372800</v>
+        <v>370300</v>
       </c>
       <c r="F23" s="3">
-        <v>264600</v>
+        <v>262800</v>
       </c>
       <c r="G23" s="3">
-        <v>257300</v>
+        <v>255600</v>
       </c>
       <c r="H23" s="3">
-        <v>230600</v>
+        <v>229000</v>
       </c>
       <c r="I23" s="3">
-        <v>229000</v>
+        <v>227500</v>
       </c>
       <c r="J23" s="3">
-        <v>277500</v>
+        <v>275700</v>
       </c>
       <c r="K23" s="3">
         <v>462400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>117800</v>
+        <v>117100</v>
       </c>
       <c r="E24" s="3">
-        <v>75000</v>
+        <v>74500</v>
       </c>
       <c r="F24" s="3">
-        <v>60300</v>
+        <v>59900</v>
       </c>
       <c r="G24" s="3">
-        <v>66100</v>
+        <v>65700</v>
       </c>
       <c r="H24" s="3">
-        <v>63900</v>
+        <v>63400</v>
       </c>
       <c r="I24" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="J24" s="3">
-        <v>98100</v>
+        <v>97500</v>
       </c>
       <c r="K24" s="3">
         <v>110400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>345000</v>
+        <v>342700</v>
       </c>
       <c r="E26" s="3">
-        <v>297800</v>
+        <v>295800</v>
       </c>
       <c r="F26" s="3">
-        <v>204300</v>
+        <v>203000</v>
       </c>
       <c r="G26" s="3">
-        <v>191200</v>
+        <v>190000</v>
       </c>
       <c r="H26" s="3">
-        <v>166700</v>
+        <v>165600</v>
       </c>
       <c r="I26" s="3">
-        <v>195900</v>
+        <v>194600</v>
       </c>
       <c r="J26" s="3">
-        <v>179400</v>
+        <v>178200</v>
       </c>
       <c r="K26" s="3">
         <v>352000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>317300</v>
+        <v>315200</v>
       </c>
       <c r="E27" s="3">
-        <v>274700</v>
+        <v>272800</v>
       </c>
       <c r="F27" s="3">
-        <v>192600</v>
+        <v>191400</v>
       </c>
       <c r="G27" s="3">
-        <v>186400</v>
+        <v>185200</v>
       </c>
       <c r="H27" s="3">
-        <v>159900</v>
+        <v>158900</v>
       </c>
       <c r="I27" s="3">
-        <v>189800</v>
+        <v>188500</v>
       </c>
       <c r="J27" s="3">
-        <v>175500</v>
+        <v>174300</v>
       </c>
       <c r="K27" s="3">
         <v>348600</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>335100</v>
+        <v>332900</v>
       </c>
       <c r="K29" s="3">
         <v>-33700</v>
@@ -1458,19 +1458,19 @@
         <v>1400</v>
       </c>
       <c r="F32" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="G32" s="3">
-        <v>28000</v>
+        <v>27800</v>
       </c>
       <c r="H32" s="3">
-        <v>77000</v>
+        <v>76500</v>
       </c>
       <c r="I32" s="3">
-        <v>71300</v>
+        <v>70800</v>
       </c>
       <c r="J32" s="3">
-        <v>58300</v>
+        <v>58000</v>
       </c>
       <c r="K32" s="3">
         <v>134200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>317300</v>
+        <v>315200</v>
       </c>
       <c r="E33" s="3">
-        <v>274700</v>
+        <v>272800</v>
       </c>
       <c r="F33" s="3">
-        <v>192600</v>
+        <v>191400</v>
       </c>
       <c r="G33" s="3">
-        <v>186400</v>
+        <v>185200</v>
       </c>
       <c r="H33" s="3">
-        <v>159900</v>
+        <v>158900</v>
       </c>
       <c r="I33" s="3">
-        <v>189800</v>
+        <v>188500</v>
       </c>
       <c r="J33" s="3">
-        <v>510600</v>
+        <v>507300</v>
       </c>
       <c r="K33" s="3">
         <v>314900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>317300</v>
+        <v>315200</v>
       </c>
       <c r="E35" s="3">
-        <v>274700</v>
+        <v>272800</v>
       </c>
       <c r="F35" s="3">
-        <v>192600</v>
+        <v>191400</v>
       </c>
       <c r="G35" s="3">
-        <v>186400</v>
+        <v>185200</v>
       </c>
       <c r="H35" s="3">
-        <v>159900</v>
+        <v>158900</v>
       </c>
       <c r="I35" s="3">
-        <v>189800</v>
+        <v>188500</v>
       </c>
       <c r="J35" s="3">
-        <v>510600</v>
+        <v>507300</v>
       </c>
       <c r="K35" s="3">
         <v>314900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>424800</v>
+        <v>844100</v>
       </c>
       <c r="E41" s="3">
-        <v>543200</v>
+        <v>539600</v>
       </c>
       <c r="F41" s="3">
-        <v>137200</v>
+        <v>136300</v>
       </c>
       <c r="G41" s="3">
-        <v>51900</v>
+        <v>51600</v>
       </c>
       <c r="H41" s="3">
-        <v>57900</v>
+        <v>57600</v>
       </c>
       <c r="I41" s="3">
-        <v>97500</v>
+        <v>96900</v>
       </c>
       <c r="J41" s="3">
-        <v>230600</v>
+        <v>229100</v>
       </c>
       <c r="K41" s="3">
         <v>105000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>156300</v>
+        <v>155200</v>
       </c>
       <c r="E42" s="3">
-        <v>120900</v>
+        <v>120100</v>
       </c>
       <c r="F42" s="3">
-        <v>101900</v>
+        <v>101200</v>
       </c>
       <c r="G42" s="3">
-        <v>81200</v>
+        <v>80600</v>
       </c>
       <c r="H42" s="3">
-        <v>73000</v>
+        <v>72600</v>
       </c>
       <c r="I42" s="3">
-        <v>77800</v>
+        <v>77300</v>
       </c>
       <c r="J42" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="K42" s="3">
         <v>25900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>783100</v>
+        <v>777900</v>
       </c>
       <c r="E43" s="3">
-        <v>743000</v>
+        <v>738100</v>
       </c>
       <c r="F43" s="3">
-        <v>730900</v>
+        <v>726000</v>
       </c>
       <c r="G43" s="3">
-        <v>650700</v>
+        <v>646400</v>
       </c>
       <c r="H43" s="3">
-        <v>624500</v>
+        <v>620400</v>
       </c>
       <c r="I43" s="3">
-        <v>587300</v>
+        <v>583400</v>
       </c>
       <c r="J43" s="3">
-        <v>613200</v>
+        <v>609200</v>
       </c>
       <c r="K43" s="3">
         <v>525300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>146900</v>
+        <v>291800</v>
       </c>
       <c r="E44" s="3">
-        <v>266600</v>
+        <v>264800</v>
       </c>
       <c r="F44" s="3">
-        <v>103900</v>
+        <v>103200</v>
       </c>
       <c r="G44" s="3">
-        <v>84000</v>
+        <v>83400</v>
       </c>
       <c r="H44" s="3">
-        <v>87700</v>
+        <v>87100</v>
       </c>
       <c r="I44" s="3">
-        <v>55300</v>
+        <v>54900</v>
       </c>
       <c r="J44" s="3">
-        <v>65700</v>
+        <v>65300</v>
       </c>
       <c r="K44" s="3">
         <v>52000</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>259300</v>
+        <v>257600</v>
       </c>
       <c r="E45" s="3">
-        <v>214100</v>
+        <v>212600</v>
       </c>
       <c r="F45" s="3">
-        <v>119400</v>
+        <v>118600</v>
       </c>
       <c r="G45" s="3">
-        <v>98400</v>
+        <v>97700</v>
       </c>
       <c r="H45" s="3">
-        <v>85400</v>
+        <v>84800</v>
       </c>
       <c r="I45" s="3">
-        <v>86400</v>
+        <v>85800</v>
       </c>
       <c r="J45" s="3">
-        <v>103300</v>
+        <v>102600</v>
       </c>
       <c r="K45" s="3">
         <v>118900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1770400</v>
+        <v>1758700</v>
       </c>
       <c r="E46" s="3">
-        <v>1482900</v>
+        <v>1473100</v>
       </c>
       <c r="F46" s="3">
-        <v>1193200</v>
+        <v>1185300</v>
       </c>
       <c r="G46" s="3">
-        <v>966200</v>
+        <v>959800</v>
       </c>
       <c r="H46" s="3">
-        <v>928600</v>
+        <v>922400</v>
       </c>
       <c r="I46" s="3">
-        <v>904300</v>
+        <v>898300</v>
       </c>
       <c r="J46" s="3">
-        <v>1039200</v>
+        <v>1032300</v>
       </c>
       <c r="K46" s="3">
         <v>827000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>480800</v>
+        <v>477600</v>
       </c>
       <c r="E47" s="3">
-        <v>445300</v>
+        <v>442300</v>
       </c>
       <c r="F47" s="3">
-        <v>1253500</v>
+        <v>1245200</v>
       </c>
       <c r="G47" s="3">
-        <v>1032100</v>
+        <v>1025200</v>
       </c>
       <c r="H47" s="3">
-        <v>941100</v>
+        <v>934900</v>
       </c>
       <c r="I47" s="3">
-        <v>1022000</v>
+        <v>1015300</v>
       </c>
       <c r="J47" s="3">
-        <v>1022900</v>
+        <v>1016100</v>
       </c>
       <c r="K47" s="3">
         <v>19000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9133500</v>
+        <v>18146300</v>
       </c>
       <c r="E48" s="3">
-        <v>15895100</v>
+        <v>15790000</v>
       </c>
       <c r="F48" s="3">
-        <v>5667500</v>
+        <v>5630000</v>
       </c>
       <c r="G48" s="3">
-        <v>4744300</v>
+        <v>4712900</v>
       </c>
       <c r="H48" s="3">
-        <v>4679800</v>
+        <v>4648800</v>
       </c>
       <c r="I48" s="3">
-        <v>4611100</v>
+        <v>4580700</v>
       </c>
       <c r="J48" s="3">
-        <v>4470700</v>
+        <v>4441200</v>
       </c>
       <c r="K48" s="3">
         <v>4420900</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1923400</v>
+        <v>3821900</v>
       </c>
       <c r="E49" s="3">
-        <v>3446100</v>
+        <v>3423300</v>
       </c>
       <c r="F49" s="3">
-        <v>899400</v>
+        <v>893400</v>
       </c>
       <c r="G49" s="3">
-        <v>814200</v>
+        <v>808800</v>
       </c>
       <c r="H49" s="3">
-        <v>833100</v>
+        <v>827500</v>
       </c>
       <c r="I49" s="3">
-        <v>826900</v>
+        <v>821400</v>
       </c>
       <c r="J49" s="3">
-        <v>795100</v>
+        <v>789800</v>
       </c>
       <c r="K49" s="3">
         <v>848700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>298700</v>
+        <v>296700</v>
       </c>
       <c r="E52" s="3">
-        <v>276600</v>
+        <v>274800</v>
       </c>
       <c r="F52" s="3">
-        <v>75300</v>
+        <v>74800</v>
       </c>
       <c r="G52" s="3">
-        <v>81600</v>
+        <v>81100</v>
       </c>
       <c r="H52" s="3">
-        <v>180300</v>
+        <v>179100</v>
       </c>
       <c r="I52" s="3">
-        <v>139100</v>
+        <v>138200</v>
       </c>
       <c r="J52" s="3">
-        <v>139000</v>
+        <v>138100</v>
       </c>
       <c r="K52" s="3">
         <v>1283600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13606700</v>
+        <v>13517300</v>
       </c>
       <c r="E54" s="3">
-        <v>12029800</v>
+        <v>11950300</v>
       </c>
       <c r="F54" s="3">
-        <v>8800300</v>
+        <v>8742100</v>
       </c>
       <c r="G54" s="3">
-        <v>7624700</v>
+        <v>7574300</v>
       </c>
       <c r="H54" s="3">
-        <v>7562800</v>
+        <v>7512800</v>
       </c>
       <c r="I54" s="3">
-        <v>7503500</v>
+        <v>7453800</v>
       </c>
       <c r="J54" s="3">
-        <v>7466900</v>
+        <v>7417500</v>
       </c>
       <c r="K54" s="3">
         <v>7399200</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>957500</v>
+        <v>2249400</v>
       </c>
       <c r="E57" s="3">
-        <v>2112700</v>
+        <v>2098800</v>
       </c>
       <c r="F57" s="3">
-        <v>821700</v>
+        <v>816200</v>
       </c>
       <c r="G57" s="3">
-        <v>530700</v>
+        <v>527200</v>
       </c>
       <c r="H57" s="3">
-        <v>607800</v>
+        <v>603700</v>
       </c>
       <c r="I57" s="3">
-        <v>584200</v>
+        <v>580400</v>
       </c>
       <c r="J57" s="3">
-        <v>592600</v>
+        <v>588700</v>
       </c>
       <c r="K57" s="3">
         <v>971200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>679600</v>
+        <v>1115000</v>
       </c>
       <c r="E58" s="3">
-        <v>2517400</v>
+        <v>2500800</v>
       </c>
       <c r="F58" s="3">
-        <v>472300</v>
+        <v>469100</v>
       </c>
       <c r="G58" s="3">
-        <v>336300</v>
+        <v>334100</v>
       </c>
       <c r="H58" s="3">
-        <v>831300</v>
+        <v>825800</v>
       </c>
       <c r="I58" s="3">
-        <v>793500</v>
+        <v>788300</v>
       </c>
       <c r="J58" s="3">
-        <v>709700</v>
+        <v>705000</v>
       </c>
       <c r="K58" s="3">
         <v>438000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1195700</v>
+        <v>1187800</v>
       </c>
       <c r="E59" s="3">
-        <v>1585600</v>
+        <v>1575100</v>
       </c>
       <c r="F59" s="3">
-        <v>574300</v>
+        <v>570500</v>
       </c>
       <c r="G59" s="3">
-        <v>428300</v>
+        <v>425400</v>
       </c>
       <c r="H59" s="3">
-        <v>385500</v>
+        <v>383000</v>
       </c>
       <c r="I59" s="3">
-        <v>400900</v>
+        <v>398300</v>
       </c>
       <c r="J59" s="3">
-        <v>375100</v>
+        <v>372600</v>
       </c>
       <c r="K59" s="3">
         <v>124200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2832800</v>
+        <v>2814100</v>
       </c>
       <c r="E60" s="3">
-        <v>3244000</v>
+        <v>3222500</v>
       </c>
       <c r="F60" s="3">
-        <v>1868200</v>
+        <v>1855900</v>
       </c>
       <c r="G60" s="3">
-        <v>1295300</v>
+        <v>1286800</v>
       </c>
       <c r="H60" s="3">
-        <v>1824600</v>
+        <v>1812500</v>
       </c>
       <c r="I60" s="3">
-        <v>1778700</v>
+        <v>1766900</v>
       </c>
       <c r="J60" s="3">
-        <v>1677400</v>
+        <v>1666300</v>
       </c>
       <c r="K60" s="3">
         <v>1533500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6244200</v>
+        <v>6202900</v>
       </c>
       <c r="E61" s="3">
-        <v>4678100</v>
+        <v>4647200</v>
       </c>
       <c r="F61" s="3">
-        <v>2602600</v>
+        <v>2585400</v>
       </c>
       <c r="G61" s="3">
-        <v>2268200</v>
+        <v>2253200</v>
       </c>
       <c r="H61" s="3">
-        <v>1694600</v>
+        <v>1683400</v>
       </c>
       <c r="I61" s="3">
-        <v>1723300</v>
+        <v>1711900</v>
       </c>
       <c r="J61" s="3">
-        <v>1876400</v>
+        <v>1864000</v>
       </c>
       <c r="K61" s="3">
         <v>2434900</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1567100</v>
+        <v>2000800</v>
       </c>
       <c r="E62" s="3">
-        <v>1691000</v>
+        <v>1679800</v>
       </c>
       <c r="F62" s="3">
-        <v>914300</v>
+        <v>908200</v>
       </c>
       <c r="G62" s="3">
-        <v>667300</v>
+        <v>662900</v>
       </c>
       <c r="H62" s="3">
-        <v>659800</v>
+        <v>655400</v>
       </c>
       <c r="I62" s="3">
-        <v>603600</v>
+        <v>599600</v>
       </c>
       <c r="J62" s="3">
-        <v>575600</v>
+        <v>571800</v>
       </c>
       <c r="K62" s="3">
         <v>563300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11155200</v>
+        <v>11081700</v>
       </c>
       <c r="E66" s="3">
-        <v>9178700</v>
+        <v>9118000</v>
       </c>
       <c r="F66" s="3">
-        <v>5438300</v>
+        <v>5402300</v>
       </c>
       <c r="G66" s="3">
-        <v>4275000</v>
+        <v>4246700</v>
       </c>
       <c r="H66" s="3">
-        <v>4237700</v>
+        <v>4209700</v>
       </c>
       <c r="I66" s="3">
-        <v>4158800</v>
+        <v>4131300</v>
       </c>
       <c r="J66" s="3">
-        <v>4184800</v>
+        <v>4157200</v>
       </c>
       <c r="K66" s="3">
         <v>4808700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2645900</v>
+        <v>2628600</v>
       </c>
       <c r="E72" s="3">
-        <v>3576500</v>
+        <v>3552800</v>
       </c>
       <c r="F72" s="3">
-        <v>4181500</v>
+        <v>4153800</v>
       </c>
       <c r="G72" s="3">
-        <v>4239400</v>
+        <v>4211400</v>
       </c>
       <c r="H72" s="3">
-        <v>4235000</v>
+        <v>4207000</v>
       </c>
       <c r="I72" s="3">
-        <v>4276800</v>
+        <v>4248500</v>
       </c>
       <c r="J72" s="3">
-        <v>4385900</v>
+        <v>4356900</v>
       </c>
       <c r="K72" s="3">
         <v>3468500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2451600</v>
+        <v>2435600</v>
       </c>
       <c r="E76" s="3">
-        <v>2851100</v>
+        <v>2832200</v>
       </c>
       <c r="F76" s="3">
-        <v>3362000</v>
+        <v>3339800</v>
       </c>
       <c r="G76" s="3">
-        <v>3349700</v>
+        <v>3327600</v>
       </c>
       <c r="H76" s="3">
-        <v>3325100</v>
+        <v>3303200</v>
       </c>
       <c r="I76" s="3">
-        <v>3344600</v>
+        <v>3322500</v>
       </c>
       <c r="J76" s="3">
-        <v>3282100</v>
+        <v>3260400</v>
       </c>
       <c r="K76" s="3">
         <v>2590500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>317300</v>
+        <v>315200</v>
       </c>
       <c r="E81" s="3">
-        <v>274700</v>
+        <v>272800</v>
       </c>
       <c r="F81" s="3">
-        <v>192600</v>
+        <v>191400</v>
       </c>
       <c r="G81" s="3">
-        <v>186400</v>
+        <v>185200</v>
       </c>
       <c r="H81" s="3">
-        <v>159900</v>
+        <v>158900</v>
       </c>
       <c r="I81" s="3">
-        <v>189800</v>
+        <v>188500</v>
       </c>
       <c r="J81" s="3">
-        <v>510600</v>
+        <v>507300</v>
       </c>
       <c r="K81" s="3">
         <v>314900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1629100</v>
+        <v>1618400</v>
       </c>
       <c r="E83" s="3">
-        <v>1416300</v>
+        <v>1406900</v>
       </c>
       <c r="F83" s="3">
-        <v>821100</v>
+        <v>815600</v>
       </c>
       <c r="G83" s="3">
-        <v>770700</v>
+        <v>765600</v>
       </c>
       <c r="H83" s="3">
-        <v>756600</v>
+        <v>751600</v>
       </c>
       <c r="I83" s="3">
-        <v>824800</v>
+        <v>819300</v>
       </c>
       <c r="J83" s="3">
-        <v>825200</v>
+        <v>819800</v>
       </c>
       <c r="K83" s="3">
         <v>902400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1861700</v>
+        <v>1849400</v>
       </c>
       <c r="E89" s="3">
-        <v>1918200</v>
+        <v>1905500</v>
       </c>
       <c r="F89" s="3">
-        <v>1051300</v>
+        <v>1044300</v>
       </c>
       <c r="G89" s="3">
-        <v>976800</v>
+        <v>970300</v>
       </c>
       <c r="H89" s="3">
-        <v>914300</v>
+        <v>908200</v>
       </c>
       <c r="I89" s="3">
-        <v>1100400</v>
+        <v>1093100</v>
       </c>
       <c r="J89" s="3">
-        <v>1082600</v>
+        <v>1075500</v>
       </c>
       <c r="K89" s="3">
         <v>1130300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1850800</v>
+        <v>-1838500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1829000</v>
+        <v>-1816900</v>
       </c>
       <c r="F91" s="3">
-        <v>-996000</v>
+        <v>-989400</v>
       </c>
       <c r="G91" s="3">
-        <v>-826800</v>
+        <v>-821400</v>
       </c>
       <c r="H91" s="3">
-        <v>-841900</v>
+        <v>-836300</v>
       </c>
       <c r="I91" s="3">
-        <v>-853700</v>
+        <v>-848100</v>
       </c>
       <c r="J91" s="3">
-        <v>-784800</v>
+        <v>-779600</v>
       </c>
       <c r="K91" s="3">
         <v>-903300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3208200</v>
+        <v>-3187000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1869300</v>
+        <v>-1856900</v>
       </c>
       <c r="F94" s="3">
-        <v>-941600</v>
+        <v>-935300</v>
       </c>
       <c r="G94" s="3">
-        <v>-727600</v>
+        <v>-722800</v>
       </c>
       <c r="H94" s="3">
-        <v>-775100</v>
+        <v>-770000</v>
       </c>
       <c r="I94" s="3">
-        <v>-892400</v>
+        <v>-886500</v>
       </c>
       <c r="J94" s="3">
-        <v>-287300</v>
+        <v>-285400</v>
       </c>
       <c r="K94" s="3">
         <v>-816800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-226800</v>
+        <v>-225300</v>
       </c>
       <c r="E96" s="3">
-        <v>-159700</v>
+        <v>-158600</v>
       </c>
       <c r="F96" s="3">
-        <v>-157200</v>
+        <v>-156100</v>
       </c>
       <c r="G96" s="3">
-        <v>-166000</v>
+        <v>-164900</v>
       </c>
       <c r="H96" s="3">
-        <v>-180900</v>
+        <v>-179700</v>
       </c>
       <c r="I96" s="3">
-        <v>-104500</v>
+        <v>-103800</v>
       </c>
       <c r="J96" s="3">
-        <v>-99300</v>
+        <v>-98600</v>
       </c>
       <c r="K96" s="3">
         <v>-76900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1504600</v>
+        <v>1494600</v>
       </c>
       <c r="E100" s="3">
-        <v>81400</v>
+        <v>80800</v>
       </c>
       <c r="F100" s="3">
-        <v>-25100</v>
+        <v>-24900</v>
       </c>
       <c r="G100" s="3">
-        <v>-253200</v>
+        <v>-251500</v>
       </c>
       <c r="H100" s="3">
-        <v>-172600</v>
+        <v>-171400</v>
       </c>
       <c r="I100" s="3">
-        <v>-341800</v>
+        <v>-339500</v>
       </c>
       <c r="J100" s="3">
-        <v>-675900</v>
+        <v>-671500</v>
       </c>
       <c r="K100" s="3">
         <v>-388200</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="E101" s="3">
         <v>-1400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>153200</v>
+        <v>152200</v>
       </c>
       <c r="E102" s="3">
-        <v>128800</v>
+        <v>127900</v>
       </c>
       <c r="F102" s="3">
-        <v>85300</v>
+        <v>84700</v>
       </c>
       <c r="G102" s="3">
         <v>-6000</v>
       </c>
       <c r="H102" s="3">
-        <v>-39600</v>
+        <v>-39300</v>
       </c>
       <c r="I102" s="3">
-        <v>-133100</v>
+        <v>-132200</v>
       </c>
       <c r="J102" s="3">
-        <v>122300</v>
+        <v>121500</v>
       </c>
       <c r="K102" s="3">
         <v>-74800</v>

--- a/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7393900</v>
+        <v>7366600</v>
       </c>
       <c r="E8" s="3">
-        <v>6432200</v>
+        <v>6408400</v>
       </c>
       <c r="F8" s="3">
-        <v>4329600</v>
+        <v>4313600</v>
       </c>
       <c r="G8" s="3">
-        <v>4128000</v>
+        <v>4112800</v>
       </c>
       <c r="H8" s="3">
-        <v>4021500</v>
+        <v>4006600</v>
       </c>
       <c r="I8" s="3">
-        <v>4020200</v>
+        <v>4005400</v>
       </c>
       <c r="J8" s="3">
-        <v>4041600</v>
+        <v>4026700</v>
       </c>
       <c r="K8" s="3">
         <v>3834800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1863000</v>
+        <v>1856100</v>
       </c>
       <c r="E9" s="3">
-        <v>1659600</v>
+        <v>1653400</v>
       </c>
       <c r="F9" s="3">
-        <v>1168200</v>
+        <v>1163900</v>
       </c>
       <c r="G9" s="3">
-        <v>1085000</v>
+        <v>1081000</v>
       </c>
       <c r="H9" s="3">
-        <v>1060800</v>
+        <v>1056900</v>
       </c>
       <c r="I9" s="3">
-        <v>1031100</v>
+        <v>1027300</v>
       </c>
       <c r="J9" s="3">
-        <v>1013500</v>
+        <v>1009700</v>
       </c>
       <c r="K9" s="3">
         <v>905900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5530900</v>
+        <v>5510500</v>
       </c>
       <c r="E10" s="3">
-        <v>4772600</v>
+        <v>4755000</v>
       </c>
       <c r="F10" s="3">
-        <v>3161400</v>
+        <v>3149700</v>
       </c>
       <c r="G10" s="3">
-        <v>3043000</v>
+        <v>3031700</v>
       </c>
       <c r="H10" s="3">
-        <v>2960600</v>
+        <v>2949700</v>
       </c>
       <c r="I10" s="3">
-        <v>2989200</v>
+        <v>2978100</v>
       </c>
       <c r="J10" s="3">
-        <v>3028200</v>
+        <v>3017000</v>
       </c>
       <c r="K10" s="3">
         <v>2928900</v>
@@ -897,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>90100</v>
+        <v>89700</v>
       </c>
       <c r="E14" s="3">
-        <v>74400</v>
+        <v>74100</v>
       </c>
       <c r="F14" s="3">
-        <v>42800</v>
+        <v>42700</v>
       </c>
       <c r="G14" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="H14" s="3">
         <v>-900</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1618400</v>
+        <v>1612400</v>
       </c>
       <c r="E15" s="3">
-        <v>1406900</v>
+        <v>1401700</v>
       </c>
       <c r="F15" s="3">
-        <v>815600</v>
+        <v>812600</v>
       </c>
       <c r="G15" s="3">
-        <v>765600</v>
+        <v>762800</v>
       </c>
       <c r="H15" s="3">
-        <v>751600</v>
+        <v>748800</v>
       </c>
       <c r="I15" s="3">
-        <v>819300</v>
+        <v>816300</v>
       </c>
       <c r="J15" s="3">
-        <v>819600</v>
+        <v>816600</v>
       </c>
       <c r="K15" s="3">
         <v>777100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6462800</v>
+        <v>6438900</v>
       </c>
       <c r="E17" s="3">
-        <v>5609600</v>
+        <v>5588900</v>
       </c>
       <c r="F17" s="3">
-        <v>3847100</v>
+        <v>3832900</v>
       </c>
       <c r="G17" s="3">
-        <v>3611600</v>
+        <v>3598200</v>
       </c>
       <c r="H17" s="3">
-        <v>3485400</v>
+        <v>3472600</v>
       </c>
       <c r="I17" s="3">
-        <v>3502500</v>
+        <v>3489500</v>
       </c>
       <c r="J17" s="3">
-        <v>3498700</v>
+        <v>3485700</v>
       </c>
       <c r="K17" s="3">
         <v>3238200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>931100</v>
+        <v>927700</v>
       </c>
       <c r="E18" s="3">
-        <v>822500</v>
+        <v>819500</v>
       </c>
       <c r="F18" s="3">
-        <v>482500</v>
+        <v>480700</v>
       </c>
       <c r="G18" s="3">
-        <v>516500</v>
+        <v>514500</v>
       </c>
       <c r="H18" s="3">
-        <v>536000</v>
+        <v>534000</v>
       </c>
       <c r="I18" s="3">
-        <v>517800</v>
+        <v>515900</v>
       </c>
       <c r="J18" s="3">
-        <v>543000</v>
+        <v>541000</v>
       </c>
       <c r="K18" s="3">
         <v>596600</v>
@@ -1059,22 +1059,22 @@
         <v>-5100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F20" s="3">
         <v>7500</v>
       </c>
       <c r="G20" s="3">
-        <v>-27800</v>
+        <v>-27700</v>
       </c>
       <c r="H20" s="3">
-        <v>-76500</v>
+        <v>-76200</v>
       </c>
       <c r="I20" s="3">
-        <v>-70800</v>
+        <v>-70500</v>
       </c>
       <c r="J20" s="3">
-        <v>-58000</v>
+        <v>-57700</v>
       </c>
       <c r="K20" s="3">
         <v>-134200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2555100</v>
+        <v>2512200</v>
       </c>
       <c r="E21" s="3">
-        <v>2237500</v>
+        <v>2200100</v>
       </c>
       <c r="F21" s="3">
-        <v>1311100</v>
+        <v>1289400</v>
       </c>
       <c r="G21" s="3">
-        <v>1259300</v>
+        <v>1238800</v>
       </c>
       <c r="H21" s="3">
-        <v>1216100</v>
+        <v>1196100</v>
       </c>
       <c r="I21" s="3">
-        <v>1271700</v>
+        <v>1250100</v>
       </c>
       <c r="J21" s="3">
-        <v>1310200</v>
+        <v>1288400</v>
       </c>
       <c r="K21" s="3">
         <v>1367500</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>466200</v>
+        <v>464500</v>
       </c>
       <c r="E22" s="3">
-        <v>450900</v>
+        <v>449200</v>
       </c>
       <c r="F22" s="3">
-        <v>227200</v>
+        <v>226400</v>
       </c>
       <c r="G22" s="3">
-        <v>233000</v>
+        <v>232200</v>
       </c>
       <c r="H22" s="3">
-        <v>230500</v>
+        <v>229700</v>
       </c>
       <c r="I22" s="3">
-        <v>219500</v>
+        <v>218700</v>
       </c>
       <c r="J22" s="3">
-        <v>209300</v>
+        <v>208500</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>459800</v>
+        <v>458100</v>
       </c>
       <c r="E23" s="3">
-        <v>370300</v>
+        <v>369000</v>
       </c>
       <c r="F23" s="3">
-        <v>262800</v>
+        <v>261800</v>
       </c>
       <c r="G23" s="3">
-        <v>255600</v>
+        <v>254700</v>
       </c>
       <c r="H23" s="3">
-        <v>229000</v>
+        <v>228200</v>
       </c>
       <c r="I23" s="3">
-        <v>227500</v>
+        <v>226700</v>
       </c>
       <c r="J23" s="3">
-        <v>275700</v>
+        <v>274700</v>
       </c>
       <c r="K23" s="3">
         <v>462400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>117100</v>
+        <v>116600</v>
       </c>
       <c r="E24" s="3">
-        <v>74500</v>
+        <v>74300</v>
       </c>
       <c r="F24" s="3">
-        <v>59900</v>
+        <v>59600</v>
       </c>
       <c r="G24" s="3">
-        <v>65700</v>
+        <v>65400</v>
       </c>
       <c r="H24" s="3">
-        <v>63400</v>
+        <v>63200</v>
       </c>
       <c r="I24" s="3">
-        <v>32900</v>
+        <v>32800</v>
       </c>
       <c r="J24" s="3">
-        <v>97500</v>
+        <v>97100</v>
       </c>
       <c r="K24" s="3">
         <v>110400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>342700</v>
+        <v>341400</v>
       </c>
       <c r="E26" s="3">
-        <v>295800</v>
+        <v>294700</v>
       </c>
       <c r="F26" s="3">
-        <v>203000</v>
+        <v>202200</v>
       </c>
       <c r="G26" s="3">
-        <v>190000</v>
+        <v>189300</v>
       </c>
       <c r="H26" s="3">
-        <v>165600</v>
+        <v>165000</v>
       </c>
       <c r="I26" s="3">
-        <v>194600</v>
+        <v>193800</v>
       </c>
       <c r="J26" s="3">
-        <v>178200</v>
+        <v>177600</v>
       </c>
       <c r="K26" s="3">
         <v>352000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>315200</v>
+        <v>314000</v>
       </c>
       <c r="E27" s="3">
-        <v>272800</v>
+        <v>271800</v>
       </c>
       <c r="F27" s="3">
-        <v>191400</v>
+        <v>190700</v>
       </c>
       <c r="G27" s="3">
-        <v>185200</v>
+        <v>184500</v>
       </c>
       <c r="H27" s="3">
-        <v>158900</v>
+        <v>158300</v>
       </c>
       <c r="I27" s="3">
-        <v>188500</v>
+        <v>187800</v>
       </c>
       <c r="J27" s="3">
-        <v>174300</v>
+        <v>173700</v>
       </c>
       <c r="K27" s="3">
         <v>348600</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>332900</v>
+        <v>331700</v>
       </c>
       <c r="K29" s="3">
         <v>-33700</v>
@@ -1455,22 +1455,22 @@
         <v>5100</v>
       </c>
       <c r="E32" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F32" s="3">
         <v>-7500</v>
       </c>
       <c r="G32" s="3">
-        <v>27800</v>
+        <v>27700</v>
       </c>
       <c r="H32" s="3">
-        <v>76500</v>
+        <v>76200</v>
       </c>
       <c r="I32" s="3">
-        <v>70800</v>
+        <v>70500</v>
       </c>
       <c r="J32" s="3">
-        <v>58000</v>
+        <v>57700</v>
       </c>
       <c r="K32" s="3">
         <v>134200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>315200</v>
+        <v>314000</v>
       </c>
       <c r="E33" s="3">
-        <v>272800</v>
+        <v>271800</v>
       </c>
       <c r="F33" s="3">
-        <v>191400</v>
+        <v>190700</v>
       </c>
       <c r="G33" s="3">
-        <v>185200</v>
+        <v>184500</v>
       </c>
       <c r="H33" s="3">
-        <v>158900</v>
+        <v>158300</v>
       </c>
       <c r="I33" s="3">
-        <v>188500</v>
+        <v>187800</v>
       </c>
       <c r="J33" s="3">
-        <v>507300</v>
+        <v>505400</v>
       </c>
       <c r="K33" s="3">
         <v>314900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>315200</v>
+        <v>314000</v>
       </c>
       <c r="E35" s="3">
-        <v>272800</v>
+        <v>271800</v>
       </c>
       <c r="F35" s="3">
-        <v>191400</v>
+        <v>190700</v>
       </c>
       <c r="G35" s="3">
-        <v>185200</v>
+        <v>184500</v>
       </c>
       <c r="H35" s="3">
-        <v>158900</v>
+        <v>158300</v>
       </c>
       <c r="I35" s="3">
-        <v>188500</v>
+        <v>187800</v>
       </c>
       <c r="J35" s="3">
-        <v>507300</v>
+        <v>505400</v>
       </c>
       <c r="K35" s="3">
         <v>314900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>844100</v>
+        <v>840900</v>
       </c>
       <c r="E41" s="3">
-        <v>539600</v>
+        <v>537600</v>
       </c>
       <c r="F41" s="3">
-        <v>136300</v>
+        <v>135800</v>
       </c>
       <c r="G41" s="3">
-        <v>51600</v>
+        <v>51400</v>
       </c>
       <c r="H41" s="3">
-        <v>57600</v>
+        <v>57300</v>
       </c>
       <c r="I41" s="3">
-        <v>96900</v>
+        <v>96500</v>
       </c>
       <c r="J41" s="3">
-        <v>229100</v>
+        <v>228200</v>
       </c>
       <c r="K41" s="3">
         <v>105000</v>
@@ -1685,22 +1685,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>155200</v>
+        <v>154700</v>
       </c>
       <c r="E42" s="3">
-        <v>120100</v>
+        <v>119700</v>
       </c>
       <c r="F42" s="3">
-        <v>101200</v>
+        <v>100800</v>
       </c>
       <c r="G42" s="3">
-        <v>80600</v>
+        <v>80300</v>
       </c>
       <c r="H42" s="3">
-        <v>72600</v>
+        <v>72300</v>
       </c>
       <c r="I42" s="3">
-        <v>77300</v>
+        <v>77000</v>
       </c>
       <c r="J42" s="3">
         <v>26100</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>777900</v>
+        <v>1450600</v>
       </c>
       <c r="E43" s="3">
-        <v>738100</v>
+        <v>1397900</v>
       </c>
       <c r="F43" s="3">
-        <v>726000</v>
+        <v>723300</v>
       </c>
       <c r="G43" s="3">
-        <v>646400</v>
+        <v>644000</v>
       </c>
       <c r="H43" s="3">
-        <v>620400</v>
+        <v>618100</v>
       </c>
       <c r="I43" s="3">
-        <v>583400</v>
+        <v>581300</v>
       </c>
       <c r="J43" s="3">
-        <v>609200</v>
+        <v>606900</v>
       </c>
       <c r="K43" s="3">
         <v>525300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>291800</v>
+        <v>290700</v>
       </c>
       <c r="E44" s="3">
-        <v>264800</v>
+        <v>263800</v>
       </c>
       <c r="F44" s="3">
-        <v>103200</v>
+        <v>102800</v>
       </c>
       <c r="G44" s="3">
-        <v>83400</v>
+        <v>83100</v>
       </c>
       <c r="H44" s="3">
-        <v>87100</v>
+        <v>86800</v>
       </c>
       <c r="I44" s="3">
-        <v>54900</v>
+        <v>54700</v>
       </c>
       <c r="J44" s="3">
-        <v>65300</v>
+        <v>65000</v>
       </c>
       <c r="K44" s="3">
         <v>52000</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>257600</v>
+        <v>256600</v>
       </c>
       <c r="E45" s="3">
-        <v>212600</v>
+        <v>211900</v>
       </c>
       <c r="F45" s="3">
-        <v>118600</v>
+        <v>118200</v>
       </c>
       <c r="G45" s="3">
-        <v>97700</v>
+        <v>97400</v>
       </c>
       <c r="H45" s="3">
-        <v>84800</v>
+        <v>84500</v>
       </c>
       <c r="I45" s="3">
-        <v>85800</v>
+        <v>85500</v>
       </c>
       <c r="J45" s="3">
-        <v>102600</v>
+        <v>102300</v>
       </c>
       <c r="K45" s="3">
         <v>118900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1758700</v>
+        <v>1752200</v>
       </c>
       <c r="E46" s="3">
-        <v>1473100</v>
+        <v>1467600</v>
       </c>
       <c r="F46" s="3">
-        <v>1185300</v>
+        <v>1180900</v>
       </c>
       <c r="G46" s="3">
-        <v>959800</v>
+        <v>956200</v>
       </c>
       <c r="H46" s="3">
-        <v>922400</v>
+        <v>919000</v>
       </c>
       <c r="I46" s="3">
-        <v>898300</v>
+        <v>895000</v>
       </c>
       <c r="J46" s="3">
-        <v>1032300</v>
+        <v>1028500</v>
       </c>
       <c r="K46" s="3">
         <v>827000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>477600</v>
+        <v>475800</v>
       </c>
       <c r="E47" s="3">
-        <v>442300</v>
+        <v>440700</v>
       </c>
       <c r="F47" s="3">
-        <v>1245200</v>
+        <v>1240600</v>
       </c>
       <c r="G47" s="3">
-        <v>1025200</v>
+        <v>1021400</v>
       </c>
       <c r="H47" s="3">
-        <v>934900</v>
+        <v>931400</v>
       </c>
       <c r="I47" s="3">
-        <v>1015300</v>
+        <v>1011500</v>
       </c>
       <c r="J47" s="3">
-        <v>1016100</v>
+        <v>1012400</v>
       </c>
       <c r="K47" s="3">
         <v>19000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18146300</v>
+        <v>18079200</v>
       </c>
       <c r="E48" s="3">
-        <v>15790000</v>
+        <v>15731600</v>
       </c>
       <c r="F48" s="3">
-        <v>5630000</v>
+        <v>5609200</v>
       </c>
       <c r="G48" s="3">
-        <v>4712900</v>
+        <v>4695500</v>
       </c>
       <c r="H48" s="3">
-        <v>4648800</v>
+        <v>4631600</v>
       </c>
       <c r="I48" s="3">
-        <v>4580700</v>
+        <v>4563700</v>
       </c>
       <c r="J48" s="3">
-        <v>4441200</v>
+        <v>4424800</v>
       </c>
       <c r="K48" s="3">
         <v>4420900</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3821900</v>
+        <v>3807700</v>
       </c>
       <c r="E49" s="3">
-        <v>3423300</v>
+        <v>3410600</v>
       </c>
       <c r="F49" s="3">
-        <v>893400</v>
+        <v>890100</v>
       </c>
       <c r="G49" s="3">
-        <v>808800</v>
+        <v>805800</v>
       </c>
       <c r="H49" s="3">
-        <v>827500</v>
+        <v>824500</v>
       </c>
       <c r="I49" s="3">
-        <v>821400</v>
+        <v>818400</v>
       </c>
       <c r="J49" s="3">
-        <v>789800</v>
+        <v>786900</v>
       </c>
       <c r="K49" s="3">
         <v>848700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>296700</v>
+        <v>295600</v>
       </c>
       <c r="E52" s="3">
-        <v>274800</v>
+        <v>273800</v>
       </c>
       <c r="F52" s="3">
-        <v>74800</v>
+        <v>74500</v>
       </c>
       <c r="G52" s="3">
-        <v>81100</v>
+        <v>80800</v>
       </c>
       <c r="H52" s="3">
-        <v>179100</v>
+        <v>178500</v>
       </c>
       <c r="I52" s="3">
-        <v>138200</v>
+        <v>137600</v>
       </c>
       <c r="J52" s="3">
-        <v>138100</v>
+        <v>137600</v>
       </c>
       <c r="K52" s="3">
         <v>1283600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13517300</v>
+        <v>13467300</v>
       </c>
       <c r="E54" s="3">
-        <v>11950300</v>
+        <v>11906100</v>
       </c>
       <c r="F54" s="3">
-        <v>8742100</v>
+        <v>8709700</v>
       </c>
       <c r="G54" s="3">
-        <v>7574300</v>
+        <v>7546300</v>
       </c>
       <c r="H54" s="3">
-        <v>7512800</v>
+        <v>7485000</v>
       </c>
       <c r="I54" s="3">
-        <v>7453800</v>
+        <v>7426300</v>
       </c>
       <c r="J54" s="3">
-        <v>7417500</v>
+        <v>7390100</v>
       </c>
       <c r="K54" s="3">
         <v>7399200</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2249400</v>
+        <v>2241000</v>
       </c>
       <c r="E57" s="3">
-        <v>2098800</v>
+        <v>2091000</v>
       </c>
       <c r="F57" s="3">
-        <v>816200</v>
+        <v>813200</v>
       </c>
       <c r="G57" s="3">
-        <v>527200</v>
+        <v>525300</v>
       </c>
       <c r="H57" s="3">
-        <v>603700</v>
+        <v>601500</v>
       </c>
       <c r="I57" s="3">
-        <v>580400</v>
+        <v>578200</v>
       </c>
       <c r="J57" s="3">
-        <v>588700</v>
+        <v>586500</v>
       </c>
       <c r="K57" s="3">
         <v>971200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1115000</v>
+        <v>1110900</v>
       </c>
       <c r="E58" s="3">
-        <v>2500800</v>
+        <v>2491500</v>
       </c>
       <c r="F58" s="3">
-        <v>469100</v>
+        <v>467400</v>
       </c>
       <c r="G58" s="3">
-        <v>334100</v>
+        <v>332900</v>
       </c>
       <c r="H58" s="3">
-        <v>825800</v>
+        <v>822700</v>
       </c>
       <c r="I58" s="3">
-        <v>788300</v>
+        <v>785400</v>
       </c>
       <c r="J58" s="3">
-        <v>705000</v>
+        <v>702400</v>
       </c>
       <c r="K58" s="3">
         <v>438000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1187800</v>
+        <v>1183400</v>
       </c>
       <c r="E59" s="3">
-        <v>1575100</v>
+        <v>1569300</v>
       </c>
       <c r="F59" s="3">
-        <v>570500</v>
+        <v>568400</v>
       </c>
       <c r="G59" s="3">
-        <v>425400</v>
+        <v>423900</v>
       </c>
       <c r="H59" s="3">
-        <v>383000</v>
+        <v>381500</v>
       </c>
       <c r="I59" s="3">
-        <v>398300</v>
+        <v>396800</v>
       </c>
       <c r="J59" s="3">
-        <v>372600</v>
+        <v>371200</v>
       </c>
       <c r="K59" s="3">
         <v>124200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2814100</v>
+        <v>2803700</v>
       </c>
       <c r="E60" s="3">
-        <v>3222500</v>
+        <v>3210600</v>
       </c>
       <c r="F60" s="3">
-        <v>1855900</v>
+        <v>1849000</v>
       </c>
       <c r="G60" s="3">
-        <v>1286800</v>
+        <v>1282000</v>
       </c>
       <c r="H60" s="3">
-        <v>1812500</v>
+        <v>1805800</v>
       </c>
       <c r="I60" s="3">
-        <v>1766900</v>
+        <v>1760400</v>
       </c>
       <c r="J60" s="3">
-        <v>1666300</v>
+        <v>1660100</v>
       </c>
       <c r="K60" s="3">
         <v>1533500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6202900</v>
+        <v>6180000</v>
       </c>
       <c r="E61" s="3">
-        <v>4647200</v>
+        <v>4630000</v>
       </c>
       <c r="F61" s="3">
-        <v>2585400</v>
+        <v>2575800</v>
       </c>
       <c r="G61" s="3">
-        <v>2253200</v>
+        <v>2244900</v>
       </c>
       <c r="H61" s="3">
-        <v>1683400</v>
+        <v>1677100</v>
       </c>
       <c r="I61" s="3">
-        <v>1711900</v>
+        <v>1705600</v>
       </c>
       <c r="J61" s="3">
-        <v>1864000</v>
+        <v>1857100</v>
       </c>
       <c r="K61" s="3">
         <v>2434900</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2000800</v>
+        <v>1993400</v>
       </c>
       <c r="E62" s="3">
-        <v>1679800</v>
+        <v>1673600</v>
       </c>
       <c r="F62" s="3">
-        <v>908200</v>
+        <v>904900</v>
       </c>
       <c r="G62" s="3">
-        <v>662900</v>
+        <v>660400</v>
       </c>
       <c r="H62" s="3">
-        <v>655400</v>
+        <v>653000</v>
       </c>
       <c r="I62" s="3">
-        <v>599600</v>
+        <v>597400</v>
       </c>
       <c r="J62" s="3">
-        <v>571800</v>
+        <v>569700</v>
       </c>
       <c r="K62" s="3">
         <v>563300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11081700</v>
+        <v>11040800</v>
       </c>
       <c r="E66" s="3">
-        <v>9118000</v>
+        <v>9084300</v>
       </c>
       <c r="F66" s="3">
-        <v>5402300</v>
+        <v>5382300</v>
       </c>
       <c r="G66" s="3">
-        <v>4246700</v>
+        <v>4231000</v>
       </c>
       <c r="H66" s="3">
-        <v>4209700</v>
+        <v>4194100</v>
       </c>
       <c r="I66" s="3">
-        <v>4131300</v>
+        <v>4116100</v>
       </c>
       <c r="J66" s="3">
-        <v>4157200</v>
+        <v>4141800</v>
       </c>
       <c r="K66" s="3">
         <v>4808700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2628600</v>
+        <v>2618900</v>
       </c>
       <c r="E72" s="3">
-        <v>3552800</v>
+        <v>3539700</v>
       </c>
       <c r="F72" s="3">
-        <v>4153800</v>
+        <v>4138400</v>
       </c>
       <c r="G72" s="3">
-        <v>4211400</v>
+        <v>4195800</v>
       </c>
       <c r="H72" s="3">
-        <v>4207000</v>
+        <v>4191400</v>
       </c>
       <c r="I72" s="3">
-        <v>4248500</v>
+        <v>4232800</v>
       </c>
       <c r="J72" s="3">
-        <v>4356900</v>
+        <v>4340800</v>
       </c>
       <c r="K72" s="3">
         <v>3468500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2435600</v>
+        <v>2426600</v>
       </c>
       <c r="E76" s="3">
-        <v>2832200</v>
+        <v>2821800</v>
       </c>
       <c r="F76" s="3">
-        <v>3339800</v>
+        <v>3327400</v>
       </c>
       <c r="G76" s="3">
-        <v>3327600</v>
+        <v>3315300</v>
       </c>
       <c r="H76" s="3">
-        <v>3303200</v>
+        <v>3290900</v>
       </c>
       <c r="I76" s="3">
-        <v>3322500</v>
+        <v>3310200</v>
       </c>
       <c r="J76" s="3">
-        <v>3260400</v>
+        <v>3248300</v>
       </c>
       <c r="K76" s="3">
         <v>2590500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>315200</v>
+        <v>314000</v>
       </c>
       <c r="E81" s="3">
-        <v>272800</v>
+        <v>271800</v>
       </c>
       <c r="F81" s="3">
-        <v>191400</v>
+        <v>190700</v>
       </c>
       <c r="G81" s="3">
-        <v>185200</v>
+        <v>184500</v>
       </c>
       <c r="H81" s="3">
-        <v>158900</v>
+        <v>158300</v>
       </c>
       <c r="I81" s="3">
-        <v>188500</v>
+        <v>187800</v>
       </c>
       <c r="J81" s="3">
-        <v>507300</v>
+        <v>505400</v>
       </c>
       <c r="K81" s="3">
         <v>314900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1618400</v>
+        <v>1612400</v>
       </c>
       <c r="E83" s="3">
-        <v>1406900</v>
+        <v>1401700</v>
       </c>
       <c r="F83" s="3">
-        <v>815600</v>
+        <v>812600</v>
       </c>
       <c r="G83" s="3">
-        <v>765600</v>
+        <v>762800</v>
       </c>
       <c r="H83" s="3">
-        <v>751600</v>
+        <v>748800</v>
       </c>
       <c r="I83" s="3">
-        <v>819300</v>
+        <v>816300</v>
       </c>
       <c r="J83" s="3">
-        <v>819800</v>
+        <v>816800</v>
       </c>
       <c r="K83" s="3">
         <v>902400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1849400</v>
+        <v>1842600</v>
       </c>
       <c r="E89" s="3">
-        <v>1905500</v>
+        <v>1898400</v>
       </c>
       <c r="F89" s="3">
-        <v>1044300</v>
+        <v>1040500</v>
       </c>
       <c r="G89" s="3">
-        <v>970300</v>
+        <v>966700</v>
       </c>
       <c r="H89" s="3">
-        <v>908200</v>
+        <v>904900</v>
       </c>
       <c r="I89" s="3">
-        <v>1093100</v>
+        <v>1089000</v>
       </c>
       <c r="J89" s="3">
-        <v>1075500</v>
+        <v>1071500</v>
       </c>
       <c r="K89" s="3">
         <v>1130300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1838500</v>
+        <v>-1831700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1816900</v>
+        <v>-1810100</v>
       </c>
       <c r="F91" s="3">
-        <v>-989400</v>
+        <v>-985700</v>
       </c>
       <c r="G91" s="3">
-        <v>-821400</v>
+        <v>-818300</v>
       </c>
       <c r="H91" s="3">
-        <v>-836300</v>
+        <v>-833200</v>
       </c>
       <c r="I91" s="3">
-        <v>-848100</v>
+        <v>-844900</v>
       </c>
       <c r="J91" s="3">
-        <v>-779600</v>
+        <v>-776800</v>
       </c>
       <c r="K91" s="3">
         <v>-903300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3187000</v>
+        <v>-3175200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1856900</v>
+        <v>-1850100</v>
       </c>
       <c r="F94" s="3">
-        <v>-935300</v>
+        <v>-931900</v>
       </c>
       <c r="G94" s="3">
-        <v>-722800</v>
+        <v>-720100</v>
       </c>
       <c r="H94" s="3">
-        <v>-770000</v>
+        <v>-767100</v>
       </c>
       <c r="I94" s="3">
-        <v>-886500</v>
+        <v>-883200</v>
       </c>
       <c r="J94" s="3">
-        <v>-285400</v>
+        <v>-284300</v>
       </c>
       <c r="K94" s="3">
         <v>-816800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-225300</v>
+        <v>-224500</v>
       </c>
       <c r="E96" s="3">
-        <v>-158600</v>
+        <v>-158000</v>
       </c>
       <c r="F96" s="3">
-        <v>-156100</v>
+        <v>-155500</v>
       </c>
       <c r="G96" s="3">
-        <v>-164900</v>
+        <v>-164300</v>
       </c>
       <c r="H96" s="3">
-        <v>-179700</v>
+        <v>-179100</v>
       </c>
       <c r="I96" s="3">
-        <v>-103800</v>
+        <v>-103400</v>
       </c>
       <c r="J96" s="3">
-        <v>-98600</v>
+        <v>-98300</v>
       </c>
       <c r="K96" s="3">
         <v>-76900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1494600</v>
+        <v>1489100</v>
       </c>
       <c r="E100" s="3">
-        <v>80800</v>
+        <v>80500</v>
       </c>
       <c r="F100" s="3">
-        <v>-24900</v>
+        <v>-24800</v>
       </c>
       <c r="G100" s="3">
-        <v>-251500</v>
+        <v>-250600</v>
       </c>
       <c r="H100" s="3">
-        <v>-171400</v>
+        <v>-170800</v>
       </c>
       <c r="I100" s="3">
-        <v>-339500</v>
+        <v>-338300</v>
       </c>
       <c r="J100" s="3">
-        <v>-671500</v>
+        <v>-669000</v>
       </c>
       <c r="K100" s="3">
         <v>-388200</v>
@@ -3472,10 +3472,10 @@
         <v>600</v>
       </c>
       <c r="G101" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="H101" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="I101" s="3">
         <v>700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>152200</v>
+        <v>151700</v>
       </c>
       <c r="E102" s="3">
-        <v>127900</v>
+        <v>127500</v>
       </c>
       <c r="F102" s="3">
-        <v>84700</v>
+        <v>84400</v>
       </c>
       <c r="G102" s="3">
         <v>-6000</v>
       </c>
       <c r="H102" s="3">
-        <v>-39300</v>
+        <v>-39200</v>
       </c>
       <c r="I102" s="3">
-        <v>-132200</v>
+        <v>-131700</v>
       </c>
       <c r="J102" s="3">
-        <v>121500</v>
+        <v>121000</v>
       </c>
       <c r="K102" s="3">
         <v>-74800</v>

--- a/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>ROSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7366600</v>
+        <v>4588500</v>
       </c>
       <c r="E8" s="3">
-        <v>6408400</v>
+        <v>4325900</v>
       </c>
       <c r="F8" s="3">
-        <v>4313600</v>
+        <v>3763200</v>
       </c>
       <c r="G8" s="3">
-        <v>4112800</v>
+        <v>2533100</v>
       </c>
       <c r="H8" s="3">
-        <v>4006600</v>
+        <v>2415200</v>
       </c>
       <c r="I8" s="3">
-        <v>4005400</v>
+        <v>2352800</v>
       </c>
       <c r="J8" s="3">
+        <v>2352100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4026700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3834800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4663400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1856100</v>
+        <v>1126900</v>
       </c>
       <c r="E9" s="3">
-        <v>1653400</v>
+        <v>1090600</v>
       </c>
       <c r="F9" s="3">
-        <v>1163900</v>
+        <v>970900</v>
       </c>
       <c r="G9" s="3">
-        <v>1081000</v>
+        <v>683500</v>
       </c>
       <c r="H9" s="3">
-        <v>1056900</v>
+        <v>634800</v>
       </c>
       <c r="I9" s="3">
-        <v>1027300</v>
+        <v>620700</v>
       </c>
       <c r="J9" s="3">
+        <v>603200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1009700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>905900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2232500</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5510500</v>
+        <v>3461700</v>
       </c>
       <c r="E10" s="3">
-        <v>4755000</v>
+        <v>3235300</v>
       </c>
       <c r="F10" s="3">
-        <v>3149700</v>
+        <v>2792300</v>
       </c>
       <c r="G10" s="3">
-        <v>3031700</v>
+        <v>1849600</v>
       </c>
       <c r="H10" s="3">
-        <v>2949700</v>
+        <v>1780300</v>
       </c>
       <c r="I10" s="3">
-        <v>2978100</v>
+        <v>1732100</v>
       </c>
       <c r="J10" s="3">
+        <v>1748800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3017000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2928900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2430900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>89700</v>
+        <v>22500</v>
       </c>
       <c r="E14" s="3">
-        <v>74100</v>
+        <v>52700</v>
       </c>
       <c r="F14" s="3">
-        <v>42700</v>
+        <v>43500</v>
       </c>
       <c r="G14" s="3">
-        <v>-14300</v>
+        <v>25100</v>
       </c>
       <c r="H14" s="3">
-        <v>-900</v>
+        <v>-8400</v>
       </c>
       <c r="I14" s="3">
-        <v>1600</v>
+        <v>-500</v>
       </c>
       <c r="J14" s="3">
+        <v>900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-5300</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-190200</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1612400</v>
+        <v>1107900</v>
       </c>
       <c r="E15" s="3">
-        <v>1401700</v>
+        <v>946800</v>
       </c>
       <c r="F15" s="3">
-        <v>812600</v>
+        <v>823100</v>
       </c>
       <c r="G15" s="3">
-        <v>762800</v>
+        <v>477200</v>
       </c>
       <c r="H15" s="3">
-        <v>748800</v>
+        <v>447900</v>
       </c>
       <c r="I15" s="3">
-        <v>816300</v>
+        <v>439700</v>
       </c>
       <c r="J15" s="3">
+        <v>479300</v>
+      </c>
+      <c r="K15" s="3">
         <v>816600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>777100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>902100</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6438900</v>
+        <v>4002100</v>
       </c>
       <c r="E17" s="3">
-        <v>5588900</v>
+        <v>3781100</v>
       </c>
       <c r="F17" s="3">
-        <v>3832900</v>
+        <v>3282000</v>
       </c>
       <c r="G17" s="3">
-        <v>3598200</v>
+        <v>2250800</v>
       </c>
       <c r="H17" s="3">
-        <v>3472600</v>
+        <v>2113000</v>
       </c>
       <c r="I17" s="3">
-        <v>3489500</v>
+        <v>2039200</v>
       </c>
       <c r="J17" s="3">
+        <v>2049100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3485700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3238200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3834800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>927700</v>
+        <v>586500</v>
       </c>
       <c r="E18" s="3">
-        <v>819500</v>
+        <v>544700</v>
       </c>
       <c r="F18" s="3">
-        <v>480700</v>
+        <v>481200</v>
       </c>
       <c r="G18" s="3">
-        <v>514500</v>
+        <v>282300</v>
       </c>
       <c r="H18" s="3">
-        <v>534000</v>
+        <v>302200</v>
       </c>
       <c r="I18" s="3">
-        <v>515900</v>
+        <v>313600</v>
       </c>
       <c r="J18" s="3">
+        <v>302900</v>
+      </c>
+      <c r="K18" s="3">
         <v>541000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>596600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>828700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5100</v>
+        <v>28300</v>
       </c>
       <c r="E20" s="3">
-        <v>-1300</v>
+        <v>-2900</v>
       </c>
       <c r="F20" s="3">
-        <v>7500</v>
+        <v>-800</v>
       </c>
       <c r="G20" s="3">
-        <v>-27700</v>
+        <v>4400</v>
       </c>
       <c r="H20" s="3">
-        <v>-76200</v>
+        <v>-16300</v>
       </c>
       <c r="I20" s="3">
-        <v>-70500</v>
+        <v>-44700</v>
       </c>
       <c r="J20" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-57700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-134200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>124900</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2512200</v>
+        <v>1691900</v>
       </c>
       <c r="E21" s="3">
-        <v>2200100</v>
+        <v>1462400</v>
       </c>
       <c r="F21" s="3">
-        <v>1289400</v>
+        <v>1280700</v>
       </c>
       <c r="G21" s="3">
-        <v>1238800</v>
+        <v>750600</v>
       </c>
       <c r="H21" s="3">
-        <v>1196100</v>
+        <v>721300</v>
       </c>
       <c r="I21" s="3">
-        <v>1250100</v>
+        <v>696300</v>
       </c>
       <c r="J21" s="3">
+        <v>727500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1288400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1367500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2011800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>464500</v>
+        <v>292000</v>
       </c>
       <c r="E22" s="3">
-        <v>449200</v>
+        <v>272800</v>
       </c>
       <c r="F22" s="3">
-        <v>226400</v>
+        <v>263800</v>
       </c>
       <c r="G22" s="3">
-        <v>232200</v>
+        <v>132900</v>
       </c>
       <c r="H22" s="3">
-        <v>229700</v>
+        <v>136300</v>
       </c>
       <c r="I22" s="3">
-        <v>218700</v>
+        <v>134900</v>
       </c>
       <c r="J22" s="3">
+        <v>128400</v>
+      </c>
+      <c r="K22" s="3">
         <v>208500</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>249700</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>458100</v>
+        <v>322900</v>
       </c>
       <c r="E23" s="3">
-        <v>369000</v>
+        <v>269100</v>
       </c>
       <c r="F23" s="3">
-        <v>261800</v>
+        <v>216700</v>
       </c>
       <c r="G23" s="3">
-        <v>254700</v>
+        <v>153800</v>
       </c>
       <c r="H23" s="3">
-        <v>228200</v>
+        <v>149500</v>
       </c>
       <c r="I23" s="3">
-        <v>226700</v>
+        <v>134000</v>
       </c>
       <c r="J23" s="3">
+        <v>133100</v>
+      </c>
+      <c r="K23" s="3">
         <v>274700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>462400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>703900</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>116600</v>
+        <v>71100</v>
       </c>
       <c r="E24" s="3">
-        <v>74300</v>
+        <v>68500</v>
       </c>
       <c r="F24" s="3">
-        <v>59600</v>
+        <v>43600</v>
       </c>
       <c r="G24" s="3">
-        <v>65400</v>
+        <v>35000</v>
       </c>
       <c r="H24" s="3">
-        <v>63200</v>
+        <v>38400</v>
       </c>
       <c r="I24" s="3">
-        <v>32800</v>
+        <v>37100</v>
       </c>
       <c r="J24" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K24" s="3">
         <v>97100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>110400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>173700</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>341400</v>
+        <v>251800</v>
       </c>
       <c r="E26" s="3">
-        <v>294700</v>
+        <v>200600</v>
       </c>
       <c r="F26" s="3">
-        <v>202200</v>
+        <v>173100</v>
       </c>
       <c r="G26" s="3">
-        <v>189300</v>
+        <v>118700</v>
       </c>
       <c r="H26" s="3">
-        <v>165000</v>
+        <v>111100</v>
       </c>
       <c r="I26" s="3">
-        <v>193800</v>
+        <v>96900</v>
       </c>
       <c r="J26" s="3">
+        <v>113800</v>
+      </c>
+      <c r="K26" s="3">
         <v>177600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>352000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>530200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>314000</v>
+        <v>225800</v>
       </c>
       <c r="E27" s="3">
-        <v>271800</v>
+        <v>184500</v>
       </c>
       <c r="F27" s="3">
-        <v>190700</v>
+        <v>159600</v>
       </c>
       <c r="G27" s="3">
-        <v>184500</v>
+        <v>112000</v>
       </c>
       <c r="H27" s="3">
-        <v>158300</v>
+        <v>108300</v>
       </c>
       <c r="I27" s="3">
-        <v>187800</v>
+        <v>93000</v>
       </c>
       <c r="J27" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K27" s="3">
         <v>173700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>348600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>522000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1367,21 +1427,24 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>331700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-33700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-6000</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5100</v>
+        <v>-28300</v>
       </c>
       <c r="E32" s="3">
-        <v>1300</v>
+        <v>2900</v>
       </c>
       <c r="F32" s="3">
-        <v>-7500</v>
+        <v>800</v>
       </c>
       <c r="G32" s="3">
-        <v>27700</v>
+        <v>-4400</v>
       </c>
       <c r="H32" s="3">
-        <v>76200</v>
+        <v>16300</v>
       </c>
       <c r="I32" s="3">
-        <v>70500</v>
+        <v>44700</v>
       </c>
       <c r="J32" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K32" s="3">
         <v>57700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>134200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-124900</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>314000</v>
+        <v>225800</v>
       </c>
       <c r="E33" s="3">
-        <v>271800</v>
+        <v>184500</v>
       </c>
       <c r="F33" s="3">
-        <v>190700</v>
+        <v>159600</v>
       </c>
       <c r="G33" s="3">
-        <v>184500</v>
+        <v>112000</v>
       </c>
       <c r="H33" s="3">
-        <v>158300</v>
+        <v>108300</v>
       </c>
       <c r="I33" s="3">
-        <v>187800</v>
+        <v>93000</v>
       </c>
       <c r="J33" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K33" s="3">
         <v>505400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>314900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>516000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>314000</v>
+        <v>225800</v>
       </c>
       <c r="E35" s="3">
-        <v>271800</v>
+        <v>184500</v>
       </c>
       <c r="F35" s="3">
-        <v>190700</v>
+        <v>159600</v>
       </c>
       <c r="G35" s="3">
-        <v>184500</v>
+        <v>112000</v>
       </c>
       <c r="H35" s="3">
-        <v>158300</v>
+        <v>108300</v>
       </c>
       <c r="I35" s="3">
-        <v>187800</v>
+        <v>93000</v>
       </c>
       <c r="J35" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K35" s="3">
         <v>505400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>314900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>516000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>840900</v>
+        <v>392100</v>
       </c>
       <c r="E41" s="3">
-        <v>537600</v>
+        <v>246900</v>
       </c>
       <c r="F41" s="3">
-        <v>135800</v>
+        <v>315700</v>
       </c>
       <c r="G41" s="3">
-        <v>51400</v>
+        <v>79700</v>
       </c>
       <c r="H41" s="3">
-        <v>57300</v>
+        <v>30200</v>
       </c>
       <c r="I41" s="3">
-        <v>96500</v>
+        <v>33700</v>
       </c>
       <c r="J41" s="3">
+        <v>56700</v>
+      </c>
+      <c r="K41" s="3">
         <v>228200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>105000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>367800</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>154700</v>
+        <v>110500</v>
       </c>
       <c r="E42" s="3">
-        <v>119700</v>
+        <v>90800</v>
       </c>
       <c r="F42" s="3">
-        <v>100800</v>
+        <v>70300</v>
       </c>
       <c r="G42" s="3">
-        <v>80300</v>
+        <v>59200</v>
       </c>
       <c r="H42" s="3">
-        <v>72300</v>
+        <v>47200</v>
       </c>
       <c r="I42" s="3">
-        <v>77000</v>
+        <v>42500</v>
       </c>
       <c r="J42" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K42" s="3">
         <v>26100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>25900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>81300</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1450600</v>
+        <v>537000</v>
       </c>
       <c r="E43" s="3">
-        <v>1397900</v>
+        <v>455200</v>
       </c>
       <c r="F43" s="3">
-        <v>723300</v>
+        <v>431800</v>
       </c>
       <c r="G43" s="3">
-        <v>644000</v>
+        <v>424800</v>
       </c>
       <c r="H43" s="3">
-        <v>618100</v>
+        <v>378200</v>
       </c>
       <c r="I43" s="3">
-        <v>581300</v>
+        <v>362900</v>
       </c>
       <c r="J43" s="3">
+        <v>341300</v>
+      </c>
+      <c r="K43" s="3">
         <v>606900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>525300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1103300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>290700</v>
+        <v>99400</v>
       </c>
       <c r="E44" s="3">
-        <v>263800</v>
+        <v>85400</v>
       </c>
       <c r="F44" s="3">
-        <v>102800</v>
+        <v>154900</v>
       </c>
       <c r="G44" s="3">
-        <v>83100</v>
+        <v>60400</v>
       </c>
       <c r="H44" s="3">
-        <v>86800</v>
+        <v>48800</v>
       </c>
       <c r="I44" s="3">
-        <v>54700</v>
+        <v>51000</v>
       </c>
       <c r="J44" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K44" s="3">
         <v>65000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>52000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>150400</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>256600</v>
+        <v>188900</v>
       </c>
       <c r="E45" s="3">
-        <v>211900</v>
+        <v>150700</v>
       </c>
       <c r="F45" s="3">
-        <v>118200</v>
+        <v>124400</v>
       </c>
       <c r="G45" s="3">
-        <v>97400</v>
+        <v>69400</v>
       </c>
       <c r="H45" s="3">
-        <v>84500</v>
+        <v>57200</v>
       </c>
       <c r="I45" s="3">
-        <v>85500</v>
+        <v>49600</v>
       </c>
       <c r="J45" s="3">
+        <v>50200</v>
+      </c>
+      <c r="K45" s="3">
         <v>102300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>118900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>258400</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1752200</v>
+        <v>1327900</v>
       </c>
       <c r="E46" s="3">
-        <v>1467600</v>
+        <v>1029000</v>
       </c>
       <c r="F46" s="3">
-        <v>1180900</v>
+        <v>861800</v>
       </c>
       <c r="G46" s="3">
-        <v>956200</v>
+        <v>693500</v>
       </c>
       <c r="H46" s="3">
-        <v>919000</v>
+        <v>561500</v>
       </c>
       <c r="I46" s="3">
-        <v>895000</v>
+        <v>539700</v>
       </c>
       <c r="J46" s="3">
+        <v>525600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1028500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>827000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1046400</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>475800</v>
+        <v>327800</v>
       </c>
       <c r="E47" s="3">
-        <v>440700</v>
+        <v>279400</v>
       </c>
       <c r="F47" s="3">
-        <v>1240600</v>
+        <v>258800</v>
       </c>
       <c r="G47" s="3">
-        <v>1021400</v>
+        <v>728500</v>
       </c>
       <c r="H47" s="3">
-        <v>931400</v>
+        <v>599800</v>
       </c>
       <c r="I47" s="3">
-        <v>1011500</v>
+        <v>547000</v>
       </c>
       <c r="J47" s="3">
+        <v>594000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1012400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>690000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18079200</v>
+        <v>5701800</v>
       </c>
       <c r="E48" s="3">
-        <v>15731600</v>
+        <v>5312200</v>
       </c>
       <c r="F48" s="3">
-        <v>5609200</v>
+        <v>9238100</v>
       </c>
       <c r="G48" s="3">
-        <v>4695500</v>
+        <v>3293900</v>
       </c>
       <c r="H48" s="3">
-        <v>4631600</v>
+        <v>2757300</v>
       </c>
       <c r="I48" s="3">
-        <v>4563700</v>
+        <v>2719800</v>
       </c>
       <c r="J48" s="3">
+        <v>2680000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4424800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4420900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12418200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3807700</v>
+        <v>1178600</v>
       </c>
       <c r="E49" s="3">
-        <v>3410600</v>
+        <v>1116800</v>
       </c>
       <c r="F49" s="3">
-        <v>890100</v>
+        <v>2002800</v>
       </c>
       <c r="G49" s="3">
-        <v>805800</v>
+        <v>522700</v>
       </c>
       <c r="H49" s="3">
-        <v>824500</v>
+        <v>473200</v>
       </c>
       <c r="I49" s="3">
-        <v>818400</v>
+        <v>484200</v>
       </c>
       <c r="J49" s="3">
+        <v>480600</v>
+      </c>
+      <c r="K49" s="3">
         <v>786900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>848700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2781600</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>295600</v>
+        <v>187700</v>
       </c>
       <c r="E52" s="3">
-        <v>273800</v>
+        <v>173400</v>
       </c>
       <c r="F52" s="3">
-        <v>74500</v>
+        <v>160800</v>
       </c>
       <c r="G52" s="3">
+        <v>43700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>47400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>104800</v>
+      </c>
+      <c r="J52" s="3">
         <v>80800</v>
       </c>
-      <c r="H52" s="3">
-        <v>178500</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>137600</v>
       </c>
-      <c r="J52" s="3">
-        <v>137600</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1283600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>263700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13467300</v>
+        <v>8723800</v>
       </c>
       <c r="E54" s="3">
-        <v>11906100</v>
+        <v>7910900</v>
       </c>
       <c r="F54" s="3">
-        <v>8709700</v>
+        <v>6991600</v>
       </c>
       <c r="G54" s="3">
-        <v>7546300</v>
+        <v>5114600</v>
       </c>
       <c r="H54" s="3">
-        <v>7485000</v>
+        <v>4431400</v>
       </c>
       <c r="I54" s="3">
-        <v>7426300</v>
+        <v>4395400</v>
       </c>
       <c r="J54" s="3">
+        <v>4360900</v>
+      </c>
+      <c r="K54" s="3">
         <v>7390100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7399200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8955900</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2241000</v>
+        <v>466300</v>
       </c>
       <c r="E57" s="3">
-        <v>2091000</v>
+        <v>557000</v>
       </c>
       <c r="F57" s="3">
-        <v>813200</v>
+        <v>1227900</v>
       </c>
       <c r="G57" s="3">
-        <v>525300</v>
+        <v>477500</v>
       </c>
       <c r="H57" s="3">
-        <v>601500</v>
+        <v>308500</v>
       </c>
       <c r="I57" s="3">
-        <v>578200</v>
+        <v>353200</v>
       </c>
       <c r="J57" s="3">
+        <v>339600</v>
+      </c>
+      <c r="K57" s="3">
         <v>586500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>971200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1750100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1110900</v>
+        <v>971900</v>
       </c>
       <c r="E58" s="3">
-        <v>2491500</v>
+        <v>395000</v>
       </c>
       <c r="F58" s="3">
-        <v>467400</v>
+        <v>1463100</v>
       </c>
       <c r="G58" s="3">
-        <v>332900</v>
+        <v>274500</v>
       </c>
       <c r="H58" s="3">
-        <v>822700</v>
+        <v>195500</v>
       </c>
       <c r="I58" s="3">
-        <v>785400</v>
+        <v>483100</v>
       </c>
       <c r="J58" s="3">
+        <v>461200</v>
+      </c>
+      <c r="K58" s="3">
         <v>702400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>438000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2029300</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1183400</v>
+        <v>865800</v>
       </c>
       <c r="E59" s="3">
-        <v>1569300</v>
+        <v>694900</v>
       </c>
       <c r="F59" s="3">
-        <v>568400</v>
+        <v>921500</v>
       </c>
       <c r="G59" s="3">
-        <v>423900</v>
+        <v>333800</v>
       </c>
       <c r="H59" s="3">
-        <v>381500</v>
+        <v>248900</v>
       </c>
       <c r="I59" s="3">
-        <v>396800</v>
+        <v>224100</v>
       </c>
       <c r="J59" s="3">
+        <v>233000</v>
+      </c>
+      <c r="K59" s="3">
         <v>371200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>124200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>492900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2803700</v>
+        <v>2304000</v>
       </c>
       <c r="E60" s="3">
-        <v>3210600</v>
+        <v>1646900</v>
       </c>
       <c r="F60" s="3">
-        <v>1849000</v>
+        <v>1885400</v>
       </c>
       <c r="G60" s="3">
-        <v>1282000</v>
+        <v>1085800</v>
       </c>
       <c r="H60" s="3">
-        <v>1805800</v>
+        <v>752800</v>
       </c>
       <c r="I60" s="3">
-        <v>1760400</v>
+        <v>1060400</v>
       </c>
       <c r="J60" s="3">
+        <v>1033700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1660100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1533500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2165500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6180000</v>
+        <v>3526700</v>
       </c>
       <c r="E61" s="3">
-        <v>4630000</v>
+        <v>3629100</v>
       </c>
       <c r="F61" s="3">
-        <v>2575800</v>
+        <v>2718900</v>
       </c>
       <c r="G61" s="3">
-        <v>2244900</v>
+        <v>1512600</v>
       </c>
       <c r="H61" s="3">
-        <v>1677100</v>
+        <v>1318300</v>
       </c>
       <c r="I61" s="3">
-        <v>1705600</v>
+        <v>984900</v>
       </c>
       <c r="J61" s="3">
+        <v>1001600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1857100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2434900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2413900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1993400</v>
+        <v>1094400</v>
       </c>
       <c r="E62" s="3">
-        <v>1673600</v>
+        <v>912500</v>
       </c>
       <c r="F62" s="3">
-        <v>904900</v>
+        <v>982800</v>
       </c>
       <c r="G62" s="3">
-        <v>660400</v>
+        <v>531400</v>
       </c>
       <c r="H62" s="3">
-        <v>653000</v>
+        <v>387800</v>
       </c>
       <c r="I62" s="3">
-        <v>597400</v>
+        <v>383500</v>
       </c>
       <c r="J62" s="3">
+        <v>350800</v>
+      </c>
+      <c r="K62" s="3">
         <v>569700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>563300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1232800</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11040800</v>
+        <v>7240900</v>
       </c>
       <c r="E66" s="3">
-        <v>9084300</v>
+        <v>6485900</v>
       </c>
       <c r="F66" s="3">
-        <v>5382300</v>
+        <v>5334600</v>
       </c>
       <c r="G66" s="3">
-        <v>4231000</v>
+        <v>3160700</v>
       </c>
       <c r="H66" s="3">
-        <v>4194100</v>
+        <v>2484600</v>
       </c>
       <c r="I66" s="3">
-        <v>4116100</v>
+        <v>2462900</v>
       </c>
       <c r="J66" s="3">
+        <v>2417100</v>
+      </c>
+      <c r="K66" s="3">
         <v>4141800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4808700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5225900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2618900</v>
+        <v>1587700</v>
       </c>
       <c r="E72" s="3">
-        <v>3539700</v>
+        <v>1537900</v>
       </c>
       <c r="F72" s="3">
-        <v>4138400</v>
+        <v>2078600</v>
       </c>
       <c r="G72" s="3">
-        <v>4195800</v>
+        <v>2430200</v>
       </c>
       <c r="H72" s="3">
-        <v>4191400</v>
+        <v>2463900</v>
       </c>
       <c r="I72" s="3">
-        <v>4232800</v>
+        <v>2461300</v>
       </c>
       <c r="J72" s="3">
+        <v>2485600</v>
+      </c>
+      <c r="K72" s="3">
         <v>4340800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3468500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8270000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2426600</v>
+        <v>1482900</v>
       </c>
       <c r="E76" s="3">
-        <v>2821800</v>
+        <v>1424900</v>
       </c>
       <c r="F76" s="3">
-        <v>3327400</v>
+        <v>1657000</v>
       </c>
       <c r="G76" s="3">
-        <v>3315300</v>
+        <v>1954000</v>
       </c>
       <c r="H76" s="3">
-        <v>3290900</v>
+        <v>1946800</v>
       </c>
       <c r="I76" s="3">
-        <v>3310200</v>
+        <v>1932500</v>
       </c>
       <c r="J76" s="3">
+        <v>1943900</v>
+      </c>
+      <c r="K76" s="3">
         <v>3248300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2590500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3730000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>314000</v>
+        <v>225800</v>
       </c>
       <c r="E81" s="3">
-        <v>271800</v>
+        <v>184500</v>
       </c>
       <c r="F81" s="3">
-        <v>190700</v>
+        <v>159600</v>
       </c>
       <c r="G81" s="3">
-        <v>184500</v>
+        <v>112000</v>
       </c>
       <c r="H81" s="3">
-        <v>158300</v>
+        <v>108300</v>
       </c>
       <c r="I81" s="3">
-        <v>187800</v>
+        <v>93000</v>
       </c>
       <c r="J81" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K81" s="3">
         <v>505400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>314900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>516000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1612400</v>
+        <v>1107900</v>
       </c>
       <c r="E83" s="3">
-        <v>1401700</v>
+        <v>946800</v>
       </c>
       <c r="F83" s="3">
-        <v>812600</v>
+        <v>823100</v>
       </c>
       <c r="G83" s="3">
-        <v>762800</v>
+        <v>477200</v>
       </c>
       <c r="H83" s="3">
-        <v>748800</v>
+        <v>447900</v>
       </c>
       <c r="I83" s="3">
-        <v>816300</v>
+        <v>439700</v>
       </c>
       <c r="J83" s="3">
+        <v>479300</v>
+      </c>
+      <c r="K83" s="3">
         <v>816800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>902400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1050200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1842600</v>
+        <v>1206000</v>
       </c>
       <c r="E89" s="3">
-        <v>1898400</v>
+        <v>1082000</v>
       </c>
       <c r="F89" s="3">
-        <v>1040500</v>
+        <v>1114800</v>
       </c>
       <c r="G89" s="3">
-        <v>966700</v>
+        <v>611000</v>
       </c>
       <c r="H89" s="3">
-        <v>904900</v>
+        <v>567700</v>
       </c>
       <c r="I89" s="3">
-        <v>1089000</v>
+        <v>531400</v>
       </c>
       <c r="J89" s="3">
+        <v>639500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1071500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1130300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1525900</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1831700</v>
+        <v>-1169400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1810100</v>
+        <v>-1075700</v>
       </c>
       <c r="F91" s="3">
-        <v>-985700</v>
+        <v>-1063000</v>
       </c>
       <c r="G91" s="3">
-        <v>-818300</v>
+        <v>-578800</v>
       </c>
       <c r="H91" s="3">
-        <v>-833200</v>
+        <v>-480500</v>
       </c>
       <c r="I91" s="3">
-        <v>-844900</v>
+        <v>-489300</v>
       </c>
       <c r="J91" s="3">
+        <v>-496200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-776800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-903300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1479000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3175200</v>
+        <v>-1004200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1850100</v>
+        <v>-1864600</v>
       </c>
       <c r="F94" s="3">
-        <v>-931900</v>
+        <v>-1086400</v>
       </c>
       <c r="G94" s="3">
-        <v>-720100</v>
+        <v>-547200</v>
       </c>
       <c r="H94" s="3">
-        <v>-767100</v>
+        <v>-422900</v>
       </c>
       <c r="I94" s="3">
-        <v>-883200</v>
+        <v>-450500</v>
       </c>
       <c r="J94" s="3">
+        <v>-518600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-284300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-816800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1450500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-224500</v>
+        <v>-132900</v>
       </c>
       <c r="E96" s="3">
-        <v>-158000</v>
+        <v>-131800</v>
       </c>
       <c r="F96" s="3">
-        <v>-155500</v>
+        <v>-92800</v>
       </c>
       <c r="G96" s="3">
-        <v>-164300</v>
+        <v>-91300</v>
       </c>
       <c r="H96" s="3">
-        <v>-179100</v>
+        <v>-96500</v>
       </c>
       <c r="I96" s="3">
-        <v>-103400</v>
+        <v>-105200</v>
       </c>
       <c r="J96" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-98300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-76900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-144800</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1489100</v>
+        <v>-56800</v>
       </c>
       <c r="E100" s="3">
-        <v>80500</v>
+        <v>874500</v>
       </c>
       <c r="F100" s="3">
-        <v>-24800</v>
+        <v>47300</v>
       </c>
       <c r="G100" s="3">
-        <v>-250600</v>
+        <v>-14600</v>
       </c>
       <c r="H100" s="3">
-        <v>-170800</v>
+        <v>-147100</v>
       </c>
       <c r="I100" s="3">
-        <v>-338300</v>
+        <v>-100300</v>
       </c>
       <c r="J100" s="3">
+        <v>-198600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-669000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-388200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4800</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
-        <v>-1400</v>
+        <v>-2800</v>
       </c>
       <c r="F101" s="3">
-        <v>600</v>
+        <v>-800</v>
       </c>
       <c r="G101" s="3">
-        <v>-2000</v>
+        <v>400</v>
       </c>
       <c r="H101" s="3">
-        <v>-6100</v>
+        <v>-1200</v>
       </c>
       <c r="I101" s="3">
-        <v>700</v>
+        <v>-3600</v>
       </c>
       <c r="J101" s="3">
+        <v>400</v>
+      </c>
+      <c r="K101" s="3">
         <v>2900</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>151700</v>
+        <v>145200</v>
       </c>
       <c r="E102" s="3">
-        <v>127500</v>
+        <v>89100</v>
       </c>
       <c r="F102" s="3">
-        <v>84400</v>
+        <v>74900</v>
       </c>
       <c r="G102" s="3">
-        <v>-6000</v>
+        <v>49600</v>
       </c>
       <c r="H102" s="3">
-        <v>-39200</v>
+        <v>-3500</v>
       </c>
       <c r="I102" s="3">
-        <v>-131700</v>
+        <v>-23000</v>
       </c>
       <c r="J102" s="3">
+        <v>-77400</v>
+      </c>
+      <c r="K102" s="3">
         <v>121000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-74800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>63100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ROSYY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4588500</v>
+        <v>9316300</v>
       </c>
       <c r="E8" s="3">
-        <v>4325900</v>
+        <v>8783000</v>
       </c>
       <c r="F8" s="3">
-        <v>3763200</v>
+        <v>7640600</v>
       </c>
       <c r="G8" s="3">
-        <v>2533100</v>
+        <v>5143000</v>
       </c>
       <c r="H8" s="3">
-        <v>2415200</v>
+        <v>4903600</v>
       </c>
       <c r="I8" s="3">
-        <v>2352800</v>
+        <v>4777000</v>
       </c>
       <c r="J8" s="3">
-        <v>2352100</v>
+        <v>4775500</v>
       </c>
       <c r="K8" s="3">
         <v>4026700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1126900</v>
+        <v>2287900</v>
       </c>
       <c r="E9" s="3">
-        <v>1090600</v>
+        <v>2214200</v>
       </c>
       <c r="F9" s="3">
-        <v>970900</v>
+        <v>1971300</v>
       </c>
       <c r="G9" s="3">
-        <v>683500</v>
+        <v>1387700</v>
       </c>
       <c r="H9" s="3">
-        <v>634800</v>
+        <v>1288900</v>
       </c>
       <c r="I9" s="3">
-        <v>620700</v>
+        <v>1260100</v>
       </c>
       <c r="J9" s="3">
-        <v>603200</v>
+        <v>1224800</v>
       </c>
       <c r="K9" s="3">
         <v>1009700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3461700</v>
+        <v>7028300</v>
       </c>
       <c r="E10" s="3">
-        <v>3235300</v>
+        <v>6568800</v>
       </c>
       <c r="F10" s="3">
-        <v>2792300</v>
+        <v>5669200</v>
       </c>
       <c r="G10" s="3">
-        <v>1849600</v>
+        <v>3755300</v>
       </c>
       <c r="H10" s="3">
-        <v>1780300</v>
+        <v>3614700</v>
       </c>
       <c r="I10" s="3">
-        <v>1732100</v>
+        <v>3516800</v>
       </c>
       <c r="J10" s="3">
-        <v>1748800</v>
+        <v>3550700</v>
       </c>
       <c r="K10" s="3">
         <v>3017000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>22500</v>
+        <v>45700</v>
       </c>
       <c r="E14" s="3">
-        <v>52700</v>
+        <v>107000</v>
       </c>
       <c r="F14" s="3">
-        <v>43500</v>
+        <v>88300</v>
       </c>
       <c r="G14" s="3">
-        <v>25100</v>
+        <v>50900</v>
       </c>
       <c r="H14" s="3">
-        <v>-8400</v>
+        <v>-17100</v>
       </c>
       <c r="I14" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="J14" s="3">
-        <v>900</v>
+        <v>1900</v>
       </c>
       <c r="K14" s="3">
         <v>-5300</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1107900</v>
+        <v>2249300</v>
       </c>
       <c r="E15" s="3">
-        <v>946800</v>
+        <v>1922400</v>
       </c>
       <c r="F15" s="3">
-        <v>823100</v>
+        <v>1671200</v>
       </c>
       <c r="G15" s="3">
-        <v>477200</v>
+        <v>968900</v>
       </c>
       <c r="H15" s="3">
-        <v>447900</v>
+        <v>909400</v>
       </c>
       <c r="I15" s="3">
-        <v>439700</v>
+        <v>892800</v>
       </c>
       <c r="J15" s="3">
-        <v>479300</v>
+        <v>973200</v>
       </c>
       <c r="K15" s="3">
         <v>816600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4002100</v>
+        <v>8125600</v>
       </c>
       <c r="E17" s="3">
-        <v>3781100</v>
+        <v>7677000</v>
       </c>
       <c r="F17" s="3">
-        <v>3282000</v>
+        <v>6663500</v>
       </c>
       <c r="G17" s="3">
-        <v>2250800</v>
+        <v>4569900</v>
       </c>
       <c r="H17" s="3">
-        <v>2113000</v>
+        <v>4290100</v>
       </c>
       <c r="I17" s="3">
-        <v>2039200</v>
+        <v>4140300</v>
       </c>
       <c r="J17" s="3">
-        <v>2049100</v>
+        <v>4160500</v>
       </c>
       <c r="K17" s="3">
         <v>3485700</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>586500</v>
+        <v>1190700</v>
       </c>
       <c r="E18" s="3">
-        <v>544700</v>
+        <v>1106000</v>
       </c>
       <c r="F18" s="3">
-        <v>481200</v>
+        <v>977100</v>
       </c>
       <c r="G18" s="3">
-        <v>282300</v>
+        <v>573100</v>
       </c>
       <c r="H18" s="3">
-        <v>302200</v>
+        <v>613500</v>
       </c>
       <c r="I18" s="3">
-        <v>313600</v>
+        <v>636700</v>
       </c>
       <c r="J18" s="3">
-        <v>302900</v>
+        <v>615000</v>
       </c>
       <c r="K18" s="3">
         <v>541000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>28300</v>
+        <v>57600</v>
       </c>
       <c r="E20" s="3">
-        <v>-2900</v>
+        <v>-5800</v>
       </c>
       <c r="F20" s="3">
-        <v>-800</v>
+        <v>-1600</v>
       </c>
       <c r="G20" s="3">
-        <v>4400</v>
+        <v>8900</v>
       </c>
       <c r="H20" s="3">
-        <v>-16300</v>
+        <v>-33100</v>
       </c>
       <c r="I20" s="3">
-        <v>-44700</v>
+        <v>-90800</v>
       </c>
       <c r="J20" s="3">
-        <v>-41400</v>
+        <v>-84100</v>
       </c>
       <c r="K20" s="3">
         <v>-57700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1691900</v>
+        <v>3427600</v>
       </c>
       <c r="E21" s="3">
-        <v>1462400</v>
+        <v>2962800</v>
       </c>
       <c r="F21" s="3">
-        <v>1280700</v>
+        <v>2594700</v>
       </c>
       <c r="G21" s="3">
-        <v>750600</v>
+        <v>1520800</v>
       </c>
       <c r="H21" s="3">
-        <v>721300</v>
+        <v>1461600</v>
       </c>
       <c r="I21" s="3">
-        <v>696300</v>
+        <v>1410900</v>
       </c>
       <c r="J21" s="3">
-        <v>727500</v>
+        <v>1473900</v>
       </c>
       <c r="K21" s="3">
         <v>1288400</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>292000</v>
+        <v>592800</v>
       </c>
       <c r="E22" s="3">
-        <v>272800</v>
+        <v>553800</v>
       </c>
       <c r="F22" s="3">
-        <v>263800</v>
+        <v>535600</v>
       </c>
       <c r="G22" s="3">
-        <v>132900</v>
+        <v>269900</v>
       </c>
       <c r="H22" s="3">
-        <v>136300</v>
+        <v>276800</v>
       </c>
       <c r="I22" s="3">
-        <v>134900</v>
+        <v>273800</v>
       </c>
       <c r="J22" s="3">
-        <v>128400</v>
+        <v>260700</v>
       </c>
       <c r="K22" s="3">
         <v>208500</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>322900</v>
+        <v>655500</v>
       </c>
       <c r="E23" s="3">
-        <v>269100</v>
+        <v>546400</v>
       </c>
       <c r="F23" s="3">
-        <v>216700</v>
+        <v>439900</v>
       </c>
       <c r="G23" s="3">
-        <v>153800</v>
+        <v>312200</v>
       </c>
       <c r="H23" s="3">
-        <v>149500</v>
+        <v>303600</v>
       </c>
       <c r="I23" s="3">
-        <v>134000</v>
+        <v>272100</v>
       </c>
       <c r="J23" s="3">
-        <v>133100</v>
+        <v>270200</v>
       </c>
       <c r="K23" s="3">
         <v>274700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>144300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>139100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>88500</v>
+      </c>
+      <c r="G24" s="3">
         <v>71100</v>
       </c>
-      <c r="E24" s="3">
-        <v>68500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>43600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>35000</v>
-      </c>
       <c r="H24" s="3">
-        <v>38400</v>
+        <v>78000</v>
       </c>
       <c r="I24" s="3">
-        <v>37100</v>
+        <v>75400</v>
       </c>
       <c r="J24" s="3">
-        <v>19300</v>
+        <v>39100</v>
       </c>
       <c r="K24" s="3">
         <v>97100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>251800</v>
+        <v>511200</v>
       </c>
       <c r="E26" s="3">
-        <v>200600</v>
+        <v>407300</v>
       </c>
       <c r="F26" s="3">
-        <v>173100</v>
+        <v>351400</v>
       </c>
       <c r="G26" s="3">
-        <v>118700</v>
+        <v>241100</v>
       </c>
       <c r="H26" s="3">
-        <v>111100</v>
+        <v>225600</v>
       </c>
       <c r="I26" s="3">
-        <v>96900</v>
+        <v>196700</v>
       </c>
       <c r="J26" s="3">
-        <v>113800</v>
+        <v>231100</v>
       </c>
       <c r="K26" s="3">
         <v>177600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>225800</v>
+        <v>458500</v>
       </c>
       <c r="E27" s="3">
-        <v>184500</v>
+        <v>374600</v>
       </c>
       <c r="F27" s="3">
-        <v>159600</v>
+        <v>324100</v>
       </c>
       <c r="G27" s="3">
-        <v>112000</v>
+        <v>227300</v>
       </c>
       <c r="H27" s="3">
-        <v>108300</v>
+        <v>220000</v>
       </c>
       <c r="I27" s="3">
-        <v>93000</v>
+        <v>188700</v>
       </c>
       <c r="J27" s="3">
-        <v>110300</v>
+        <v>223900</v>
       </c>
       <c r="K27" s="3">
         <v>173700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-28300</v>
+        <v>-57600</v>
       </c>
       <c r="E32" s="3">
-        <v>2900</v>
+        <v>5800</v>
       </c>
       <c r="F32" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G32" s="3">
-        <v>-4400</v>
+        <v>-8900</v>
       </c>
       <c r="H32" s="3">
-        <v>16300</v>
+        <v>33100</v>
       </c>
       <c r="I32" s="3">
-        <v>44700</v>
+        <v>90800</v>
       </c>
       <c r="J32" s="3">
-        <v>41400</v>
+        <v>84100</v>
       </c>
       <c r="K32" s="3">
         <v>57700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>225800</v>
+        <v>458500</v>
       </c>
       <c r="E33" s="3">
-        <v>184500</v>
+        <v>374600</v>
       </c>
       <c r="F33" s="3">
-        <v>159600</v>
+        <v>324100</v>
       </c>
       <c r="G33" s="3">
-        <v>112000</v>
+        <v>227300</v>
       </c>
       <c r="H33" s="3">
-        <v>108300</v>
+        <v>220000</v>
       </c>
       <c r="I33" s="3">
-        <v>93000</v>
+        <v>188700</v>
       </c>
       <c r="J33" s="3">
-        <v>110300</v>
+        <v>223900</v>
       </c>
       <c r="K33" s="3">
         <v>505400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>225800</v>
+        <v>458500</v>
       </c>
       <c r="E35" s="3">
-        <v>184500</v>
+        <v>374600</v>
       </c>
       <c r="F35" s="3">
-        <v>159600</v>
+        <v>324100</v>
       </c>
       <c r="G35" s="3">
-        <v>112000</v>
+        <v>227300</v>
       </c>
       <c r="H35" s="3">
-        <v>108300</v>
+        <v>220000</v>
       </c>
       <c r="I35" s="3">
-        <v>93000</v>
+        <v>188700</v>
       </c>
       <c r="J35" s="3">
-        <v>110300</v>
+        <v>223900</v>
       </c>
       <c r="K35" s="3">
         <v>505400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>392100</v>
+        <v>796100</v>
       </c>
       <c r="E41" s="3">
-        <v>246900</v>
+        <v>501300</v>
       </c>
       <c r="F41" s="3">
-        <v>315700</v>
+        <v>641000</v>
       </c>
       <c r="G41" s="3">
-        <v>79700</v>
+        <v>161900</v>
       </c>
       <c r="H41" s="3">
-        <v>30200</v>
+        <v>61300</v>
       </c>
       <c r="I41" s="3">
-        <v>33700</v>
+        <v>68400</v>
       </c>
       <c r="J41" s="3">
-        <v>56700</v>
+        <v>115100</v>
       </c>
       <c r="K41" s="3">
         <v>228200</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>110500</v>
+        <v>224300</v>
       </c>
       <c r="E42" s="3">
-        <v>90800</v>
+        <v>184400</v>
       </c>
       <c r="F42" s="3">
-        <v>70300</v>
+        <v>142700</v>
       </c>
       <c r="G42" s="3">
-        <v>59200</v>
+        <v>120200</v>
       </c>
       <c r="H42" s="3">
-        <v>47200</v>
+        <v>95800</v>
       </c>
       <c r="I42" s="3">
-        <v>42500</v>
+        <v>86200</v>
       </c>
       <c r="J42" s="3">
-        <v>45200</v>
+        <v>91800</v>
       </c>
       <c r="K42" s="3">
         <v>26100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>537000</v>
+        <v>1090400</v>
       </c>
       <c r="E43" s="3">
-        <v>455200</v>
+        <v>924300</v>
       </c>
       <c r="F43" s="3">
-        <v>431800</v>
+        <v>876800</v>
       </c>
       <c r="G43" s="3">
-        <v>424800</v>
+        <v>862400</v>
       </c>
       <c r="H43" s="3">
-        <v>378200</v>
+        <v>767900</v>
       </c>
       <c r="I43" s="3">
-        <v>362900</v>
+        <v>736900</v>
       </c>
       <c r="J43" s="3">
-        <v>341300</v>
+        <v>693000</v>
       </c>
       <c r="K43" s="3">
         <v>606900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>99400</v>
+        <v>201900</v>
       </c>
       <c r="E44" s="3">
-        <v>85400</v>
+        <v>173300</v>
       </c>
       <c r="F44" s="3">
-        <v>154900</v>
+        <v>314600</v>
       </c>
       <c r="G44" s="3">
-        <v>60400</v>
+        <v>122600</v>
       </c>
       <c r="H44" s="3">
-        <v>48800</v>
+        <v>99100</v>
       </c>
       <c r="I44" s="3">
-        <v>51000</v>
+        <v>103500</v>
       </c>
       <c r="J44" s="3">
-        <v>32100</v>
+        <v>65200</v>
       </c>
       <c r="K44" s="3">
         <v>65000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>188900</v>
+        <v>383400</v>
       </c>
       <c r="E45" s="3">
-        <v>150700</v>
+        <v>306000</v>
       </c>
       <c r="F45" s="3">
-        <v>124400</v>
+        <v>252600</v>
       </c>
       <c r="G45" s="3">
-        <v>69400</v>
+        <v>140900</v>
       </c>
       <c r="H45" s="3">
-        <v>57200</v>
+        <v>116100</v>
       </c>
       <c r="I45" s="3">
-        <v>49600</v>
+        <v>100800</v>
       </c>
       <c r="J45" s="3">
-        <v>50200</v>
+        <v>102000</v>
       </c>
       <c r="K45" s="3">
         <v>102300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1327900</v>
+        <v>2696100</v>
       </c>
       <c r="E46" s="3">
-        <v>1029000</v>
+        <v>2089300</v>
       </c>
       <c r="F46" s="3">
-        <v>861800</v>
+        <v>1749800</v>
       </c>
       <c r="G46" s="3">
-        <v>693500</v>
+        <v>1408000</v>
       </c>
       <c r="H46" s="3">
-        <v>561500</v>
+        <v>1140100</v>
       </c>
       <c r="I46" s="3">
-        <v>539700</v>
+        <v>1095700</v>
       </c>
       <c r="J46" s="3">
-        <v>525600</v>
+        <v>1067100</v>
       </c>
       <c r="K46" s="3">
         <v>1028500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>327800</v>
+        <v>665400</v>
       </c>
       <c r="E47" s="3">
-        <v>279400</v>
+        <v>567300</v>
       </c>
       <c r="F47" s="3">
-        <v>258800</v>
+        <v>525500</v>
       </c>
       <c r="G47" s="3">
-        <v>728500</v>
+        <v>1479200</v>
       </c>
       <c r="H47" s="3">
-        <v>599800</v>
+        <v>1217800</v>
       </c>
       <c r="I47" s="3">
-        <v>547000</v>
+        <v>1110500</v>
       </c>
       <c r="J47" s="3">
-        <v>594000</v>
+        <v>1206000</v>
       </c>
       <c r="K47" s="3">
         <v>1012400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5701800</v>
+        <v>11576700</v>
       </c>
       <c r="E48" s="3">
-        <v>5312200</v>
+        <v>10785600</v>
       </c>
       <c r="F48" s="3">
-        <v>9238100</v>
+        <v>18756400</v>
       </c>
       <c r="G48" s="3">
-        <v>3293900</v>
+        <v>6687700</v>
       </c>
       <c r="H48" s="3">
-        <v>2757300</v>
+        <v>5598300</v>
       </c>
       <c r="I48" s="3">
-        <v>2719800</v>
+        <v>5522200</v>
       </c>
       <c r="J48" s="3">
-        <v>2680000</v>
+        <v>5441200</v>
       </c>
       <c r="K48" s="3">
         <v>4424800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1178600</v>
+        <v>2393100</v>
       </c>
       <c r="E49" s="3">
-        <v>1116800</v>
+        <v>2267400</v>
       </c>
       <c r="F49" s="3">
-        <v>2002800</v>
+        <v>4066400</v>
       </c>
       <c r="G49" s="3">
-        <v>522700</v>
+        <v>1061300</v>
       </c>
       <c r="H49" s="3">
-        <v>473200</v>
+        <v>960700</v>
       </c>
       <c r="I49" s="3">
-        <v>484200</v>
+        <v>983000</v>
       </c>
       <c r="J49" s="3">
-        <v>480600</v>
+        <v>975700</v>
       </c>
       <c r="K49" s="3">
         <v>786900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>187700</v>
+        <v>381100</v>
       </c>
       <c r="E52" s="3">
-        <v>173400</v>
+        <v>352100</v>
       </c>
       <c r="F52" s="3">
-        <v>160800</v>
+        <v>326400</v>
       </c>
       <c r="G52" s="3">
-        <v>43700</v>
+        <v>88800</v>
       </c>
       <c r="H52" s="3">
-        <v>47400</v>
+        <v>96300</v>
       </c>
       <c r="I52" s="3">
-        <v>104800</v>
+        <v>212800</v>
       </c>
       <c r="J52" s="3">
-        <v>80800</v>
+        <v>164100</v>
       </c>
       <c r="K52" s="3">
         <v>137600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8723800</v>
+        <v>17712400</v>
       </c>
       <c r="E54" s="3">
-        <v>7910900</v>
+        <v>16061800</v>
       </c>
       <c r="F54" s="3">
-        <v>6991600</v>
+        <v>14195400</v>
       </c>
       <c r="G54" s="3">
-        <v>5114600</v>
+        <v>10384400</v>
       </c>
       <c r="H54" s="3">
-        <v>4431400</v>
+        <v>8997300</v>
       </c>
       <c r="I54" s="3">
-        <v>4395400</v>
+        <v>8924300</v>
       </c>
       <c r="J54" s="3">
-        <v>4360900</v>
+        <v>8854200</v>
       </c>
       <c r="K54" s="3">
         <v>7390100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>466300</v>
+        <v>946700</v>
       </c>
       <c r="E57" s="3">
-        <v>557000</v>
+        <v>1130800</v>
       </c>
       <c r="F57" s="3">
-        <v>1227900</v>
+        <v>2493000</v>
       </c>
       <c r="G57" s="3">
-        <v>477500</v>
+        <v>969600</v>
       </c>
       <c r="H57" s="3">
-        <v>308500</v>
+        <v>626300</v>
       </c>
       <c r="I57" s="3">
-        <v>353200</v>
+        <v>717200</v>
       </c>
       <c r="J57" s="3">
-        <v>339600</v>
+        <v>689400</v>
       </c>
       <c r="K57" s="3">
         <v>586500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>971900</v>
+        <v>1973400</v>
       </c>
       <c r="E58" s="3">
-        <v>395000</v>
+        <v>801900</v>
       </c>
       <c r="F58" s="3">
-        <v>1463100</v>
+        <v>2970600</v>
       </c>
       <c r="G58" s="3">
-        <v>274500</v>
+        <v>557300</v>
       </c>
       <c r="H58" s="3">
-        <v>195500</v>
+        <v>396900</v>
       </c>
       <c r="I58" s="3">
-        <v>483100</v>
+        <v>980900</v>
       </c>
       <c r="J58" s="3">
-        <v>461200</v>
+        <v>936400</v>
       </c>
       <c r="K58" s="3">
         <v>702400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>865800</v>
+        <v>1757800</v>
       </c>
       <c r="E59" s="3">
-        <v>694900</v>
+        <v>1411000</v>
       </c>
       <c r="F59" s="3">
-        <v>921500</v>
+        <v>1871000</v>
       </c>
       <c r="G59" s="3">
-        <v>333800</v>
+        <v>677700</v>
       </c>
       <c r="H59" s="3">
-        <v>248900</v>
+        <v>505400</v>
       </c>
       <c r="I59" s="3">
-        <v>224100</v>
+        <v>454900</v>
       </c>
       <c r="J59" s="3">
-        <v>233000</v>
+        <v>473100</v>
       </c>
       <c r="K59" s="3">
         <v>371200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2304000</v>
+        <v>4677900</v>
       </c>
       <c r="E60" s="3">
-        <v>1646900</v>
+        <v>3343700</v>
       </c>
       <c r="F60" s="3">
-        <v>1885400</v>
+        <v>3828000</v>
       </c>
       <c r="G60" s="3">
-        <v>1085800</v>
+        <v>2204500</v>
       </c>
       <c r="H60" s="3">
-        <v>752800</v>
+        <v>1528500</v>
       </c>
       <c r="I60" s="3">
-        <v>1060400</v>
+        <v>2153000</v>
       </c>
       <c r="J60" s="3">
-        <v>1033700</v>
+        <v>2098900</v>
       </c>
       <c r="K60" s="3">
         <v>1660100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3526700</v>
+        <v>7160500</v>
       </c>
       <c r="E61" s="3">
-        <v>3629100</v>
+        <v>7368300</v>
       </c>
       <c r="F61" s="3">
-        <v>2718900</v>
+        <v>5520300</v>
       </c>
       <c r="G61" s="3">
-        <v>1512600</v>
+        <v>3071100</v>
       </c>
       <c r="H61" s="3">
-        <v>1318300</v>
+        <v>2676600</v>
       </c>
       <c r="I61" s="3">
-        <v>984900</v>
+        <v>1999600</v>
       </c>
       <c r="J61" s="3">
-        <v>1001600</v>
+        <v>2033500</v>
       </c>
       <c r="K61" s="3">
         <v>1857100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1094400</v>
+        <v>2221900</v>
       </c>
       <c r="E62" s="3">
-        <v>912500</v>
+        <v>1852800</v>
       </c>
       <c r="F62" s="3">
-        <v>982800</v>
+        <v>1995400</v>
       </c>
       <c r="G62" s="3">
-        <v>531400</v>
+        <v>1078800</v>
       </c>
       <c r="H62" s="3">
-        <v>387800</v>
+        <v>787400</v>
       </c>
       <c r="I62" s="3">
-        <v>383500</v>
+        <v>778600</v>
       </c>
       <c r="J62" s="3">
-        <v>350800</v>
+        <v>712200</v>
       </c>
       <c r="K62" s="3">
         <v>569700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7240900</v>
+        <v>14701500</v>
       </c>
       <c r="E66" s="3">
-        <v>6485900</v>
+        <v>13168700</v>
       </c>
       <c r="F66" s="3">
-        <v>5334600</v>
+        <v>10831000</v>
       </c>
       <c r="G66" s="3">
-        <v>3160700</v>
+        <v>6417300</v>
       </c>
       <c r="H66" s="3">
-        <v>2484600</v>
+        <v>5044600</v>
       </c>
       <c r="I66" s="3">
-        <v>2462900</v>
+        <v>5000500</v>
       </c>
       <c r="J66" s="3">
-        <v>2417100</v>
+        <v>4907500</v>
       </c>
       <c r="K66" s="3">
         <v>4141800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1587700</v>
+        <v>3223700</v>
       </c>
       <c r="E72" s="3">
-        <v>1537900</v>
+        <v>3122400</v>
       </c>
       <c r="F72" s="3">
-        <v>2078600</v>
+        <v>4220300</v>
       </c>
       <c r="G72" s="3">
-        <v>2430200</v>
+        <v>4934200</v>
       </c>
       <c r="H72" s="3">
-        <v>2463900</v>
+        <v>5002600</v>
       </c>
       <c r="I72" s="3">
-        <v>2461300</v>
+        <v>4997300</v>
       </c>
       <c r="J72" s="3">
-        <v>2485600</v>
+        <v>5046600</v>
       </c>
       <c r="K72" s="3">
         <v>4340800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1482900</v>
+        <v>3010900</v>
       </c>
       <c r="E76" s="3">
-        <v>1424900</v>
+        <v>2893100</v>
       </c>
       <c r="F76" s="3">
-        <v>1657000</v>
+        <v>3364300</v>
       </c>
       <c r="G76" s="3">
-        <v>1954000</v>
+        <v>3967200</v>
       </c>
       <c r="H76" s="3">
-        <v>1946800</v>
+        <v>3952700</v>
       </c>
       <c r="I76" s="3">
-        <v>1932500</v>
+        <v>3923700</v>
       </c>
       <c r="J76" s="3">
-        <v>1943900</v>
+        <v>3946700</v>
       </c>
       <c r="K76" s="3">
         <v>3248300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>225800</v>
+        <v>458500</v>
       </c>
       <c r="E81" s="3">
-        <v>184500</v>
+        <v>374600</v>
       </c>
       <c r="F81" s="3">
-        <v>159600</v>
+        <v>324100</v>
       </c>
       <c r="G81" s="3">
-        <v>112000</v>
+        <v>227300</v>
       </c>
       <c r="H81" s="3">
-        <v>108300</v>
+        <v>220000</v>
       </c>
       <c r="I81" s="3">
-        <v>93000</v>
+        <v>188700</v>
       </c>
       <c r="J81" s="3">
-        <v>110300</v>
+        <v>223900</v>
       </c>
       <c r="K81" s="3">
         <v>505400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1107900</v>
+        <v>2249300</v>
       </c>
       <c r="E83" s="3">
-        <v>946800</v>
+        <v>1922400</v>
       </c>
       <c r="F83" s="3">
-        <v>823100</v>
+        <v>1671200</v>
       </c>
       <c r="G83" s="3">
-        <v>477200</v>
+        <v>968900</v>
       </c>
       <c r="H83" s="3">
-        <v>447900</v>
+        <v>909400</v>
       </c>
       <c r="I83" s="3">
-        <v>439700</v>
+        <v>892800</v>
       </c>
       <c r="J83" s="3">
-        <v>479300</v>
+        <v>973200</v>
       </c>
       <c r="K83" s="3">
         <v>816800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1206000</v>
+        <v>2448700</v>
       </c>
       <c r="E89" s="3">
-        <v>1082000</v>
+        <v>2196800</v>
       </c>
       <c r="F89" s="3">
-        <v>1114800</v>
+        <v>2263400</v>
       </c>
       <c r="G89" s="3">
-        <v>611000</v>
+        <v>1240500</v>
       </c>
       <c r="H89" s="3">
-        <v>567700</v>
+        <v>1152600</v>
       </c>
       <c r="I89" s="3">
-        <v>531400</v>
+        <v>1078900</v>
       </c>
       <c r="J89" s="3">
-        <v>639500</v>
+        <v>1298500</v>
       </c>
       <c r="K89" s="3">
         <v>1071500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1169400</v>
+        <v>-2374300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1075700</v>
+        <v>-2184000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1063000</v>
+        <v>-2158200</v>
       </c>
       <c r="G91" s="3">
-        <v>-578800</v>
+        <v>-1175300</v>
       </c>
       <c r="H91" s="3">
-        <v>-480500</v>
+        <v>-975700</v>
       </c>
       <c r="I91" s="3">
-        <v>-489300</v>
+        <v>-993400</v>
       </c>
       <c r="J91" s="3">
-        <v>-496200</v>
+        <v>-1007400</v>
       </c>
       <c r="K91" s="3">
         <v>-776800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1004200</v>
+        <v>-2038900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1864600</v>
+        <v>-3785700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1086400</v>
+        <v>-2205800</v>
       </c>
       <c r="G94" s="3">
-        <v>-547200</v>
+        <v>-1111100</v>
       </c>
       <c r="H94" s="3">
-        <v>-422900</v>
+        <v>-858500</v>
       </c>
       <c r="I94" s="3">
-        <v>-450500</v>
+        <v>-914600</v>
       </c>
       <c r="J94" s="3">
-        <v>-518600</v>
+        <v>-1053000</v>
       </c>
       <c r="K94" s="3">
         <v>-284300</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-132900</v>
+        <v>-269800</v>
       </c>
       <c r="E96" s="3">
-        <v>-131800</v>
+        <v>-267600</v>
       </c>
       <c r="F96" s="3">
-        <v>-92800</v>
+        <v>-188400</v>
       </c>
       <c r="G96" s="3">
-        <v>-91300</v>
+        <v>-185400</v>
       </c>
       <c r="H96" s="3">
-        <v>-96500</v>
+        <v>-195900</v>
       </c>
       <c r="I96" s="3">
-        <v>-105200</v>
+        <v>-213500</v>
       </c>
       <c r="J96" s="3">
-        <v>-60700</v>
+        <v>-123300</v>
       </c>
       <c r="K96" s="3">
         <v>-98300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-56800</v>
+        <v>-115300</v>
       </c>
       <c r="E100" s="3">
-        <v>874500</v>
+        <v>1775400</v>
       </c>
       <c r="F100" s="3">
-        <v>47300</v>
+        <v>96000</v>
       </c>
       <c r="G100" s="3">
-        <v>-14600</v>
+        <v>-29600</v>
       </c>
       <c r="H100" s="3">
-        <v>-147100</v>
+        <v>-298700</v>
       </c>
       <c r="I100" s="3">
-        <v>-100300</v>
+        <v>-203600</v>
       </c>
       <c r="J100" s="3">
-        <v>-198600</v>
+        <v>-403300</v>
       </c>
       <c r="K100" s="3">
         <v>-669000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
-        <v>-2800</v>
+        <v>-5700</v>
       </c>
       <c r="F101" s="3">
-        <v>-800</v>
+        <v>-1700</v>
       </c>
       <c r="G101" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="H101" s="3">
-        <v>-1200</v>
+        <v>-2400</v>
       </c>
       <c r="I101" s="3">
-        <v>-3600</v>
+        <v>-7300</v>
       </c>
       <c r="J101" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K101" s="3">
         <v>2900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>145200</v>
+        <v>294800</v>
       </c>
       <c r="E102" s="3">
-        <v>89100</v>
+        <v>180800</v>
       </c>
       <c r="F102" s="3">
-        <v>74900</v>
+        <v>152000</v>
       </c>
       <c r="G102" s="3">
-        <v>49600</v>
+        <v>100600</v>
       </c>
       <c r="H102" s="3">
-        <v>-3500</v>
+        <v>-7100</v>
       </c>
       <c r="I102" s="3">
-        <v>-23000</v>
+        <v>-46700</v>
       </c>
       <c r="J102" s="3">
-        <v>-77400</v>
+        <v>-157100</v>
       </c>
       <c r="K102" s="3">
         <v>121000</v>
